--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/11_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/11_225-80R17.xlsx
@@ -1052,100 +1052,100 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.2563095199472534</v>
+        <v>0.208281648147465</v>
       </c>
       <c r="AT2">
-        <v>0.1877326955982734</v>
+        <v>0.1552304553574616</v>
       </c>
       <c r="AU2">
-        <v>0.01641376049341492</v>
+        <v>0.02269772376617857</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>0.003096489997265502</v>
       </c>
       <c r="AW2">
-        <v>0.07895056746737363</v>
+        <v>0.0710763448928079</v>
       </c>
       <c r="AX2">
-        <v>0.005031726780633876</v>
+        <v>0.01389255568539609</v>
       </c>
       <c r="AY2">
-        <v>0.04426236782297439</v>
+        <v>0.04424147196972943</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>0.005126664836016516</v>
       </c>
       <c r="BA2">
-        <v>0.1385281188552363</v>
+        <v>0.1171656789300561</v>
       </c>
       <c r="BB2">
-        <v>0.03099039018221705</v>
+        <v>0.03397423881612971</v>
       </c>
       <c r="BC2">
-        <v>0.001604330920150875</v>
+        <v>0.01124111417744811</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>0.0002225476012872567</v>
       </c>
       <c r="BE2">
-        <v>0.017707413246459</v>
+        <v>0.02369849658201807</v>
       </c>
       <c r="BF2">
-        <v>0.01756776612541485</v>
+        <v>0.02359046524035983</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>0.008187956458864517</v>
       </c>
       <c r="BH2">
-        <v>0.0305669277831335</v>
+        <v>0.0336466473070978</v>
       </c>
       <c r="BI2">
-        <v>0.02361776384417493</v>
+        <v>0.02827075772115033</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>0.0004698076482176625</v>
       </c>
       <c r="BK2">
-        <v>0.04957020148342885</v>
+        <v>0.04834762458748661</v>
       </c>
       <c r="BL2">
-        <v>0.02951505035122444</v>
+        <v>0.03283291244898183</v>
       </c>
       <c r="BM2">
-        <v>0</v>
+        <v>0.001041855192847344</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>0.0003967520948963776</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>0.004474194275185149</v>
       </c>
       <c r="BP2">
-        <v>0.04419497360959591</v>
+        <v>0.04418933564757083</v>
       </c>
       <c r="BQ2">
-        <v>0</v>
+        <v>0.007076664533790862</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>0.003016772788603263</v>
       </c>
       <c r="BS2">
-        <v>0.006640389362154733</v>
+        <v>0.01513702084627951</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>4.883550396467838E-06</v>
       </c>
       <c r="BU2">
-        <v>0.005481571650646746</v>
+        <v>0.0142405567360601</v>
       </c>
       <c r="BV2">
-        <v>0.01531446447623926</v>
+        <v>0.02184730577884672</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>0.002679471773764719</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>0.000603584610340198</v>
       </c>
     </row>
     <row r="3" spans="1:76">
@@ -1159,46 +1159,46 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03881072428427845</v>
+        <v>0.04052625656408599</v>
       </c>
       <c r="E3">
-        <v>0.09247778722679539</v>
+        <v>0.08366529577349531</v>
       </c>
       <c r="F3">
-        <v>0.2875523646706792</v>
+        <v>0.2404715263310417</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.003261135741084349</v>
       </c>
       <c r="H3">
-        <v>0.01858991294365847</v>
+        <v>0.02427222056059897</v>
       </c>
       <c r="I3">
-        <v>0.06345277485725591</v>
+        <v>0.0603342044483692</v>
       </c>
       <c r="J3">
-        <v>0.02038411889707667</v>
+        <v>0.02571445191686244</v>
       </c>
       <c r="K3">
-        <v>0.01518465270516407</v>
+        <v>0.02153498012126288</v>
       </c>
       <c r="L3">
-        <v>0.1526575553298814</v>
+        <v>0.132039423841448</v>
       </c>
       <c r="M3">
-        <v>0.1624604621712664</v>
+        <v>0.1399192659533528</v>
       </c>
       <c r="N3">
-        <v>0.00769162683087223</v>
+        <v>0.01551188291293567</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.006516179099591981</v>
       </c>
       <c r="Q3">
-        <v>0.00683074529184893</v>
+        <v>0.01481988300777296</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1207,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.02377255845475779</v>
+        <v>0.02843817143723357</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.005311507214352367</v>
       </c>
       <c r="V3">
-        <v>0.0008553208137655354</v>
+        <v>0.01001667491850214</v>
       </c>
       <c r="W3">
-        <v>0.06367114341198642</v>
+        <v>0.06050973500897974</v>
       </c>
       <c r="X3">
-        <v>0.00827668005687005</v>
+        <v>0.0159821645469976</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1228,31 +1228,31 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.0009480484144736437</v>
       </c>
       <c r="AB3">
-        <v>0.02204347967635454</v>
+        <v>0.02704829106875523</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.004129950181627483</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.002677056841722378</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.003100727843910938</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.008967235028204734</v>
+        <v>0.01653725134234855</v>
       </c>
       <c r="AH3">
-        <v>0.006320857349283903</v>
+        <v>0.01441002126500761</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.002303693644186531</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -1389,46 +1389,46 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1244513394714328</v>
+        <v>0.1157678671924923</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3532062160530097</v>
+        <v>0.3179533879837821</v>
       </c>
       <c r="G4">
-        <v>0.0103057655233984</v>
+        <v>0.014880040626426</v>
       </c>
       <c r="H4">
-        <v>0.07487960328492826</v>
+        <v>0.07195377480166784</v>
       </c>
       <c r="I4">
-        <v>0.01841163713575468</v>
+        <v>0.02204443378779818</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.005109532132059742</v>
       </c>
       <c r="K4">
-        <v>0.03053003358568293</v>
+        <v>0.03275530620284067</v>
       </c>
       <c r="L4">
-        <v>0.1013362373284298</v>
+        <v>0.0953375313029739</v>
       </c>
       <c r="M4">
-        <v>0.09911264948092254</v>
+        <v>0.09337220809897609</v>
       </c>
       <c r="N4">
-        <v>0.0312059496064792</v>
+        <v>0.03335271612352989</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.001438706327864647</v>
       </c>
       <c r="Q4">
-        <v>0.000509920142833638</v>
+        <v>0.006221960285331556</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1437,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.02072015594763041</v>
+        <v>0.02408482341887622</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.003643311106236277</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.04719124460432774</v>
+        <v>0.04748135566311075</v>
       </c>
       <c r="X4">
-        <v>0.0005925422009470533</v>
+        <v>0.006294985980338114</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1458,16 +1458,16 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.01509015861615545</v>
+        <v>0.019108737402577</v>
       </c>
       <c r="AB4">
-        <v>0.06286253175757493</v>
+        <v>0.06133245865115657</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.003552748587313573</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.005644577235420277</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.009594015260492247</v>
+        <v>0.01425095852890097</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.004418578560327661</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1742,100 +1742,100 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.3369532617340459</v>
+        <v>0.2787730009420327</v>
       </c>
       <c r="AT5">
-        <v>0.09718574479993639</v>
+        <v>0.08752085302347494</v>
       </c>
       <c r="AU5">
-        <v>0.1039921568049453</v>
+        <v>0.09295003263972108</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>0.00224555388507296</v>
       </c>
       <c r="AW5">
-        <v>0.07283891011946055</v>
+        <v>0.0681004390858411</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>6.451168334284681E-05</v>
       </c>
       <c r="AY5">
-        <v>0.0324358771793259</v>
+        <v>0.03587269226245261</v>
       </c>
       <c r="AZ5">
-        <v>0.02660207830144619</v>
+        <v>0.0312193239489042</v>
       </c>
       <c r="BA5">
-        <v>0.08411018697834913</v>
+        <v>0.07709104772462336</v>
       </c>
       <c r="BB5">
-        <v>0.06864486848713371</v>
+        <v>0.0647550339997018</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>0.0003388142136403027</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>0.005435744350588777</v>
       </c>
       <c r="BE5">
-        <v>0.0005397113484173272</v>
+        <v>0.01043050433169895</v>
       </c>
       <c r="BF5">
-        <v>0.0131868787269319</v>
+        <v>0.02051860115630399</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>0.001877439781915116</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>0.002925634023668192</v>
       </c>
       <c r="BI5">
-        <v>0.03570559906741341</v>
+        <v>0.03848080758261464</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>0.005632283818313567</v>
       </c>
       <c r="BK5">
-        <v>0.00811308905263553</v>
+        <v>0.01647145921771167</v>
       </c>
       <c r="BL5">
-        <v>0.04168023265538847</v>
+        <v>0.04324651363545166</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>0.0004389187310898835</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>0.002420006144473491</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>0.0007638628148481497</v>
       </c>
       <c r="BP5">
-        <v>0.02916205456193181</v>
+        <v>0.03326130596839911</v>
       </c>
       <c r="BQ5">
-        <v>0.02567269331179372</v>
+        <v>0.03047799385637482</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>0.00137243890063714</v>
       </c>
       <c r="BS5">
-        <v>0.007912020004514424</v>
+        <v>0.01631107515975077</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>0.0001549058847911476</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>0.002261032403045873</v>
       </c>
       <c r="BV5">
-        <v>0.01526463686633011</v>
+        <v>0.02217593869767069</v>
       </c>
       <c r="BW5">
-        <v>0</v>
+        <v>0.006129110205064101</v>
       </c>
       <c r="BX5">
-        <v>0</v>
+        <v>0.0002831199267802202</v>
       </c>
     </row>
     <row r="6" spans="1:76">
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2150422524604174</v>
+        <v>0.2223568659173052</v>
       </c>
       <c r="E6">
-        <v>0.2067894590214242</v>
+        <v>0.2137393378008829</v>
       </c>
       <c r="F6">
-        <v>0.03704037280387094</v>
+        <v>0.03648813988465503</v>
       </c>
       <c r="G6">
-        <v>0.04793855664815475</v>
+        <v>0.04786797222752177</v>
       </c>
       <c r="H6">
-        <v>0.05454165336258725</v>
+        <v>0.05476289477862085</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1870,22 +1870,22 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1668684389604949</v>
+        <v>0.1720539963035585</v>
       </c>
       <c r="L6">
-        <v>0.1070061558774985</v>
+        <v>0.1095460816932691</v>
       </c>
       <c r="M6">
-        <v>0.01134296721270965</v>
+        <v>0.009655029758012679</v>
       </c>
       <c r="N6">
-        <v>0.004553302129428794</v>
+        <v>0.002565293393133976</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.008889213940576143</v>
+        <v>0.007092832125212972</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1894,40 +1894,40 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.002096584124226801</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.005363331031065469</v>
+        <v>0.00341112176465083</v>
       </c>
       <c r="U6">
-        <v>0.004246748477865529</v>
+        <v>0.002245191511138904</v>
       </c>
       <c r="V6">
-        <v>0.01674907828405115</v>
+        <v>0.01530006552707342</v>
       </c>
       <c r="W6">
-        <v>0.01451046599045766</v>
+        <v>0.01296251709278671</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.003419275122173354</v>
+        <v>0.001381147722695628</v>
       </c>
       <c r="Z6">
-        <v>0.005181475709013975</v>
+        <v>0.00322122929218263</v>
       </c>
       <c r="AA6">
-        <v>0.03802991921506999</v>
+        <v>0.03752141959582792</v>
       </c>
       <c r="AB6">
-        <v>0.04590569834320564</v>
+        <v>0.04574527114102294</v>
       </c>
       <c r="AC6">
-        <v>0.004091989075314718</v>
+        <v>0.0020835924704479</v>
       </c>
       <c r="AD6">
-        <v>0.0003930622103931885</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -2079,43 +2079,43 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1667839462324734</v>
+        <v>0.1463705708176828</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1805107927643272</v>
+        <v>0.1577446734344729</v>
       </c>
       <c r="G7">
-        <v>0.01160966160406773</v>
+        <v>0.01779273374820112</v>
       </c>
       <c r="H7">
-        <v>0.1138133674113112</v>
+        <v>0.1024790041869528</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.006046617921746025</v>
       </c>
       <c r="J7">
-        <v>0.02414714190163801</v>
+        <v>0.0281813242470919</v>
       </c>
       <c r="K7">
-        <v>0.004826343774594462</v>
+        <v>0.01217205802375918</v>
       </c>
       <c r="L7">
-        <v>0.2885439533077817</v>
+        <v>0.2472612460271632</v>
       </c>
       <c r="M7">
-        <v>0.0466049348178247</v>
+        <v>0.04678991294097541</v>
       </c>
       <c r="N7">
-        <v>0.04328782677370278</v>
+        <v>0.04404134813424647</v>
       </c>
       <c r="O7">
-        <v>0.001283870608713206</v>
+        <v>0.009236755060150016</v>
       </c>
       <c r="P7">
-        <v>0.02623855819171495</v>
+        <v>0.02991427751079747</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2124,40 +2124,40 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.002228022840688933</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>0.002321456864285709</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.03880325181970224</v>
+        <v>0.04032541704977472</v>
       </c>
       <c r="W7">
-        <v>0.03075935268112695</v>
+        <v>0.03366022020147071</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>0.008009526872182182</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.00154322436193788</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.007400606801722833</v>
       </c>
       <c r="AA7">
-        <v>0.005038820213497473</v>
+        <v>0.01234811658273883</v>
       </c>
       <c r="AB7">
-        <v>0.0133673282466095</v>
+        <v>0.01924914114024028</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>0.00804149459382565</v>
       </c>
       <c r="AD7">
-        <v>0.004380849650914391</v>
+        <v>0.01180292037323212</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.003959249135071339</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>0.001080081129589371</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -2309,46 +2309,46 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1358229293557527</v>
+        <v>0.1232970991584282</v>
       </c>
       <c r="E8">
-        <v>0.003741465277314284</v>
+        <v>0.01009653811458324</v>
       </c>
       <c r="F8">
-        <v>0.2628338695837462</v>
+        <v>0.2321519622751538</v>
       </c>
       <c r="G8">
-        <v>0.05538014918354919</v>
+        <v>0.05435352777272415</v>
       </c>
       <c r="H8">
-        <v>0.1122028393876358</v>
+        <v>0.1030534756117582</v>
       </c>
       <c r="I8">
-        <v>0.01384816922152223</v>
+        <v>0.01875849961516859</v>
       </c>
       <c r="J8">
-        <v>0.001487215301072412</v>
+        <v>0.00816453074455507</v>
       </c>
       <c r="K8">
-        <v>0.07047961926906607</v>
+        <v>0.06729454487206667</v>
       </c>
       <c r="L8">
-        <v>0.06546859175766008</v>
+        <v>0.06299983834639983</v>
       </c>
       <c r="M8">
-        <v>0.03426473525172505</v>
+        <v>0.03625653952056476</v>
       </c>
       <c r="N8">
-        <v>0.1213965382836669</v>
+        <v>0.1109329451524717</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.004706391909525086</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.0006322088651186776</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2357,19 +2357,19 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.006739744323130698</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.0004450485285711363</v>
+        <v>0.007271340589740181</v>
       </c>
       <c r="W8">
-        <v>0.03277595948984844</v>
+        <v>0.03498058265039541</v>
       </c>
       <c r="X8">
-        <v>0.00805819961546719</v>
+        <v>0.01379619992834042</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -2378,19 +2378,19 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.01052324673016693</v>
+        <v>0.0159088712129183</v>
       </c>
       <c r="AB8">
-        <v>0.0673819565862786</v>
+        <v>0.06463968973351458</v>
       </c>
       <c r="AC8">
-        <v>0.0001480018996424928</v>
+        <v>0.007016756456489385</v>
       </c>
       <c r="AD8">
-        <v>0.003741465277314284</v>
+        <v>0.01009653811458324</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.006852175032369786</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -2539,37 +2539,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2951239563286913</v>
+        <v>0.2657680907466968</v>
       </c>
       <c r="E9">
-        <v>0.1271832531907981</v>
+        <v>0.1183526695618885</v>
       </c>
       <c r="F9">
-        <v>0.06144183094256048</v>
+        <v>0.06064599530761366</v>
       </c>
       <c r="G9">
-        <v>0.04150338284500667</v>
+        <v>0.0431443731924616</v>
       </c>
       <c r="H9">
-        <v>0.05996760299663202</v>
+        <v>0.05935194371969682</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02009655521620821</v>
+        <v>0.02435383312583566</v>
       </c>
       <c r="K9">
-        <v>0.06191173348520189</v>
+        <v>0.06105846756683968</v>
       </c>
       <c r="L9">
-        <v>0.05697416944020885</v>
+        <v>0.05672435993408807</v>
       </c>
       <c r="M9">
-        <v>0.07677596277717268</v>
+        <v>0.07410602888295655</v>
       </c>
       <c r="N9">
-        <v>0.04182629603089211</v>
+        <v>0.04342782075707222</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2578,25 +2578,25 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.001003583845602164</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.001787005170107003</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.004232966929687011</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.0007254438439150351</v>
       </c>
       <c r="V9">
-        <v>0.03121809472713078</v>
+        <v>0.03411612660557645</v>
       </c>
       <c r="W9">
-        <v>0.03036539666519526</v>
+        <v>0.03336764311351625</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.006027694996584909</v>
       </c>
       <c r="AA9">
-        <v>0.04093039799874436</v>
+        <v>0.04264141708434696</v>
       </c>
       <c r="AB9">
-        <v>0.03091397316875397</v>
+        <v>0.03384917400396273</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>0.003098405223145181</v>
       </c>
       <c r="AD9">
-        <v>0.02376739418680357</v>
+        <v>0.02757603157350802</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.004640924814898971</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -2769,46 +2769,46 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2827533633923551</v>
+        <v>0.2832258276636156</v>
       </c>
       <c r="E10">
-        <v>0.008526143401612519</v>
+        <v>0.008428344408071683</v>
       </c>
       <c r="F10">
-        <v>0.1341176670296603</v>
+        <v>0.1342810391638359</v>
       </c>
       <c r="G10">
-        <v>0.02368051990013479</v>
+        <v>0.02361423486140255</v>
       </c>
       <c r="H10">
-        <v>0.06603903757444197</v>
+        <v>0.06606083827199044</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03644885758834376</v>
+        <v>0.03640912466918744</v>
       </c>
       <c r="K10">
-        <v>0.04017202211173809</v>
+        <v>0.04014003161857644</v>
       </c>
       <c r="L10">
-        <v>0.05841851539417187</v>
+        <v>0.05842446900018012</v>
       </c>
       <c r="M10">
-        <v>0.06268265088013576</v>
+        <v>0.06269747187656523</v>
       </c>
       <c r="N10">
-        <v>0.08408080168609101</v>
+        <v>0.08414012074270476</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.0001152896020503305</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.00509727538827986</v>
+        <v>0.004992345966665829</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2817,16 +2817,16 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.007135449025890524</v>
+        <v>0.007034758044037707</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.0189954106233862</v>
+        <v>0.01891938276732096</v>
       </c>
       <c r="W10">
-        <v>0.05602785408489905</v>
+        <v>0.0560288362430572</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.03080187522489146</v>
+        <v>0.03075039924609661</v>
       </c>
       <c r="AB10">
-        <v>0.05729569757461908</v>
+        <v>0.05729931624919501</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.02761156951729829</v>
+        <v>0.02755345920749651</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -2999,67 +2999,67 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2294434655162561</v>
+        <v>0.2463267421964772</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1838273784114769</v>
+        <v>0.196319076177498</v>
       </c>
       <c r="G11">
-        <v>0.007847777765961168</v>
+        <v>0.003397463347793321</v>
       </c>
       <c r="H11">
-        <v>0.06249638592904452</v>
+        <v>0.06330723463405552</v>
       </c>
       <c r="I11">
-        <v>7.580725882728559E-05</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01773063440378644</v>
+        <v>0.01423176820438062</v>
       </c>
       <c r="K11">
-        <v>0.08876212179638898</v>
+        <v>0.09210164095785595</v>
       </c>
       <c r="L11">
-        <v>0.06150196208454436</v>
+        <v>0.06221707502911511</v>
       </c>
       <c r="M11">
-        <v>0.03597253882255133</v>
+        <v>0.03422986803324914</v>
       </c>
       <c r="N11">
-        <v>0.1110743616158653</v>
+        <v>0.1165619379242488</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.004748673241678507</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.00868079485897872</v>
+        <v>0.004310677155019638</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.01316406025625836</v>
+        <v>0.009225558129940373</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.01928214064074963</v>
+        <v>0.01593264196731873</v>
       </c>
       <c r="W11">
-        <v>0.05768879165562474</v>
+        <v>0.05803680080162921</v>
       </c>
       <c r="X11">
-        <v>0.01136542665697382</v>
+        <v>0.007253765413109296</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -3068,19 +3068,19 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.01141742113319515</v>
+        <v>0.007310765532293911</v>
       </c>
       <c r="AB11">
-        <v>0.05664745357974649</v>
+        <v>0.05689521041068333</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.01600661600370106</v>
+        <v>0.01234177408533195</v>
       </c>
       <c r="AE11">
-        <v>0.002266188368391145</v>
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -3595,97 +3595,97 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.2563095199472534</v>
+        <v>0.208281648147465</v>
       </c>
       <c r="AT2">
-        <v>0.4440422155455268</v>
+        <v>0.3635121035049266</v>
       </c>
       <c r="AU2">
-        <v>0.4604559760389417</v>
+        <v>0.3862098272711051</v>
       </c>
       <c r="AV2">
-        <v>0.4604559760389417</v>
+        <v>0.3893063172683707</v>
       </c>
       <c r="AW2">
-        <v>0.5394065435063153</v>
+        <v>0.4603826621611786</v>
       </c>
       <c r="AX2">
-        <v>0.5444382702869492</v>
+        <v>0.4742752178465747</v>
       </c>
       <c r="AY2">
-        <v>0.5887006381099237</v>
+        <v>0.5185166898163041</v>
       </c>
       <c r="AZ2">
-        <v>0.5887006381099237</v>
+        <v>0.5236433546523206</v>
       </c>
       <c r="BA2">
-        <v>0.72722875696516</v>
+        <v>0.6408090335823767</v>
       </c>
       <c r="BB2">
-        <v>0.758219147147377</v>
+        <v>0.6747832723985064</v>
       </c>
       <c r="BC2">
-        <v>0.7598234780675279</v>
+        <v>0.6860243865759545</v>
       </c>
       <c r="BD2">
-        <v>0.7598234780675279</v>
+        <v>0.6862469341772418</v>
       </c>
       <c r="BE2">
-        <v>0.7775308913139869</v>
+        <v>0.7099454307592599</v>
       </c>
       <c r="BF2">
-        <v>0.7950986574394018</v>
+        <v>0.7335358959996197</v>
       </c>
       <c r="BG2">
-        <v>0.7950986574394018</v>
+        <v>0.7417238524584842</v>
       </c>
       <c r="BH2">
-        <v>0.8256655852225353</v>
+        <v>0.7753704997655819</v>
       </c>
       <c r="BI2">
-        <v>0.8492833490667102</v>
+        <v>0.8036412574867322</v>
       </c>
       <c r="BJ2">
-        <v>0.8492833490667102</v>
+        <v>0.8041110651349499</v>
       </c>
       <c r="BK2">
-        <v>0.898853550550139</v>
+        <v>0.8524586897224365</v>
       </c>
       <c r="BL2">
-        <v>0.9283686009013635</v>
+        <v>0.8852916021714183</v>
       </c>
       <c r="BM2">
-        <v>0.9283686009013635</v>
+        <v>0.8863334573642657</v>
       </c>
       <c r="BN2">
-        <v>0.9283686009013635</v>
+        <v>0.8867302094591621</v>
       </c>
       <c r="BO2">
-        <v>0.9283686009013635</v>
+        <v>0.8912044037343473</v>
       </c>
       <c r="BP2">
-        <v>0.9725635745109594</v>
+        <v>0.9353937393819182</v>
       </c>
       <c r="BQ2">
-        <v>0.9725635745109594</v>
+        <v>0.942470403915709</v>
       </c>
       <c r="BR2">
-        <v>0.9725635745109594</v>
+        <v>0.9454871767043123</v>
       </c>
       <c r="BS2">
-        <v>0.9792039638731141</v>
+        <v>0.9606241975505918</v>
       </c>
       <c r="BT2">
-        <v>0.9792039638731141</v>
+        <v>0.9606290811009883</v>
       </c>
       <c r="BU2">
-        <v>0.9846855355237609</v>
+        <v>0.9748696378370484</v>
       </c>
       <c r="BV2">
-        <v>1</v>
+        <v>0.9967169436158951</v>
       </c>
       <c r="BW2">
-        <v>1</v>
+        <v>0.9993964153896598</v>
       </c>
       <c r="BX2">
         <v>1</v>
@@ -3702,223 +3702,223 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03881072428427845</v>
+        <v>0.04052625656408599</v>
       </c>
       <c r="E3">
-        <v>0.1312885115110738</v>
+        <v>0.1241915523375813</v>
       </c>
       <c r="F3">
-        <v>0.4188408761817531</v>
+        <v>0.364663078668623</v>
       </c>
       <c r="G3">
-        <v>0.4188408761817531</v>
+        <v>0.3679242144097074</v>
       </c>
       <c r="H3">
-        <v>0.4374307891254116</v>
+        <v>0.3921964349703063</v>
       </c>
       <c r="I3">
-        <v>0.5008835639826674</v>
+        <v>0.4525306394186755</v>
       </c>
       <c r="J3">
-        <v>0.5212676828797441</v>
+        <v>0.4782450913355379</v>
       </c>
       <c r="K3">
-        <v>0.5364523355849082</v>
+        <v>0.4997800714568008</v>
       </c>
       <c r="L3">
-        <v>0.6891098909147897</v>
+        <v>0.6318194952982488</v>
       </c>
       <c r="M3">
-        <v>0.8515703530860561</v>
+        <v>0.7717387612516016</v>
       </c>
       <c r="N3">
-        <v>0.8592619799169283</v>
+        <v>0.7872506441645373</v>
       </c>
       <c r="O3">
-        <v>0.8592619799169283</v>
+        <v>0.7872506441645373</v>
       </c>
       <c r="P3">
-        <v>0.8592619799169283</v>
+        <v>0.7937668232641293</v>
       </c>
       <c r="Q3">
-        <v>0.8660927252087772</v>
+        <v>0.8085867062719022</v>
       </c>
       <c r="R3">
-        <v>0.8660927252087772</v>
+        <v>0.8085867062719022</v>
       </c>
       <c r="S3">
-        <v>0.8660927252087772</v>
+        <v>0.8085867062719022</v>
       </c>
       <c r="T3">
-        <v>0.889865283663535</v>
+        <v>0.8370248777091358</v>
       </c>
       <c r="U3">
-        <v>0.889865283663535</v>
+        <v>0.8423363849234882</v>
       </c>
       <c r="V3">
-        <v>0.8907206044773005</v>
+        <v>0.8523530598419903</v>
       </c>
       <c r="W3">
-        <v>0.9543917478892869</v>
+        <v>0.91286279485097</v>
       </c>
       <c r="X3">
-        <v>0.962668427946157</v>
+        <v>0.9288449593979676</v>
       </c>
       <c r="Y3">
-        <v>0.962668427946157</v>
+        <v>0.9288449593979676</v>
       </c>
       <c r="Z3">
-        <v>0.962668427946157</v>
+        <v>0.9288449593979676</v>
       </c>
       <c r="AA3">
-        <v>0.962668427946157</v>
+        <v>0.9297930078124412</v>
       </c>
       <c r="AB3">
-        <v>0.9847119076225116</v>
+        <v>0.9568412988811965</v>
       </c>
       <c r="AC3">
-        <v>0.9847119076225116</v>
+        <v>0.9609712490628239</v>
       </c>
       <c r="AD3">
-        <v>0.9847119076225116</v>
+        <v>0.9636483059045463</v>
       </c>
       <c r="AE3">
-        <v>0.9847119076225116</v>
+        <v>0.9667490337484572</v>
       </c>
       <c r="AF3">
-        <v>0.9847119076225116</v>
+        <v>0.9667490337484572</v>
       </c>
       <c r="AG3">
-        <v>0.9936791426507163</v>
+        <v>0.9832862850908057</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9976963063558133</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:76">
@@ -3932,94 +3932,94 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1244513394714328</v>
+        <v>0.1157678671924923</v>
       </c>
       <c r="E4">
-        <v>0.1244513394714328</v>
+        <v>0.1157678671924923</v>
       </c>
       <c r="F4">
-        <v>0.4776575555244426</v>
+        <v>0.4337212551762744</v>
       </c>
       <c r="G4">
-        <v>0.487963321047841</v>
+        <v>0.4486012958027004</v>
       </c>
       <c r="H4">
-        <v>0.5628429243327693</v>
+        <v>0.5205550706043682</v>
       </c>
       <c r="I4">
-        <v>0.5812545614685239</v>
+        <v>0.5425995043921664</v>
       </c>
       <c r="J4">
-        <v>0.5812545614685239</v>
+        <v>0.5477090365242262</v>
       </c>
       <c r="K4">
-        <v>0.6117845950542069</v>
+        <v>0.5804643427270668</v>
       </c>
       <c r="L4">
-        <v>0.7131208323826367</v>
+        <v>0.6758018740300407</v>
       </c>
       <c r="M4">
-        <v>0.8122334818635593</v>
+        <v>0.7691740821290167</v>
       </c>
       <c r="N4">
-        <v>0.8434394314700384</v>
+        <v>0.8025267982525466</v>
       </c>
       <c r="O4">
-        <v>0.8434394314700384</v>
+        <v>0.8025267982525466</v>
       </c>
       <c r="P4">
-        <v>0.8434394314700384</v>
+        <v>0.8039655045804113</v>
       </c>
       <c r="Q4">
-        <v>0.8439493516128721</v>
+        <v>0.8101874648657428</v>
       </c>
       <c r="R4">
-        <v>0.8439493516128721</v>
+        <v>0.8101874648657428</v>
       </c>
       <c r="S4">
-        <v>0.8439493516128721</v>
+        <v>0.8101874648657428</v>
       </c>
       <c r="T4">
-        <v>0.8646695075605025</v>
+        <v>0.834272288284619</v>
       </c>
       <c r="U4">
-        <v>0.8646695075605025</v>
+        <v>0.8379155993908552</v>
       </c>
       <c r="V4">
-        <v>0.8646695075605025</v>
+        <v>0.8379155993908552</v>
       </c>
       <c r="W4">
-        <v>0.9118607521648303</v>
+        <v>0.885396955053966</v>
       </c>
       <c r="X4">
-        <v>0.9124532943657774</v>
+        <v>0.891691941034304</v>
       </c>
       <c r="Y4">
-        <v>0.9124532943657774</v>
+        <v>0.891691941034304</v>
       </c>
       <c r="Z4">
-        <v>0.9124532943657774</v>
+        <v>0.891691941034304</v>
       </c>
       <c r="AA4">
-        <v>0.9275434529819329</v>
+        <v>0.9108006784368811</v>
       </c>
       <c r="AB4">
-        <v>0.9904059847395078</v>
+        <v>0.9721331370880376</v>
       </c>
       <c r="AC4">
-        <v>0.9904059847395078</v>
+        <v>0.9756858856753512</v>
       </c>
       <c r="AD4">
-        <v>0.9904059847395078</v>
+        <v>0.9813304629107714</v>
       </c>
       <c r="AE4">
-        <v>0.9904059847395078</v>
+        <v>0.9813304629107714</v>
       </c>
       <c r="AF4">
-        <v>0.9904059847395078</v>
+        <v>0.9813304629107714</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9955814214396724</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -4285,100 +4285,100 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.3369532617340459</v>
+        <v>0.2787730009420327</v>
       </c>
       <c r="AT5">
-        <v>0.4341390065339823</v>
+        <v>0.3662938539655077</v>
       </c>
       <c r="AU5">
-        <v>0.5381311633389276</v>
+        <v>0.4592438866052287</v>
       </c>
       <c r="AV5">
-        <v>0.5381311633389276</v>
+        <v>0.4614894404903017</v>
       </c>
       <c r="AW5">
-        <v>0.6109700734583882</v>
+        <v>0.5295898795761428</v>
       </c>
       <c r="AX5">
-        <v>0.6109700734583882</v>
+        <v>0.5296543912594857</v>
       </c>
       <c r="AY5">
-        <v>0.6434059506377141</v>
+        <v>0.5655270835219383</v>
       </c>
       <c r="AZ5">
-        <v>0.6700080289391603</v>
+        <v>0.5967464074708424</v>
       </c>
       <c r="BA5">
-        <v>0.7541182159175095</v>
+        <v>0.6738374551954658</v>
       </c>
       <c r="BB5">
-        <v>0.8227630844046432</v>
+        <v>0.7385924891951676</v>
       </c>
       <c r="BC5">
-        <v>0.8227630844046432</v>
+        <v>0.738931303408808</v>
       </c>
       <c r="BD5">
-        <v>0.8227630844046432</v>
+        <v>0.7443670477593968</v>
       </c>
       <c r="BE5">
-        <v>0.8233027957530605</v>
+        <v>0.7547975520910957</v>
       </c>
       <c r="BF5">
-        <v>0.8364896744799925</v>
+        <v>0.7753161532473997</v>
       </c>
       <c r="BG5">
-        <v>0.8364896744799925</v>
+        <v>0.7771935930293148</v>
       </c>
       <c r="BH5">
-        <v>0.8364896744799925</v>
+        <v>0.780119227052983</v>
       </c>
       <c r="BI5">
-        <v>0.8721952735474059</v>
+        <v>0.8186000346355976</v>
       </c>
       <c r="BJ5">
-        <v>0.8721952735474059</v>
+        <v>0.8242323184539112</v>
       </c>
       <c r="BK5">
-        <v>0.8803083626000414</v>
+        <v>0.8407037776716229</v>
       </c>
       <c r="BL5">
-        <v>0.9219885952554299</v>
+        <v>0.8839502913070745</v>
       </c>
       <c r="BM5">
-        <v>0.9219885952554299</v>
+        <v>0.8843892100381644</v>
       </c>
       <c r="BN5">
-        <v>0.9219885952554299</v>
+        <v>0.8868092161826379</v>
       </c>
       <c r="BO5">
-        <v>0.9219885952554299</v>
+        <v>0.8875730789974861</v>
       </c>
       <c r="BP5">
-        <v>0.9511506498173616</v>
+        <v>0.9208343849658852</v>
       </c>
       <c r="BQ5">
-        <v>0.9768233431291553</v>
+        <v>0.9513123788222601</v>
       </c>
       <c r="BR5">
-        <v>0.9768233431291553</v>
+        <v>0.9526848177228971</v>
       </c>
       <c r="BS5">
-        <v>0.9847353631336697</v>
+        <v>0.9689958928826479</v>
       </c>
       <c r="BT5">
-        <v>0.9847353631336697</v>
+        <v>0.969150798767439</v>
       </c>
       <c r="BU5">
-        <v>0.9847353631336697</v>
+        <v>0.9714118311704849</v>
       </c>
       <c r="BV5">
-        <v>0.9999999999999998</v>
+        <v>0.9935877698681556</v>
       </c>
       <c r="BW5">
-        <v>0.9999999999999998</v>
+        <v>0.9997168800732197</v>
       </c>
       <c r="BX5">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:76">
@@ -4392,223 +4392,223 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2150422524604174</v>
+        <v>0.2223568659173052</v>
       </c>
       <c r="E6">
-        <v>0.4218317114818416</v>
+        <v>0.4360962037181881</v>
       </c>
       <c r="F6">
-        <v>0.4588720842857126</v>
+        <v>0.4725843436028432</v>
       </c>
       <c r="G6">
-        <v>0.5068106409338673</v>
+        <v>0.520452315830365</v>
       </c>
       <c r="H6">
-        <v>0.5613522942964545</v>
+        <v>0.5752152106089858</v>
       </c>
       <c r="I6">
-        <v>0.5613522942964545</v>
+        <v>0.5752152106089858</v>
       </c>
       <c r="J6">
-        <v>0.5613522942964545</v>
+        <v>0.5752152106089858</v>
       </c>
       <c r="K6">
-        <v>0.7282207332569495</v>
+        <v>0.7472692069125444</v>
       </c>
       <c r="L6">
-        <v>0.8352268891344479</v>
+        <v>0.8568152886058135</v>
       </c>
       <c r="M6">
-        <v>0.8465698563471575</v>
+        <v>0.8664703183638262</v>
       </c>
       <c r="N6">
-        <v>0.8511231584765864</v>
+        <v>0.8690356117569601</v>
       </c>
       <c r="O6">
-        <v>0.8511231584765864</v>
+        <v>0.8690356117569601</v>
       </c>
       <c r="P6">
-        <v>0.8600123724171626</v>
+        <v>0.876128443882173</v>
       </c>
       <c r="Q6">
-        <v>0.8600123724171626</v>
+        <v>0.876128443882173</v>
       </c>
       <c r="R6">
-        <v>0.8600123724171626</v>
+        <v>0.876128443882173</v>
       </c>
       <c r="S6">
-        <v>0.8621089565413893</v>
+        <v>0.876128443882173</v>
       </c>
       <c r="T6">
-        <v>0.8674722875724548</v>
+        <v>0.8795395656468239</v>
       </c>
       <c r="U6">
-        <v>0.8717190360503203</v>
+        <v>0.8817847571579628</v>
       </c>
       <c r="V6">
-        <v>0.8884681143343715</v>
+        <v>0.8970848226850362</v>
       </c>
       <c r="W6">
-        <v>0.9029785803248291</v>
+        <v>0.9100473397778229</v>
       </c>
       <c r="X6">
-        <v>0.9029785803248291</v>
+        <v>0.9100473397778229</v>
       </c>
       <c r="Y6">
-        <v>0.9063978554470025</v>
+        <v>0.9114284875005185</v>
       </c>
       <c r="Z6">
-        <v>0.9115793311560164</v>
+        <v>0.9146497167927011</v>
       </c>
       <c r="AA6">
-        <v>0.9496092503710865</v>
+        <v>0.952171136388529</v>
       </c>
       <c r="AB6">
-        <v>0.9955149487142921</v>
+        <v>0.9979164075295519</v>
       </c>
       <c r="AC6">
-        <v>0.9996069377896069</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:76">
@@ -4622,94 +4622,94 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1667839462324734</v>
+        <v>0.1463705708176828</v>
       </c>
       <c r="E7">
-        <v>0.1667839462324734</v>
+        <v>0.1463705708176828</v>
       </c>
       <c r="F7">
-        <v>0.3472947389968006</v>
+        <v>0.3041152442521557</v>
       </c>
       <c r="G7">
-        <v>0.3589044006008683</v>
+        <v>0.3219079780003569</v>
       </c>
       <c r="H7">
-        <v>0.4727177680121796</v>
+        <v>0.4243869821873097</v>
       </c>
       <c r="I7">
-        <v>0.4727177680121796</v>
+        <v>0.4304336001090557</v>
       </c>
       <c r="J7">
-        <v>0.4968649099138176</v>
+        <v>0.4586149243561476</v>
       </c>
       <c r="K7">
-        <v>0.5016912536884121</v>
+        <v>0.4707869823799068</v>
       </c>
       <c r="L7">
-        <v>0.7902352069961938</v>
+        <v>0.7180482284070699</v>
       </c>
       <c r="M7">
-        <v>0.8368401418140184</v>
+        <v>0.7648381413480454</v>
       </c>
       <c r="N7">
-        <v>0.8801279685877212</v>
+        <v>0.8088794894822918</v>
       </c>
       <c r="O7">
-        <v>0.8814118391964344</v>
+        <v>0.8181162445424418</v>
       </c>
       <c r="P7">
-        <v>0.9076503973881493</v>
+        <v>0.8480305220532393</v>
       </c>
       <c r="Q7">
-        <v>0.9076503973881493</v>
+        <v>0.8480305220532393</v>
       </c>
       <c r="R7">
-        <v>0.9076503973881493</v>
+        <v>0.8480305220532393</v>
       </c>
       <c r="S7">
-        <v>0.9076503973881493</v>
+        <v>0.8502585448939282</v>
       </c>
       <c r="T7">
-        <v>0.9076503973881493</v>
+        <v>0.8525800017582139</v>
       </c>
       <c r="U7">
-        <v>0.9076503973881493</v>
+        <v>0.8525800017582139</v>
       </c>
       <c r="V7">
-        <v>0.9464536492078516</v>
+        <v>0.8929054188079887</v>
       </c>
       <c r="W7">
-        <v>0.9772130018889785</v>
+        <v>0.9265656390094594</v>
       </c>
       <c r="X7">
-        <v>0.9772130018889785</v>
+        <v>0.9345751658816416</v>
       </c>
       <c r="Y7">
-        <v>0.9772130018889785</v>
+        <v>0.9361183902435795</v>
       </c>
       <c r="Z7">
-        <v>0.9772130018889785</v>
+        <v>0.9435189970453023</v>
       </c>
       <c r="AA7">
-        <v>0.982251822102476</v>
+        <v>0.9558671136280411</v>
       </c>
       <c r="AB7">
-        <v>0.9956191503490854</v>
+        <v>0.9751162547682813</v>
       </c>
       <c r="AC7">
-        <v>0.9956191503490854</v>
+        <v>0.983157749362107</v>
       </c>
       <c r="AD7">
-        <v>0.9999999999999998</v>
+        <v>0.9949606697353391</v>
       </c>
       <c r="AE7">
-        <v>0.9999999999999998</v>
+        <v>0.9949606697353391</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999998</v>
+        <v>0.9949606697353391</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999998</v>
+        <v>0.9989199188704104</v>
       </c>
       <c r="AH7">
         <v>0.9999999999999998</v>
@@ -4852,223 +4852,223 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1358229293557527</v>
+        <v>0.1232970991584282</v>
       </c>
       <c r="E8">
-        <v>0.1395643946330669</v>
+        <v>0.1333936372730114</v>
       </c>
       <c r="F8">
-        <v>0.4023982642168131</v>
+        <v>0.3655455995481652</v>
       </c>
       <c r="G8">
-        <v>0.4577784134003623</v>
+        <v>0.4198991273208894</v>
       </c>
       <c r="H8">
-        <v>0.569981252787998</v>
+        <v>0.5229526029326476</v>
       </c>
       <c r="I8">
-        <v>0.5838294220095203</v>
+        <v>0.5417111025478162</v>
       </c>
       <c r="J8">
-        <v>0.5853166373105927</v>
+        <v>0.5498756332923712</v>
       </c>
       <c r="K8">
-        <v>0.6557962565796588</v>
+        <v>0.6171701781644379</v>
       </c>
       <c r="L8">
-        <v>0.7212648483373189</v>
+        <v>0.6801700165108377</v>
       </c>
       <c r="M8">
-        <v>0.7555295835890439</v>
+        <v>0.7164265560314025</v>
       </c>
       <c r="N8">
-        <v>0.8769261218727108</v>
+        <v>0.8273595011838741</v>
       </c>
       <c r="O8">
-        <v>0.8769261218727108</v>
+        <v>0.8273595011838741</v>
       </c>
       <c r="P8">
-        <v>0.8769261218727108</v>
+        <v>0.8320658930933992</v>
       </c>
       <c r="Q8">
-        <v>0.8769261218727108</v>
+        <v>0.8326981019585179</v>
       </c>
       <c r="R8">
-        <v>0.8769261218727108</v>
+        <v>0.8326981019585179</v>
       </c>
       <c r="S8">
-        <v>0.8769261218727108</v>
+        <v>0.8326981019585179</v>
       </c>
       <c r="T8">
-        <v>0.8769261218727108</v>
+        <v>0.8394378462816486</v>
       </c>
       <c r="U8">
-        <v>0.8769261218727108</v>
+        <v>0.8394378462816486</v>
       </c>
       <c r="V8">
-        <v>0.877371170401282</v>
+        <v>0.8467091868713889</v>
       </c>
       <c r="W8">
-        <v>0.9101471298911304</v>
+        <v>0.8816897695217842</v>
       </c>
       <c r="X8">
-        <v>0.9182053295065976</v>
+        <v>0.8954859694501247</v>
       </c>
       <c r="Y8">
-        <v>0.9182053295065976</v>
+        <v>0.8954859694501247</v>
       </c>
       <c r="Z8">
-        <v>0.9182053295065976</v>
+        <v>0.8954859694501247</v>
       </c>
       <c r="AA8">
-        <v>0.9287285762367645</v>
+        <v>0.911394840663043</v>
       </c>
       <c r="AB8">
-        <v>0.9961105328230431</v>
+        <v>0.9760345303965576</v>
       </c>
       <c r="AC8">
-        <v>0.9962585347226856</v>
+        <v>0.983051286853047</v>
       </c>
       <c r="AD8">
-        <v>0.9999999999999999</v>
+        <v>0.9931478249676302</v>
       </c>
       <c r="AE8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:76">
@@ -5082,97 +5082,97 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2951239563286913</v>
+        <v>0.2657680907466968</v>
       </c>
       <c r="E9">
-        <v>0.4223072095194894</v>
+        <v>0.3841207603085853</v>
       </c>
       <c r="F9">
-        <v>0.4837490404620499</v>
+        <v>0.4447667556161989</v>
       </c>
       <c r="G9">
-        <v>0.5252524233070566</v>
+        <v>0.4879111288086606</v>
       </c>
       <c r="H9">
-        <v>0.5852200263036886</v>
+        <v>0.5472630725283574</v>
       </c>
       <c r="I9">
-        <v>0.5852200263036886</v>
+        <v>0.5472630725283574</v>
       </c>
       <c r="J9">
-        <v>0.6053165815198969</v>
+        <v>0.571616905654193</v>
       </c>
       <c r="K9">
-        <v>0.6672283150050987</v>
+        <v>0.6326753732210326</v>
       </c>
       <c r="L9">
-        <v>0.7242024844453075</v>
+        <v>0.6893997331551207</v>
       </c>
       <c r="M9">
-        <v>0.8009784472224802</v>
+        <v>0.7635057620380773</v>
       </c>
       <c r="N9">
-        <v>0.8428047432533723</v>
+        <v>0.8069335827951495</v>
       </c>
       <c r="O9">
-        <v>0.8428047432533723</v>
+        <v>0.8069335827951495</v>
       </c>
       <c r="P9">
-        <v>0.8428047432533723</v>
+        <v>0.8069335827951495</v>
       </c>
       <c r="Q9">
-        <v>0.8428047432533723</v>
+        <v>0.8079371666407517</v>
       </c>
       <c r="R9">
-        <v>0.8428047432533723</v>
+        <v>0.8079371666407517</v>
       </c>
       <c r="S9">
-        <v>0.8428047432533723</v>
+        <v>0.8097241718108587</v>
       </c>
       <c r="T9">
-        <v>0.8428047432533723</v>
+        <v>0.8139571387405456</v>
       </c>
       <c r="U9">
-        <v>0.8428047432533723</v>
+        <v>0.8146825825844607</v>
       </c>
       <c r="V9">
-        <v>0.8740228379805031</v>
+        <v>0.8487987091900372</v>
       </c>
       <c r="W9">
-        <v>0.9043882346456983</v>
+        <v>0.8821663523035534</v>
       </c>
       <c r="X9">
-        <v>0.9043882346456983</v>
+        <v>0.8821663523035534</v>
       </c>
       <c r="Y9">
-        <v>0.9043882346456983</v>
+        <v>0.8821663523035534</v>
       </c>
       <c r="Z9">
-        <v>0.9043882346456983</v>
+        <v>0.8881940473001384</v>
       </c>
       <c r="AA9">
-        <v>0.9453186326444426</v>
+        <v>0.9308354643844854</v>
       </c>
       <c r="AB9">
-        <v>0.9762326058131966</v>
+        <v>0.9646846383884481</v>
       </c>
       <c r="AC9">
-        <v>0.9762326058131966</v>
+        <v>0.9677830436115933</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0.9953590751851012</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0.9953590751851012</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0.9953590751851012</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0.9953590751851012</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.9953590751851012</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -5312,223 +5312,223 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2827533633923551</v>
+        <v>0.2832258276636156</v>
       </c>
       <c r="E10">
-        <v>0.2912795067939676</v>
+        <v>0.2916541720716873</v>
       </c>
       <c r="F10">
-        <v>0.425397173823628</v>
+        <v>0.4259352112355231</v>
       </c>
       <c r="G10">
-        <v>0.4490776937237628</v>
+        <v>0.4495494460969257</v>
       </c>
       <c r="H10">
-        <v>0.5151167312982048</v>
+        <v>0.5156102843689161</v>
       </c>
       <c r="I10">
-        <v>0.5151167312982048</v>
+        <v>0.5156102843689161</v>
       </c>
       <c r="J10">
-        <v>0.5515655888865485</v>
+        <v>0.5520194090381035</v>
       </c>
       <c r="K10">
-        <v>0.5917376109982866</v>
+        <v>0.59215944065668</v>
       </c>
       <c r="L10">
-        <v>0.6501561263924585</v>
+        <v>0.6505839096568602</v>
       </c>
       <c r="M10">
-        <v>0.7128387772725943</v>
+        <v>0.7132813815334255</v>
       </c>
       <c r="N10">
-        <v>0.7969195789586853</v>
+        <v>0.7974215022761302</v>
       </c>
       <c r="O10">
-        <v>0.7969195789586853</v>
+        <v>0.7974215022761302</v>
       </c>
       <c r="P10">
-        <v>0.7970348685607356</v>
+        <v>0.7974215022761302</v>
       </c>
       <c r="Q10">
-        <v>0.8021321439490154</v>
+        <v>0.802413848242796</v>
       </c>
       <c r="R10">
-        <v>0.8021321439490154</v>
+        <v>0.802413848242796</v>
       </c>
       <c r="S10">
-        <v>0.8021321439490154</v>
+        <v>0.802413848242796</v>
       </c>
       <c r="T10">
-        <v>0.8092675929749059</v>
+        <v>0.8094486062868338</v>
       </c>
       <c r="U10">
-        <v>0.8092675929749059</v>
+        <v>0.8094486062868338</v>
       </c>
       <c r="V10">
-        <v>0.8282630035982921</v>
+        <v>0.8283679890541548</v>
       </c>
       <c r="W10">
-        <v>0.8842908576831912</v>
+        <v>0.884396825297212</v>
       </c>
       <c r="X10">
-        <v>0.8842908576831912</v>
+        <v>0.884396825297212</v>
       </c>
       <c r="Y10">
-        <v>0.8842908576831912</v>
+        <v>0.884396825297212</v>
       </c>
       <c r="Z10">
-        <v>0.8842908576831912</v>
+        <v>0.884396825297212</v>
       </c>
       <c r="AA10">
-        <v>0.9150927329080826</v>
+        <v>0.9151472245433085</v>
       </c>
       <c r="AB10">
-        <v>0.9723884304827016</v>
+        <v>0.9724465407925036</v>
       </c>
       <c r="AC10">
-        <v>0.9723884304827016</v>
+        <v>0.9724465407925036</v>
       </c>
       <c r="AD10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX10">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:76">
@@ -5542,223 +5542,223 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2294434655162561</v>
+        <v>0.2463267421964772</v>
       </c>
       <c r="E11">
-        <v>0.2294434655162561</v>
+        <v>0.2463267421964772</v>
       </c>
       <c r="F11">
-        <v>0.4132708439277329</v>
+        <v>0.4426458183739752</v>
       </c>
       <c r="G11">
-        <v>0.4211186216936941</v>
+        <v>0.4460432817217685</v>
       </c>
       <c r="H11">
-        <v>0.4836150076227387</v>
+        <v>0.5093505163558241</v>
       </c>
       <c r="I11">
-        <v>0.483690814881566</v>
+        <v>0.5093505163558241</v>
       </c>
       <c r="J11">
-        <v>0.5014214492853524</v>
+        <v>0.5235822845602047</v>
       </c>
       <c r="K11">
-        <v>0.5901835710817414</v>
+        <v>0.6156839255180606</v>
       </c>
       <c r="L11">
-        <v>0.6516855331662857</v>
+        <v>0.6779010005471757</v>
       </c>
       <c r="M11">
-        <v>0.6876580719888371</v>
+        <v>0.7121308685804248</v>
       </c>
       <c r="N11">
-        <v>0.7987324336047024</v>
+        <v>0.8286928065046736</v>
       </c>
       <c r="O11">
-        <v>0.7987324336047024</v>
+        <v>0.8286928065046736</v>
       </c>
       <c r="P11">
-        <v>0.8034811068463809</v>
+        <v>0.8286928065046736</v>
       </c>
       <c r="Q11">
-        <v>0.8034811068463809</v>
+        <v>0.8286928065046736</v>
       </c>
       <c r="R11">
-        <v>0.8121619017053596</v>
+        <v>0.8330034836596932</v>
       </c>
       <c r="S11">
-        <v>0.8121619017053596</v>
+        <v>0.8330034836596932</v>
       </c>
       <c r="T11">
-        <v>0.825325961961618</v>
+        <v>0.8422290417896336</v>
       </c>
       <c r="U11">
-        <v>0.825325961961618</v>
+        <v>0.8422290417896336</v>
       </c>
       <c r="V11">
-        <v>0.8446081026023676</v>
+        <v>0.8581616837569523</v>
       </c>
       <c r="W11">
-        <v>0.9022968942579923</v>
+        <v>0.9161984845585815</v>
       </c>
       <c r="X11">
-        <v>0.9136623209149661</v>
+        <v>0.9234522499716908</v>
       </c>
       <c r="Y11">
-        <v>0.9136623209149661</v>
+        <v>0.9234522499716908</v>
       </c>
       <c r="Z11">
-        <v>0.9136623209149661</v>
+        <v>0.9234522499716908</v>
       </c>
       <c r="AA11">
-        <v>0.9250797420481612</v>
+        <v>0.9307630155039848</v>
       </c>
       <c r="AB11">
-        <v>0.9817271956279078</v>
+        <v>0.9876582259146681</v>
       </c>
       <c r="AC11">
-        <v>0.9817271956279078</v>
+        <v>0.9876582259146681</v>
       </c>
       <c r="AD11">
-        <v>0.9977338116316088</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AM11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AN11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AP11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AS11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AU11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AV11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AW11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AX11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AY11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AZ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BA11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BB11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BC11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BE11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BF11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BG11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BH11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BK11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BL11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BM11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BN11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BO11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BP11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BR11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BS11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BT11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BU11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BV11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BW11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="BX11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5826,16 +5826,16 @@
         <v>42</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5394065435063153</v>
+        <v>0.5185166898163041</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -5867,16 +5867,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5008835639826674</v>
+        <v>0.6318194952982488</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5628429243327693</v>
+        <v>0.5205550706043682</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -5949,16 +5949,16 @@
         <v>42</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5381311633389276</v>
+        <v>0.5295898795761428</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5068106409338673</v>
+        <v>0.520452315830365</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -6031,16 +6031,16 @@
         <v>1</v>
       </c>
       <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.7180482284070699</v>
+      </c>
+      <c r="G7">
         <v>10</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5016912536884121</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
       </c>
       <c r="H7">
         <v>11</v>
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.569981252787998</v>
+        <v>0.5229526029326476</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -6113,16 +6113,16 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.5472630725283574</v>
+      </c>
+      <c r="G9">
         <v>6</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.5252524233070566</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
       </c>
       <c r="H9">
         <v>11</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5151167312982048</v>
+        <v>0.5156102843689161</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -6195,16 +6195,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5014214492853524</v>
+        <v>0.5093505163558241</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>11</v>
@@ -6290,16 +6290,16 @@
         <v>42</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.72722875696516</v>
+        <v>0.7099454307592599</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8515703530860561</v>
+        <v>0.7717387612516016</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -6372,16 +6372,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.7691740821290167</v>
+      </c>
+      <c r="G4">
         <v>11</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7131208323826367</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -6413,16 +6413,16 @@
         <v>42</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7541182159175095</v>
+        <v>0.7385924891951676</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7282207332569495</v>
+        <v>0.7472692069125444</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -6501,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7902352069961938</v>
+        <v>0.7180482284070699</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -6536,16 +6536,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.7164265560314025</v>
+      </c>
+      <c r="G8">
         <v>11</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7212648483373189</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
       </c>
       <c r="H8">
         <v>11</v>
@@ -6577,16 +6577,16 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.7635057620380773</v>
+      </c>
+      <c r="G9">
         <v>11</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.7242024844453075</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
       </c>
       <c r="H9">
         <v>11</v>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7128387772725943</v>
+        <v>0.7132813815334255</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -6659,16 +6659,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7987324336047024</v>
+        <v>0.7121308685804248</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>11</v>
@@ -6754,16 +6754,16 @@
         <v>42</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8256655852225353</v>
+        <v>0.8036412574867322</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -6795,16 +6795,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8515703530860561</v>
+        <v>0.8085867062719022</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>11</v>
@@ -6836,16 +6836,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8025267982525466</v>
+      </c>
+      <c r="G4">
         <v>12</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8122334818635593</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -6877,16 +6877,16 @@
         <v>42</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8227630844046432</v>
+        <v>0.8186000346355976</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -6924,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8352268891344479</v>
+        <v>0.8568152886058135</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -6959,16 +6959,16 @@
         <v>1</v>
       </c>
       <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.8088794894822918</v>
+      </c>
+      <c r="G7">
         <v>12</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8368401418140184</v>
-      </c>
-      <c r="G7">
-        <v>11</v>
       </c>
       <c r="H7">
         <v>11</v>
@@ -7006,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8769261218727108</v>
+        <v>0.8273595011838741</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -7041,16 +7041,16 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.8069335827951495</v>
+      </c>
+      <c r="G9">
         <v>12</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.8009784472224802</v>
-      </c>
-      <c r="G9">
-        <v>11</v>
       </c>
       <c r="H9">
         <v>11</v>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8021321439490154</v>
+        <v>0.802413848242796</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -7123,16 +7123,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8034811068463809</v>
+        <v>0.8286928065046736</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>11</v>
@@ -7218,16 +7218,16 @@
         <v>42</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9283686009013635</v>
+        <v>0.9353937393819182</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9543917478892869</v>
+        <v>0.91286279485097</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -7300,16 +7300,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9118607521648303</v>
+        <v>0.9108006784368811</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>11</v>
@@ -7341,16 +7341,16 @@
         <v>42</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9219885952554299</v>
+        <v>0.9208343849658852</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -7388,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9029785803248291</v>
+        <v>0.9100473397778229</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -7423,16 +7423,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9076503973881493</v>
+        <v>0.9265656390094594</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>11</v>
@@ -7464,16 +7464,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9101471298911304</v>
+        <v>0.911394840663043</v>
       </c>
       <c r="G8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H8">
         <v>11</v>
@@ -7505,16 +7505,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9043882346456983</v>
+        <v>0.9308354643844854</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H9">
         <v>11</v>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9150927329080826</v>
+        <v>0.9151472245433085</v>
       </c>
       <c r="G10">
         <v>25</v>
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9022968942579923</v>
+        <v>0.9161984845585815</v>
       </c>
       <c r="G11">
         <v>21</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/11_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/11_225-80R17.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="103">
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
   <si>
     <t>Signal_Value_48</t>
   </si>
@@ -682,15 +685,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BX11"/>
+  <dimension ref="A1:BY11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:76">
+    <row r="1" spans="1:77">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -917,10 +920,13 @@
       <c r="BX1" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:76">
+    <row r="2" spans="1:77">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1052,105 +1058,108 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.208281648147465</v>
+        <v>0.003265274052715495</v>
       </c>
       <c r="AT2">
-        <v>0.1552304553574616</v>
+        <v>0.2077269322655809</v>
       </c>
       <c r="AU2">
-        <v>0.02269772376617857</v>
+        <v>0.1548170305564541</v>
       </c>
       <c r="AV2">
-        <v>0.003096489997265502</v>
+        <v>0.02263727298730437</v>
       </c>
       <c r="AW2">
-        <v>0.0710763448928079</v>
+        <v>0.003088243124846084</v>
       </c>
       <c r="AX2">
-        <v>0.01389255568539609</v>
+        <v>0.07088704747899832</v>
       </c>
       <c r="AY2">
-        <v>0.04424147196972943</v>
+        <v>0.01385555568396921</v>
       </c>
       <c r="AZ2">
-        <v>0.005126664836016516</v>
+        <v>0.04412364379159747</v>
       </c>
       <c r="BA2">
-        <v>0.1171656789300561</v>
+        <v>0.005113011005105684</v>
       </c>
       <c r="BB2">
-        <v>0.03397423881612971</v>
+        <v>0.1168536319326739</v>
       </c>
       <c r="BC2">
-        <v>0.01124111417744811</v>
+        <v>0.03388375532891971</v>
       </c>
       <c r="BD2">
-        <v>0.0002225476012872567</v>
+        <v>0.01121117575214869</v>
       </c>
       <c r="BE2">
-        <v>0.02369849658201807</v>
+        <v>0.0002219548909356379</v>
       </c>
       <c r="BF2">
-        <v>0.02359046524035983</v>
+        <v>0.02363538044793835</v>
       </c>
       <c r="BG2">
-        <v>0.008187956458864517</v>
+        <v>0.02352763682582474</v>
       </c>
       <c r="BH2">
-        <v>0.0336466473070978</v>
+        <v>0.008166149499258112</v>
       </c>
       <c r="BI2">
-        <v>0.02827075772115033</v>
+        <v>0.03355703629336036</v>
       </c>
       <c r="BJ2">
-        <v>0.0004698076482176625</v>
+        <v>0.02819546429784442</v>
       </c>
       <c r="BK2">
-        <v>0.04834762458748661</v>
+        <v>0.0004685564109328854</v>
       </c>
       <c r="BL2">
-        <v>0.03283291244898183</v>
+        <v>0.04821886050553995</v>
       </c>
       <c r="BM2">
-        <v>0.001041855192847344</v>
+        <v>0.03274546865282431</v>
       </c>
       <c r="BN2">
-        <v>0.0003967520948963776</v>
+        <v>0.001039080423071724</v>
       </c>
       <c r="BO2">
-        <v>0.004474194275185149</v>
+        <v>0.0003956954262452156</v>
       </c>
       <c r="BP2">
-        <v>0.04418933564757083</v>
+        <v>0.004462278167140322</v>
       </c>
       <c r="BQ2">
-        <v>0.007076664533790862</v>
+        <v>0.04407164632394757</v>
       </c>
       <c r="BR2">
-        <v>0.003016772788603263</v>
+        <v>0.007057817274598444</v>
       </c>
       <c r="BS2">
-        <v>0.01513702084627951</v>
+        <v>0.003008738226783928</v>
       </c>
       <c r="BT2">
-        <v>4.883550396467838E-06</v>
+        <v>0.01509670646456357</v>
       </c>
       <c r="BU2">
-        <v>0.0142405567360601</v>
+        <v>4.870544051506596E-06</v>
       </c>
       <c r="BV2">
-        <v>0.02184730577884672</v>
+        <v>0.01420262990449033</v>
       </c>
       <c r="BW2">
-        <v>0.002679471773764719</v>
+        <v>0.02178911991561924</v>
       </c>
       <c r="BX2">
-        <v>0.000603584610340198</v>
+        <v>0.002672335544715316</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:76">
+    <row r="3" spans="1:77">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1159,104 +1168,104 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0.04052625656408599</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.08366529577349531</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2404715263310417</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.003261135741084349</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.02427222056059897</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.0603342044483692</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.02571445191686244</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.02153498012126288</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.132039423841448</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.1399192659533528</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.01551188291293567</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>0.006516179099591981</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.01481988300777296</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>0.02843817143723357</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.005311507214352367</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.01001667491850214</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.06050973500897974</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0159821645469976</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>0.0009480484144736437</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.02704829106875523</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.004129950181627483</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.002677056841722378</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.003100727843910938</v>
       </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
       <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
         <v>0.01653725134234855</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.01441002126500761</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.002303693644186531</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
         <v>0</v>
       </c>
@@ -1377,10 +1386,13 @@
       <c r="BX3">
         <v>0</v>
       </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:76">
+    <row r="4" spans="1:77">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1389,101 +1401,101 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0.1157678671924923</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0.3179533879837821</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.014880040626426</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.07195377480166784</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.02204443378779818</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.005109532132059742</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.03275530620284067</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.0953375313029739</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.09337220809897609</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.03335271612352989</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>0.001438706327864647</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.006221960285331556</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>0.02408482341887622</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.003643311106236277</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
       <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>0.04748135566311075</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>0.006294985980338114</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
         <v>0.019108737402577</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>0.06133245865115657</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>0.003552748587313573</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>0.005644577235420277</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
         <v>0.01425095852890097</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>0.004418578560327661</v>
       </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
       <c r="AJ4">
         <v>0</v>
       </c>
@@ -1607,10 +1619,13 @@
       <c r="BX4">
         <v>0</v>
       </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:76">
+    <row r="5" spans="1:77">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1742,105 +1757,108 @@
         <v>0</v>
       </c>
       <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
         <v>0.2787730009420327</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>0.08752085302347494</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>0.09295003263972108</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>0.00224555388507296</v>
       </c>
-      <c r="AW5">
+      <c r="AX5">
         <v>0.0681004390858411</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>6.451168334284681E-05</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <v>0.03587269226245261</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>0.0312193239489042</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>0.07709104772462336</v>
       </c>
-      <c r="BB5">
+      <c r="BC5">
         <v>0.0647550339997018</v>
       </c>
-      <c r="BC5">
+      <c r="BD5">
         <v>0.0003388142136403027</v>
       </c>
-      <c r="BD5">
+      <c r="BE5">
         <v>0.005435744350588777</v>
       </c>
-      <c r="BE5">
+      <c r="BF5">
         <v>0.01043050433169895</v>
       </c>
-      <c r="BF5">
+      <c r="BG5">
         <v>0.02051860115630399</v>
       </c>
-      <c r="BG5">
+      <c r="BH5">
         <v>0.001877439781915116</v>
       </c>
-      <c r="BH5">
+      <c r="BI5">
         <v>0.002925634023668192</v>
       </c>
-      <c r="BI5">
+      <c r="BJ5">
         <v>0.03848080758261464</v>
       </c>
-      <c r="BJ5">
+      <c r="BK5">
         <v>0.005632283818313567</v>
       </c>
-      <c r="BK5">
+      <c r="BL5">
         <v>0.01647145921771167</v>
       </c>
-      <c r="BL5">
+      <c r="BM5">
         <v>0.04324651363545166</v>
       </c>
-      <c r="BM5">
+      <c r="BN5">
         <v>0.0004389187310898835</v>
       </c>
-      <c r="BN5">
+      <c r="BO5">
         <v>0.002420006144473491</v>
       </c>
-      <c r="BO5">
+      <c r="BP5">
         <v>0.0007638628148481497</v>
       </c>
-      <c r="BP5">
+      <c r="BQ5">
         <v>0.03326130596839911</v>
       </c>
-      <c r="BQ5">
+      <c r="BR5">
         <v>0.03047799385637482</v>
       </c>
-      <c r="BR5">
+      <c r="BS5">
         <v>0.00137243890063714</v>
       </c>
-      <c r="BS5">
+      <c r="BT5">
         <v>0.01631107515975077</v>
       </c>
-      <c r="BT5">
+      <c r="BU5">
         <v>0.0001549058847911476</v>
       </c>
-      <c r="BU5">
+      <c r="BV5">
         <v>0.002261032403045873</v>
       </c>
-      <c r="BV5">
+      <c r="BW5">
         <v>0.02217593869767069</v>
       </c>
-      <c r="BW5">
+      <c r="BX5">
         <v>0.006129110205064101</v>
       </c>
-      <c r="BX5">
+      <c r="BY5">
         <v>0.0002831199267802202</v>
       </c>
     </row>
-    <row r="6" spans="1:76">
+    <row r="6" spans="1:77">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1849,46 +1867,46 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2223568659173052</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2137393378008829</v>
+        <v>0.2305718742705234</v>
       </c>
       <c r="F6">
-        <v>0.03648813988465503</v>
+        <v>0.22153167501919</v>
       </c>
       <c r="G6">
-        <v>0.04786797222752177</v>
+        <v>0.03558668881756639</v>
       </c>
       <c r="H6">
-        <v>0.05476289477862085</v>
+        <v>0.04752467734936304</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.05475778095428939</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1720539963035585</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1095460816932691</v>
+        <v>0.1778017575875836</v>
       </c>
       <c r="M6">
-        <v>0.009655029758012679</v>
+        <v>0.112227964821479</v>
       </c>
       <c r="N6">
-        <v>0.002565293393133976</v>
+        <v>0.007437472615353334</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.007092832125212972</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.00474960472459898</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1897,34 +1915,34 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.00341112176465083</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.002245191511138904</v>
+        <v>0.0008873144256264793</v>
       </c>
       <c r="V6">
-        <v>0.01530006552707342</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.01296251709278671</v>
+        <v>0.01335938519211213</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.01090718505767638</v>
       </c>
       <c r="Y6">
-        <v>0.001381147722695628</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.00322122929218263</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.03752141959582792</v>
+        <v>0.000688108137669094</v>
       </c>
       <c r="AB6">
-        <v>0.04574527114102294</v>
+        <v>0.03667064866604802</v>
       </c>
       <c r="AC6">
-        <v>0.0020835924704479</v>
+        <v>0.04529786236092082</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -2067,10 +2085,13 @@
       <c r="BX6">
         <v>0</v>
       </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:76">
+    <row r="7" spans="1:77">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2079,97 +2100,97 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1463705708176828</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.1523492728326145</v>
       </c>
       <c r="F7">
-        <v>0.1577446734344729</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.01779273374820112</v>
+        <v>0.1643709575267693</v>
       </c>
       <c r="H7">
-        <v>0.1024790041869528</v>
+        <v>0.01645088436335825</v>
       </c>
       <c r="I7">
-        <v>0.006046617921746025</v>
+        <v>0.105958749329844</v>
       </c>
       <c r="J7">
-        <v>0.0281813242470919</v>
+        <v>0.004036005967745896</v>
       </c>
       <c r="K7">
-        <v>0.01217205802375918</v>
+        <v>0.02743094701990589</v>
       </c>
       <c r="L7">
-        <v>0.2472612460271632</v>
+        <v>0.010510196679779</v>
       </c>
       <c r="M7">
-        <v>0.04678991294097541</v>
+        <v>0.2589841368576979</v>
       </c>
       <c r="N7">
-        <v>0.04404134813424647</v>
+        <v>0.04709901169437557</v>
       </c>
       <c r="O7">
-        <v>0.009236755060150016</v>
+        <v>0.04419395794365858</v>
       </c>
       <c r="P7">
-        <v>0.02991427751079747</v>
+        <v>0.007407772875527607</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.0292625656036192</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.002228022840688933</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.002321456864285709</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>9.875366956234203E-05</v>
       </c>
       <c r="V7">
-        <v>0.04032541704977472</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.03366022020147071</v>
+        <v>0.04026646112498339</v>
       </c>
       <c r="X7">
-        <v>0.008009526872182182</v>
+        <v>0.03322178273281691</v>
       </c>
       <c r="Y7">
-        <v>0.00154322436193788</v>
+        <v>0.006110672715577417</v>
       </c>
       <c r="Z7">
-        <v>0.007400606801722833</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.01234811658273883</v>
+        <v>0.005467083912343048</v>
       </c>
       <c r="AB7">
-        <v>0.01924914114024028</v>
+        <v>0.01069627909481157</v>
       </c>
       <c r="AC7">
-        <v>0.00804149459382565</v>
+        <v>0.01799021199589478</v>
       </c>
       <c r="AD7">
-        <v>0.01180292037323212</v>
+        <v>0.006144460512552361</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>0.01012004225679826</v>
       </c>
       <c r="AF7">
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.003959249135071339</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.001080081129589371</v>
+        <v>0.001829793289764502</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -2297,10 +2318,13 @@
       <c r="BX7">
         <v>0</v>
       </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:76">
+    <row r="8" spans="1:77">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2309,92 +2333,92 @@
         <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1232970991584282</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.01009653811458324</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.2321519622751538</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.05435352777272415</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.1030534756117582</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.01875849961516859</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.00816453074455507</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.06729454487206667</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.06299983834639983</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.03625653952056476</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0.1109329451524717</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>0.004706391909525086</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.0006322088651186776</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>0.006739744323130698</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
       <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>0.007271340589740181</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>0.03498058265039541</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>0.01379619992834042</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>0.0159088712129183</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>0.06463968973351458</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>0.007016756456489385</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>0.01009653811458324</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>0.006852175032369786</v>
       </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
       <c r="AG8">
         <v>0</v>
       </c>
@@ -2527,10 +2551,13 @@
       <c r="BX8">
         <v>0</v>
       </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:76">
+    <row r="9" spans="1:77">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2539,89 +2566,89 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.2657680907466968</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.1183526695618885</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.06064599530761366</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.0431443731924616</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.05935194371969682</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>0.02435383312583566</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.06105846756683968</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.05672435993408807</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.07410602888295655</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.04342782075707222</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>0.001003583845602164</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>0.001787005170107003</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.004232966929687011</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.0007254438439150351</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0.03411612660557645</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0.03336764311351625</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
         <v>0.006027694996584909</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>0.04264141708434696</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>0.03384917400396273</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>0.003098405223145181</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>0.02757603157350802</v>
       </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
       <c r="AF9">
         <v>0</v>
       </c>
@@ -2632,11 +2659,11 @@
         <v>0</v>
       </c>
       <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
         <v>0.004640924814898971</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
         <v>0</v>
       </c>
@@ -2757,10 +2784,13 @@
       <c r="BX9">
         <v>0</v>
       </c>
+      <c r="BY9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:76">
+    <row r="10" spans="1:77">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2769,68 +2799,68 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.2832258276636156</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.008428344408071683</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.1342810391638359</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.02361423486140255</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.06606083827199044</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0.03640912466918744</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.04014003161857644</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.05842446900018012</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.06269747187656523</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.08414012074270476</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>0.004992345966665829</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>0.007034758044037707</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
       <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
         <v>0.01891938276732096</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.0560288362430572</v>
       </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
       <c r="Y10">
         <v>0</v>
       </c>
@@ -2838,20 +2868,20 @@
         <v>0</v>
       </c>
       <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
         <v>0.03075039924609661</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>0.05729931624919501</v>
       </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
       <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
         <v>0.02755345920749651</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
       <c r="AF10">
         <v>0</v>
       </c>
@@ -2987,10 +3017,13 @@
       <c r="BX10">
         <v>0</v>
       </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:76">
+    <row r="11" spans="1:77">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2999,41 +3032,41 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.2463267421964772</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>0.196319076177498</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.003397463347793321</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.06330723463405552</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>0.01423176820438062</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.09210164095785595</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.06221707502911511</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.03422986803324914</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.1165619379242488</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
         <v>0</v>
       </c>
@@ -3041,47 +3074,47 @@
         <v>0</v>
       </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>0.004310677155019638</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
       <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>0.009225558129940373</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
       <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
         <v>0.01593264196731873</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>0.05803680080162921</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>0.007253765413109296</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
         <v>0.007310765532293911</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>0.05689521041068333</v>
       </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
       <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
         <v>0.01234177408533195</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
       <c r="AF11">
         <v>0</v>
       </c>
@@ -3215,6 +3248,9 @@
         <v>0</v>
       </c>
       <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
         <v>0</v>
       </c>
     </row>
@@ -3225,15 +3261,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BX11"/>
+  <dimension ref="A1:BY11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:76">
+    <row r="1" spans="1:77">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3460,10 +3496,13 @@
       <c r="BX1" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:76">
+    <row r="2" spans="1:77">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3595,105 +3634,108 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.208281648147465</v>
+        <v>0.003265274052715495</v>
       </c>
       <c r="AT2">
-        <v>0.3635121035049266</v>
+        <v>0.2109922063182964</v>
       </c>
       <c r="AU2">
-        <v>0.3862098272711051</v>
+        <v>0.3658092368747505</v>
       </c>
       <c r="AV2">
-        <v>0.3893063172683707</v>
+        <v>0.3884465098620549</v>
       </c>
       <c r="AW2">
-        <v>0.4603826621611786</v>
+        <v>0.391534752986901</v>
       </c>
       <c r="AX2">
-        <v>0.4742752178465747</v>
+        <v>0.4624218004658993</v>
       </c>
       <c r="AY2">
-        <v>0.5185166898163041</v>
+        <v>0.4762773561498685</v>
       </c>
       <c r="AZ2">
-        <v>0.5236433546523206</v>
+        <v>0.520400999941466</v>
       </c>
       <c r="BA2">
-        <v>0.6408090335823767</v>
+        <v>0.5255140109465717</v>
       </c>
       <c r="BB2">
-        <v>0.6747832723985064</v>
+        <v>0.6423676428792455</v>
       </c>
       <c r="BC2">
-        <v>0.6860243865759545</v>
+        <v>0.6762513982081653</v>
       </c>
       <c r="BD2">
-        <v>0.6862469341772418</v>
+        <v>0.687462573960314</v>
       </c>
       <c r="BE2">
-        <v>0.7099454307592599</v>
+        <v>0.6876845288512496</v>
       </c>
       <c r="BF2">
-        <v>0.7335358959996197</v>
+        <v>0.711319909299188</v>
       </c>
       <c r="BG2">
-        <v>0.7417238524584842</v>
+        <v>0.7348475461250127</v>
       </c>
       <c r="BH2">
-        <v>0.7753704997655819</v>
+        <v>0.7430136956242708</v>
       </c>
       <c r="BI2">
-        <v>0.8036412574867322</v>
+        <v>0.7765707319176312</v>
       </c>
       <c r="BJ2">
-        <v>0.8041110651349499</v>
+        <v>0.8047661962154756</v>
       </c>
       <c r="BK2">
-        <v>0.8524586897224365</v>
+        <v>0.8052347526264085</v>
       </c>
       <c r="BL2">
-        <v>0.8852916021714183</v>
+        <v>0.8534536131319485</v>
       </c>
       <c r="BM2">
-        <v>0.8863334573642657</v>
+        <v>0.8861990817847728</v>
       </c>
       <c r="BN2">
-        <v>0.8867302094591621</v>
+        <v>0.8872381622078446</v>
       </c>
       <c r="BO2">
-        <v>0.8912044037343473</v>
+        <v>0.8876338576340898</v>
       </c>
       <c r="BP2">
-        <v>0.9353937393819182</v>
+        <v>0.89209613580123</v>
       </c>
       <c r="BQ2">
-        <v>0.942470403915709</v>
+        <v>0.9361677821251776</v>
       </c>
       <c r="BR2">
-        <v>0.9454871767043123</v>
+        <v>0.943225599399776</v>
       </c>
       <c r="BS2">
-        <v>0.9606241975505918</v>
+        <v>0.94623433762656</v>
       </c>
       <c r="BT2">
-        <v>0.9606290811009883</v>
+        <v>0.9613310440911236</v>
       </c>
       <c r="BU2">
-        <v>0.9748696378370484</v>
+        <v>0.9613359146351751</v>
       </c>
       <c r="BV2">
-        <v>0.9967169436158951</v>
+        <v>0.9755385445396654</v>
       </c>
       <c r="BW2">
-        <v>0.9993964153896598</v>
+        <v>0.9973276644552846</v>
       </c>
       <c r="BX2">
         <v>1</v>
       </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:76">
+    <row r="3" spans="1:77">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3702,46 +3744,46 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0.04052625656408599</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.1241915523375813</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.364663078668623</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.3679242144097074</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.3921964349703063</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.4525306394186755</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.4782450913355379</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.4997800714568008</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.6318194952982488</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.7717387612516016</v>
-      </c>
-      <c r="N3">
-        <v>0.7872506441645373</v>
       </c>
       <c r="O3">
         <v>0.7872506441645373</v>
       </c>
       <c r="P3">
+        <v>0.7872506441645373</v>
+      </c>
+      <c r="Q3">
         <v>0.7937668232641293</v>
-      </c>
-      <c r="Q3">
-        <v>0.8085867062719022</v>
       </c>
       <c r="R3">
         <v>0.8085867062719022</v>
@@ -3750,19 +3792,19 @@
         <v>0.8085867062719022</v>
       </c>
       <c r="T3">
+        <v>0.8085867062719022</v>
+      </c>
+      <c r="U3">
         <v>0.8370248777091358</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.8423363849234882</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.8523530598419903</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.91286279485097</v>
-      </c>
-      <c r="X3">
-        <v>0.9288449593979676</v>
       </c>
       <c r="Y3">
         <v>0.9288449593979676</v>
@@ -3771,31 +3813,31 @@
         <v>0.9288449593979676</v>
       </c>
       <c r="AA3">
+        <v>0.9288449593979676</v>
+      </c>
+      <c r="AB3">
         <v>0.9297930078124412</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.9568412988811965</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.9609712490628239</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.9636483059045463</v>
-      </c>
-      <c r="AE3">
-        <v>0.9667490337484572</v>
       </c>
       <c r="AF3">
         <v>0.9667490337484572</v>
       </c>
       <c r="AG3">
+        <v>0.9667490337484572</v>
+      </c>
+      <c r="AH3">
         <v>0.9832862850908057</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.9976963063558133</v>
-      </c>
-      <c r="AI3">
-        <v>0.9999999999999998</v>
       </c>
       <c r="AJ3">
         <v>0.9999999999999998</v>
@@ -3920,10 +3962,13 @@
       <c r="BX3">
         <v>0.9999999999999998</v>
       </c>
+      <c r="BY3">
+        <v>0.9999999999999998</v>
+      </c>
     </row>
-    <row r="4" spans="1:76">
+    <row r="4" spans="1:77">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3932,46 +3977,46 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1157678671924923</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0.1157678671924923</v>
       </c>
       <c r="F4">
+        <v>0.1157678671924923</v>
+      </c>
+      <c r="G4">
         <v>0.4337212551762744</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.4486012958027004</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.5205550706043682</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.5425995043921664</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.5477090365242262</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.5804643427270668</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.6758018740300407</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.7691740821290167</v>
-      </c>
-      <c r="N4">
-        <v>0.8025267982525466</v>
       </c>
       <c r="O4">
         <v>0.8025267982525466</v>
       </c>
       <c r="P4">
+        <v>0.8025267982525466</v>
+      </c>
+      <c r="Q4">
         <v>0.8039655045804113</v>
-      </c>
-      <c r="Q4">
-        <v>0.8101874648657428</v>
       </c>
       <c r="R4">
         <v>0.8101874648657428</v>
@@ -3980,19 +4025,19 @@
         <v>0.8101874648657428</v>
       </c>
       <c r="T4">
+        <v>0.8101874648657428</v>
+      </c>
+      <c r="U4">
         <v>0.834272288284619</v>
-      </c>
-      <c r="U4">
-        <v>0.8379155993908552</v>
       </c>
       <c r="V4">
         <v>0.8379155993908552</v>
       </c>
       <c r="W4">
+        <v>0.8379155993908552</v>
+      </c>
+      <c r="X4">
         <v>0.885396955053966</v>
-      </c>
-      <c r="X4">
-        <v>0.891691941034304</v>
       </c>
       <c r="Y4">
         <v>0.891691941034304</v>
@@ -4001,16 +4046,16 @@
         <v>0.891691941034304</v>
       </c>
       <c r="AA4">
+        <v>0.891691941034304</v>
+      </c>
+      <c r="AB4">
         <v>0.9108006784368811</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>0.9721331370880376</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>0.9756858856753512</v>
-      </c>
-      <c r="AD4">
-        <v>0.9813304629107714</v>
       </c>
       <c r="AE4">
         <v>0.9813304629107714</v>
@@ -4019,11 +4064,11 @@
         <v>0.9813304629107714</v>
       </c>
       <c r="AG4">
+        <v>0.9813304629107714</v>
+      </c>
+      <c r="AH4">
         <v>0.9955814214396724</v>
       </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
       <c r="AI4">
         <v>1</v>
       </c>
@@ -4150,10 +4195,13 @@
       <c r="BX4">
         <v>1</v>
       </c>
+      <c r="BY4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:76">
+    <row r="5" spans="1:77">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4285,105 +4333,108 @@
         <v>0</v>
       </c>
       <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
         <v>0.2787730009420327</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>0.3662938539655077</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>0.4592438866052287</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>0.4614894404903017</v>
       </c>
-      <c r="AW5">
+      <c r="AX5">
         <v>0.5295898795761428</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>0.5296543912594857</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <v>0.5655270835219383</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>0.5967464074708424</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>0.6738374551954658</v>
       </c>
-      <c r="BB5">
+      <c r="BC5">
         <v>0.7385924891951676</v>
       </c>
-      <c r="BC5">
+      <c r="BD5">
         <v>0.738931303408808</v>
       </c>
-      <c r="BD5">
+      <c r="BE5">
         <v>0.7443670477593968</v>
       </c>
-      <c r="BE5">
+      <c r="BF5">
         <v>0.7547975520910957</v>
       </c>
-      <c r="BF5">
+      <c r="BG5">
         <v>0.7753161532473997</v>
       </c>
-      <c r="BG5">
+      <c r="BH5">
         <v>0.7771935930293148</v>
       </c>
-      <c r="BH5">
+      <c r="BI5">
         <v>0.780119227052983</v>
       </c>
-      <c r="BI5">
+      <c r="BJ5">
         <v>0.8186000346355976</v>
       </c>
-      <c r="BJ5">
+      <c r="BK5">
         <v>0.8242323184539112</v>
       </c>
-      <c r="BK5">
+      <c r="BL5">
         <v>0.8407037776716229</v>
       </c>
-      <c r="BL5">
+      <c r="BM5">
         <v>0.8839502913070745</v>
       </c>
-      <c r="BM5">
+      <c r="BN5">
         <v>0.8843892100381644</v>
       </c>
-      <c r="BN5">
+      <c r="BO5">
         <v>0.8868092161826379</v>
       </c>
-      <c r="BO5">
+      <c r="BP5">
         <v>0.8875730789974861</v>
       </c>
-      <c r="BP5">
+      <c r="BQ5">
         <v>0.9208343849658852</v>
       </c>
-      <c r="BQ5">
+      <c r="BR5">
         <v>0.9513123788222601</v>
       </c>
-      <c r="BR5">
+      <c r="BS5">
         <v>0.9526848177228971</v>
       </c>
-      <c r="BS5">
+      <c r="BT5">
         <v>0.9689958928826479</v>
       </c>
-      <c r="BT5">
+      <c r="BU5">
         <v>0.969150798767439</v>
       </c>
-      <c r="BU5">
+      <c r="BV5">
         <v>0.9714118311704849</v>
       </c>
-      <c r="BV5">
+      <c r="BW5">
         <v>0.9935877698681556</v>
       </c>
-      <c r="BW5">
+      <c r="BX5">
         <v>0.9997168800732197</v>
       </c>
-      <c r="BX5">
+      <c r="BY5">
         <v>0.9999999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:76">
+    <row r="6" spans="1:77">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4392,228 +4443,231 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2223568659173052</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.4360962037181881</v>
+        <v>0.2305718742705234</v>
       </c>
       <c r="F6">
-        <v>0.4725843436028432</v>
+        <v>0.4521035492897134</v>
       </c>
       <c r="G6">
-        <v>0.520452315830365</v>
+        <v>0.4876902381072797</v>
       </c>
       <c r="H6">
-        <v>0.5752152106089858</v>
+        <v>0.5352149154566428</v>
       </c>
       <c r="I6">
-        <v>0.5752152106089858</v>
+        <v>0.5899726964109322</v>
       </c>
       <c r="J6">
-        <v>0.5752152106089858</v>
+        <v>0.5899726964109322</v>
       </c>
       <c r="K6">
-        <v>0.7472692069125444</v>
+        <v>0.5899726964109322</v>
       </c>
       <c r="L6">
-        <v>0.8568152886058135</v>
+        <v>0.7677744539985158</v>
       </c>
       <c r="M6">
-        <v>0.8664703183638262</v>
+        <v>0.8800024188199949</v>
       </c>
       <c r="N6">
-        <v>0.8690356117569601</v>
+        <v>0.8874398914353482</v>
       </c>
       <c r="O6">
-        <v>0.8690356117569601</v>
+        <v>0.8874398914353482</v>
       </c>
       <c r="P6">
-        <v>0.876128443882173</v>
+        <v>0.8874398914353482</v>
       </c>
       <c r="Q6">
-        <v>0.876128443882173</v>
+        <v>0.8921894961599471</v>
       </c>
       <c r="R6">
-        <v>0.876128443882173</v>
+        <v>0.8921894961599471</v>
       </c>
       <c r="S6">
-        <v>0.876128443882173</v>
+        <v>0.8921894961599471</v>
       </c>
       <c r="T6">
-        <v>0.8795395656468239</v>
+        <v>0.8921894961599471</v>
       </c>
       <c r="U6">
-        <v>0.8817847571579628</v>
+        <v>0.8930768105855736</v>
       </c>
       <c r="V6">
-        <v>0.8970848226850362</v>
+        <v>0.8930768105855736</v>
       </c>
       <c r="W6">
-        <v>0.9100473397778229</v>
+        <v>0.9064361957776857</v>
       </c>
       <c r="X6">
-        <v>0.9100473397778229</v>
+        <v>0.9173433808353622</v>
       </c>
       <c r="Y6">
-        <v>0.9114284875005185</v>
+        <v>0.9173433808353622</v>
       </c>
       <c r="Z6">
-        <v>0.9146497167927011</v>
+        <v>0.9173433808353622</v>
       </c>
       <c r="AA6">
-        <v>0.952171136388529</v>
+        <v>0.9180314889730312</v>
       </c>
       <c r="AB6">
-        <v>0.9979164075295519</v>
+        <v>0.9547021376390792</v>
       </c>
       <c r="AC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="BY6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:76">
+    <row r="7" spans="1:77">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4622,228 +4676,231 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1463705708176828</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1463705708176828</v>
+        <v>0.1523492728326145</v>
       </c>
       <c r="F7">
-        <v>0.3041152442521557</v>
+        <v>0.1523492728326145</v>
       </c>
       <c r="G7">
-        <v>0.3219079780003569</v>
+        <v>0.3167202303593838</v>
       </c>
       <c r="H7">
-        <v>0.4243869821873097</v>
+        <v>0.333171114722742</v>
       </c>
       <c r="I7">
-        <v>0.4304336001090557</v>
+        <v>0.439129864052586</v>
       </c>
       <c r="J7">
-        <v>0.4586149243561476</v>
+        <v>0.4431658700203319</v>
       </c>
       <c r="K7">
-        <v>0.4707869823799068</v>
+        <v>0.4705968170402378</v>
       </c>
       <c r="L7">
-        <v>0.7180482284070699</v>
+        <v>0.4811070137200167</v>
       </c>
       <c r="M7">
-        <v>0.7648381413480454</v>
+        <v>0.7400911505777147</v>
       </c>
       <c r="N7">
-        <v>0.8088794894822918</v>
+        <v>0.7871901622720903</v>
       </c>
       <c r="O7">
-        <v>0.8181162445424418</v>
+        <v>0.8313841202157488</v>
       </c>
       <c r="P7">
-        <v>0.8480305220532393</v>
+        <v>0.8387918930912764</v>
       </c>
       <c r="Q7">
-        <v>0.8480305220532393</v>
+        <v>0.8680544586948956</v>
       </c>
       <c r="R7">
-        <v>0.8480305220532393</v>
+        <v>0.8680544586948956</v>
       </c>
       <c r="S7">
-        <v>0.8502585448939282</v>
+        <v>0.8680544586948956</v>
       </c>
       <c r="T7">
-        <v>0.8525800017582139</v>
+        <v>0.8680544586948956</v>
       </c>
       <c r="U7">
-        <v>0.8525800017582139</v>
+        <v>0.868153212364458</v>
       </c>
       <c r="V7">
-        <v>0.8929054188079887</v>
+        <v>0.868153212364458</v>
       </c>
       <c r="W7">
-        <v>0.9265656390094594</v>
+        <v>0.9084196734894414</v>
       </c>
       <c r="X7">
-        <v>0.9345751658816416</v>
+        <v>0.9416414562222584</v>
       </c>
       <c r="Y7">
-        <v>0.9361183902435795</v>
+        <v>0.9477521289378358</v>
       </c>
       <c r="Z7">
-        <v>0.9435189970453023</v>
+        <v>0.9477521289378358</v>
       </c>
       <c r="AA7">
-        <v>0.9558671136280411</v>
+        <v>0.9532192128501789</v>
       </c>
       <c r="AB7">
-        <v>0.9751162547682813</v>
+        <v>0.9639154919449904</v>
       </c>
       <c r="AC7">
-        <v>0.983157749362107</v>
+        <v>0.9819057039408852</v>
       </c>
       <c r="AD7">
-        <v>0.9949606697353391</v>
+        <v>0.9880501644534375</v>
       </c>
       <c r="AE7">
-        <v>0.9949606697353391</v>
+        <v>0.9981702067102358</v>
       </c>
       <c r="AF7">
-        <v>0.9949606697353391</v>
+        <v>0.9981702067102358</v>
       </c>
       <c r="AG7">
-        <v>0.9989199188704104</v>
+        <v>0.9981702067102358</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AU7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AV7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AW7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AX7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AY7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AZ7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BA7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BB7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BC7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BD7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BE7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BF7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BG7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BH7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BI7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BJ7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BK7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BX7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="BY7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:76">
+    <row r="8" spans="1:77">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4852,46 +4909,46 @@
         <v>0</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1232970991584282</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.1333936372730114</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.3655455995481652</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.4198991273208894</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.5229526029326476</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.5417111025478162</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.5498756332923712</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.6171701781644379</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.6801700165108377</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.7164265560314025</v>
-      </c>
-      <c r="N8">
-        <v>0.8273595011838741</v>
       </c>
       <c r="O8">
         <v>0.8273595011838741</v>
       </c>
       <c r="P8">
+        <v>0.8273595011838741</v>
+      </c>
+      <c r="Q8">
         <v>0.8320658930933992</v>
-      </c>
-      <c r="Q8">
-        <v>0.8326981019585179</v>
       </c>
       <c r="R8">
         <v>0.8326981019585179</v>
@@ -4900,19 +4957,19 @@
         <v>0.8326981019585179</v>
       </c>
       <c r="T8">
-        <v>0.8394378462816486</v>
+        <v>0.8326981019585179</v>
       </c>
       <c r="U8">
         <v>0.8394378462816486</v>
       </c>
       <c r="V8">
+        <v>0.8394378462816486</v>
+      </c>
+      <c r="W8">
         <v>0.8467091868713889</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>0.8816897695217842</v>
-      </c>
-      <c r="X8">
-        <v>0.8954859694501247</v>
       </c>
       <c r="Y8">
         <v>0.8954859694501247</v>
@@ -4921,20 +4978,20 @@
         <v>0.8954859694501247</v>
       </c>
       <c r="AA8">
+        <v>0.8954859694501247</v>
+      </c>
+      <c r="AB8">
         <v>0.911394840663043</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>0.9760345303965576</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>0.983051286853047</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>0.9931478249676302</v>
       </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
       <c r="AF8">
         <v>1</v>
       </c>
@@ -5070,10 +5127,13 @@
       <c r="BX8">
         <v>1</v>
       </c>
+      <c r="BY8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:76">
+    <row r="9" spans="1:77">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5082,37 +5142,37 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.2657680907466968</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.3841207603085853</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.4447667556161989</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.4879111288086606</v>
-      </c>
-      <c r="H9">
-        <v>0.5472630725283574</v>
       </c>
       <c r="I9">
         <v>0.5472630725283574</v>
       </c>
       <c r="J9">
+        <v>0.5472630725283574</v>
+      </c>
+      <c r="K9">
         <v>0.571616905654193</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.6326753732210326</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.6893997331551207</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.7635057620380773</v>
-      </c>
-      <c r="N9">
-        <v>0.8069335827951495</v>
       </c>
       <c r="O9">
         <v>0.8069335827951495</v>
@@ -5121,25 +5181,25 @@
         <v>0.8069335827951495</v>
       </c>
       <c r="Q9">
-        <v>0.8079371666407517</v>
+        <v>0.8069335827951495</v>
       </c>
       <c r="R9">
         <v>0.8079371666407517</v>
       </c>
       <c r="S9">
+        <v>0.8079371666407517</v>
+      </c>
+      <c r="T9">
         <v>0.8097241718108587</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.8139571387405456</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.8146825825844607</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>0.8487987091900372</v>
-      </c>
-      <c r="W9">
-        <v>0.8821663523035534</v>
       </c>
       <c r="X9">
         <v>0.8821663523035534</v>
@@ -5148,19 +5208,19 @@
         <v>0.8821663523035534</v>
       </c>
       <c r="Z9">
+        <v>0.8821663523035534</v>
+      </c>
+      <c r="AA9">
         <v>0.8881940473001384</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>0.9308354643844854</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>0.9646846383884481</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>0.9677830436115933</v>
-      </c>
-      <c r="AD9">
-        <v>0.9953590751851012</v>
       </c>
       <c r="AE9">
         <v>0.9953590751851012</v>
@@ -5175,7 +5235,7 @@
         <v>0.9953590751851012</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9953590751851012</v>
       </c>
       <c r="AJ9">
         <v>1</v>
@@ -5300,10 +5360,13 @@
       <c r="BX9">
         <v>1</v>
       </c>
+      <c r="BY9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:76">
+    <row r="10" spans="1:77">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5312,37 +5375,37 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.2832258276636156</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.2916541720716873</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.4259352112355231</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.4495494460969257</v>
-      </c>
-      <c r="H10">
-        <v>0.5156102843689161</v>
       </c>
       <c r="I10">
         <v>0.5156102843689161</v>
       </c>
       <c r="J10">
+        <v>0.5156102843689161</v>
+      </c>
+      <c r="K10">
         <v>0.5520194090381035</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.59215944065668</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.6505839096568602</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.7132813815334255</v>
-      </c>
-      <c r="N10">
-        <v>0.7974215022761302</v>
       </c>
       <c r="O10">
         <v>0.7974215022761302</v>
@@ -5351,7 +5414,7 @@
         <v>0.7974215022761302</v>
       </c>
       <c r="Q10">
-        <v>0.802413848242796</v>
+        <v>0.7974215022761302</v>
       </c>
       <c r="R10">
         <v>0.802413848242796</v>
@@ -5360,16 +5423,16 @@
         <v>0.802413848242796</v>
       </c>
       <c r="T10">
-        <v>0.8094486062868338</v>
+        <v>0.802413848242796</v>
       </c>
       <c r="U10">
         <v>0.8094486062868338</v>
       </c>
       <c r="V10">
+        <v>0.8094486062868338</v>
+      </c>
+      <c r="W10">
         <v>0.8283679890541548</v>
-      </c>
-      <c r="W10">
-        <v>0.884396825297212</v>
       </c>
       <c r="X10">
         <v>0.884396825297212</v>
@@ -5381,16 +5444,16 @@
         <v>0.884396825297212</v>
       </c>
       <c r="AA10">
+        <v>0.884396825297212</v>
+      </c>
+      <c r="AB10">
         <v>0.9151472245433085</v>
-      </c>
-      <c r="AB10">
-        <v>0.9724465407925036</v>
       </c>
       <c r="AC10">
         <v>0.9724465407925036</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0.9724465407925036</v>
       </c>
       <c r="AE10">
         <v>1</v>
@@ -5530,10 +5593,13 @@
       <c r="BX10">
         <v>1</v>
       </c>
+      <c r="BY10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:76">
+    <row r="11" spans="1:77">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5542,37 +5608,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2463267421964772</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0.2463267421964772</v>
       </c>
       <c r="F11">
+        <v>0.2463267421964772</v>
+      </c>
+      <c r="G11">
         <v>0.4426458183739752</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.4460432817217685</v>
-      </c>
-      <c r="H11">
-        <v>0.5093505163558241</v>
       </c>
       <c r="I11">
         <v>0.5093505163558241</v>
       </c>
       <c r="J11">
+        <v>0.5093505163558241</v>
+      </c>
+      <c r="K11">
         <v>0.5235822845602047</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.6156839255180606</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.6779010005471757</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.7121308685804248</v>
-      </c>
-      <c r="N11">
-        <v>0.8286928065046736</v>
       </c>
       <c r="O11">
         <v>0.8286928065046736</v>
@@ -5584,25 +5650,25 @@
         <v>0.8286928065046736</v>
       </c>
       <c r="R11">
-        <v>0.8330034836596932</v>
+        <v>0.8286928065046736</v>
       </c>
       <c r="S11">
         <v>0.8330034836596932</v>
       </c>
       <c r="T11">
-        <v>0.8422290417896336</v>
+        <v>0.8330034836596932</v>
       </c>
       <c r="U11">
         <v>0.8422290417896336</v>
       </c>
       <c r="V11">
+        <v>0.8422290417896336</v>
+      </c>
+      <c r="W11">
         <v>0.8581616837569523</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>0.9161984845585815</v>
-      </c>
-      <c r="X11">
-        <v>0.9234522499716908</v>
       </c>
       <c r="Y11">
         <v>0.9234522499716908</v>
@@ -5611,16 +5677,16 @@
         <v>0.9234522499716908</v>
       </c>
       <c r="AA11">
+        <v>0.9234522499716908</v>
+      </c>
+      <c r="AB11">
         <v>0.9307630155039848</v>
-      </c>
-      <c r="AB11">
-        <v>0.9876582259146681</v>
       </c>
       <c r="AC11">
         <v>0.9876582259146681</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0.9876582259146681</v>
       </c>
       <c r="AE11">
         <v>1</v>
@@ -5758,6 +5824,9 @@
         <v>1</v>
       </c>
       <c r="BX11">
+        <v>1</v>
+      </c>
+      <c r="BY11">
         <v>1</v>
       </c>
     </row>
@@ -5776,63 +5845,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5185166898163041</v>
+        <v>0.520400999941466</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -5844,30 +5913,30 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5885,30 +5954,30 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5926,30 +5995,30 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5967,36 +6036,36 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.520452315830365</v>
+        <v>0.5352149154566428</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -6008,36 +6077,36 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7180482284070699</v>
+        <v>0.7400911505777147</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -6049,30 +6118,30 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6090,30 +6159,30 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6131,30 +6200,30 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6172,30 +6241,30 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -6213,16 +6282,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6240,63 +6309,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7099454307592599</v>
+        <v>0.711319909299188</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -6308,30 +6377,30 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6349,30 +6418,30 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6390,30 +6459,30 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6431,36 +6500,36 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7472692069125444</v>
+        <v>0.7677744539985158</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -6472,36 +6541,36 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7180482284070699</v>
+        <v>0.7400911505777147</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -6513,30 +6582,30 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6554,30 +6623,30 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6595,30 +6664,30 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6636,30 +6705,30 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -6677,16 +6746,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6704,63 +6773,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8036412574867322</v>
+        <v>0.8047661962154756</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -6772,30 +6841,30 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6813,30 +6882,30 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6854,30 +6923,30 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6895,36 +6964,36 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8568152886058135</v>
+        <v>0.8800024188199949</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -6936,36 +7005,36 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8088794894822918</v>
+        <v>0.8313841202157488</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -6977,30 +7046,30 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7018,30 +7087,30 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7059,30 +7128,30 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7100,30 +7169,30 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -7141,16 +7210,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -7168,63 +7237,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9353937393819182</v>
+        <v>0.9361677821251776</v>
       </c>
       <c r="G2">
         <v>25</v>
@@ -7236,30 +7305,30 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7277,30 +7346,30 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7318,30 +7387,30 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7359,27 +7428,27 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>22</v>
@@ -7388,10 +7457,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9100473397778229</v>
+        <v>0.9064361957776857</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -7400,27 +7469,27 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>22</v>
@@ -7429,10 +7498,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9265656390094594</v>
+        <v>0.9084196734894414</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <v>11</v>
@@ -7441,30 +7510,30 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7482,30 +7551,30 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7523,30 +7592,30 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7564,30 +7633,30 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -7605,16 +7674,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/11_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/11_225-80R17.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="103">
-  <si>
-    <t>Signal_Value_47</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="102">
   <si>
     <t>Signal_Value_48</t>
   </si>
@@ -685,15 +682,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY11"/>
+  <dimension ref="A1:BX11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:76">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -920,2111 +917,2081 @@
       <c r="BX1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:76">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0.208281648147465</v>
+      </c>
+      <c r="AT2">
+        <v>0.1552304553574616</v>
+      </c>
+      <c r="AU2">
+        <v>0.02269772376617857</v>
+      </c>
+      <c r="AV2">
+        <v>0.003096489997265502</v>
+      </c>
+      <c r="AW2">
+        <v>0.0710763448928079</v>
+      </c>
+      <c r="AX2">
+        <v>0.01389255568539609</v>
+      </c>
+      <c r="AY2">
+        <v>0.04424147196972943</v>
+      </c>
+      <c r="AZ2">
+        <v>0.005126664836016516</v>
+      </c>
+      <c r="BA2">
+        <v>0.1171656789300561</v>
+      </c>
+      <c r="BB2">
+        <v>0.03397423881612971</v>
+      </c>
+      <c r="BC2">
+        <v>0.01124111417744811</v>
+      </c>
+      <c r="BD2">
+        <v>0.0002225476012872567</v>
+      </c>
+      <c r="BE2">
+        <v>0.02369849658201807</v>
+      </c>
+      <c r="BF2">
+        <v>0.02359046524035983</v>
+      </c>
+      <c r="BG2">
+        <v>0.008187956458864517</v>
+      </c>
+      <c r="BH2">
+        <v>0.0336466473070978</v>
+      </c>
+      <c r="BI2">
+        <v>0.02827075772115033</v>
+      </c>
+      <c r="BJ2">
+        <v>0.0004698076482176625</v>
+      </c>
+      <c r="BK2">
+        <v>0.04834762458748661</v>
+      </c>
+      <c r="BL2">
+        <v>0.03283291244898183</v>
+      </c>
+      <c r="BM2">
+        <v>0.001041855192847344</v>
+      </c>
+      <c r="BN2">
+        <v>0.0003967520948963776</v>
+      </c>
+      <c r="BO2">
+        <v>0.004474194275185149</v>
+      </c>
+      <c r="BP2">
+        <v>0.04418933564757083</v>
+      </c>
+      <c r="BQ2">
+        <v>0.007076664533790862</v>
+      </c>
+      <c r="BR2">
+        <v>0.003016772788603263</v>
+      </c>
+      <c r="BS2">
+        <v>0.01513702084627951</v>
+      </c>
+      <c r="BT2">
+        <v>4.883550396467838E-06</v>
+      </c>
+      <c r="BU2">
+        <v>0.0142405567360601</v>
+      </c>
+      <c r="BV2">
+        <v>0.02184730577884672</v>
+      </c>
+      <c r="BW2">
+        <v>0.002679471773764719</v>
+      </c>
+      <c r="BX2">
+        <v>0.000603584610340198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:76">
+      <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0.003265274052715495</v>
-      </c>
-      <c r="AT2">
-        <v>0.2077269322655809</v>
-      </c>
-      <c r="AU2">
-        <v>0.1548170305564541</v>
-      </c>
-      <c r="AV2">
-        <v>0.02263727298730437</v>
-      </c>
-      <c r="AW2">
-        <v>0.003088243124846084</v>
-      </c>
-      <c r="AX2">
-        <v>0.07088704747899832</v>
-      </c>
-      <c r="AY2">
-        <v>0.01385555568396921</v>
-      </c>
-      <c r="AZ2">
-        <v>0.04412364379159747</v>
-      </c>
-      <c r="BA2">
-        <v>0.005113011005105684</v>
-      </c>
-      <c r="BB2">
-        <v>0.1168536319326739</v>
-      </c>
-      <c r="BC2">
-        <v>0.03388375532891971</v>
-      </c>
-      <c r="BD2">
-        <v>0.01121117575214869</v>
-      </c>
-      <c r="BE2">
-        <v>0.0002219548909356379</v>
-      </c>
-      <c r="BF2">
-        <v>0.02363538044793835</v>
-      </c>
-      <c r="BG2">
-        <v>0.02352763682582474</v>
-      </c>
-      <c r="BH2">
-        <v>0.008166149499258112</v>
-      </c>
-      <c r="BI2">
-        <v>0.03355703629336036</v>
-      </c>
-      <c r="BJ2">
-        <v>0.02819546429784442</v>
-      </c>
-      <c r="BK2">
-        <v>0.0004685564109328854</v>
-      </c>
-      <c r="BL2">
-        <v>0.04821886050553995</v>
-      </c>
-      <c r="BM2">
-        <v>0.03274546865282431</v>
-      </c>
-      <c r="BN2">
-        <v>0.001039080423071724</v>
-      </c>
-      <c r="BO2">
-        <v>0.0003956954262452156</v>
-      </c>
-      <c r="BP2">
-        <v>0.004462278167140322</v>
-      </c>
-      <c r="BQ2">
-        <v>0.04407164632394757</v>
-      </c>
-      <c r="BR2">
-        <v>0.007057817274598444</v>
-      </c>
-      <c r="BS2">
-        <v>0.003008738226783928</v>
-      </c>
-      <c r="BT2">
-        <v>0.01509670646456357</v>
-      </c>
-      <c r="BU2">
-        <v>4.870544051506596E-06</v>
-      </c>
-      <c r="BV2">
-        <v>0.01420262990449033</v>
-      </c>
-      <c r="BW2">
-        <v>0.02178911991561924</v>
-      </c>
-      <c r="BX2">
-        <v>0.002672335544715316</v>
-      </c>
-      <c r="BY2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.04052625656408599</v>
+      </c>
+      <c r="E3">
+        <v>0.08366529577349531</v>
+      </c>
+      <c r="F3">
+        <v>0.2404715263310417</v>
+      </c>
+      <c r="G3">
+        <v>0.003261135741084349</v>
+      </c>
+      <c r="H3">
+        <v>0.02427222056059897</v>
+      </c>
+      <c r="I3">
+        <v>0.0603342044483692</v>
+      </c>
+      <c r="J3">
+        <v>0.02571445191686244</v>
+      </c>
+      <c r="K3">
+        <v>0.02153498012126288</v>
+      </c>
+      <c r="L3">
+        <v>0.132039423841448</v>
+      </c>
+      <c r="M3">
+        <v>0.1399192659533528</v>
+      </c>
+      <c r="N3">
+        <v>0.01551188291293567</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.006516179099591981</v>
+      </c>
+      <c r="Q3">
+        <v>0.01481988300777296</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.02843817143723357</v>
+      </c>
+      <c r="U3">
+        <v>0.005311507214352367</v>
+      </c>
+      <c r="V3">
+        <v>0.01001667491850214</v>
+      </c>
+      <c r="W3">
+        <v>0.06050973500897974</v>
+      </c>
+      <c r="X3">
+        <v>0.0159821645469976</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0.0009480484144736437</v>
+      </c>
+      <c r="AB3">
+        <v>0.02704829106875523</v>
+      </c>
+      <c r="AC3">
+        <v>0.004129950181627483</v>
+      </c>
+      <c r="AD3">
+        <v>0.002677056841722378</v>
+      </c>
+      <c r="AE3">
+        <v>0.003100727843910938</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0.01653725134234855</v>
+      </c>
+      <c r="AH3">
+        <v>0.01441002126500761</v>
+      </c>
+      <c r="AI3">
+        <v>0.002303693644186531</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:76">
+      <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.04052625656408599</v>
-      </c>
-      <c r="F3">
-        <v>0.08366529577349531</v>
-      </c>
-      <c r="G3">
-        <v>0.2404715263310417</v>
-      </c>
-      <c r="H3">
-        <v>0.003261135741084349</v>
-      </c>
-      <c r="I3">
-        <v>0.02427222056059897</v>
-      </c>
-      <c r="J3">
-        <v>0.0603342044483692</v>
-      </c>
-      <c r="K3">
-        <v>0.02571445191686244</v>
-      </c>
-      <c r="L3">
-        <v>0.02153498012126288</v>
-      </c>
-      <c r="M3">
-        <v>0.132039423841448</v>
-      </c>
-      <c r="N3">
-        <v>0.1399192659533528</v>
-      </c>
-      <c r="O3">
-        <v>0.01551188291293567</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0.006516179099591981</v>
-      </c>
-      <c r="R3">
-        <v>0.01481988300777296</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0.02843817143723357</v>
-      </c>
-      <c r="V3">
-        <v>0.005311507214352367</v>
-      </c>
-      <c r="W3">
-        <v>0.01001667491850214</v>
-      </c>
-      <c r="X3">
-        <v>0.06050973500897974</v>
-      </c>
-      <c r="Y3">
-        <v>0.0159821645469976</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0.0009480484144736437</v>
-      </c>
-      <c r="AC3">
-        <v>0.02704829106875523</v>
-      </c>
-      <c r="AD3">
-        <v>0.004129950181627483</v>
-      </c>
-      <c r="AE3">
-        <v>0.002677056841722378</v>
-      </c>
-      <c r="AF3">
-        <v>0.003100727843910938</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0.01653725134234855</v>
-      </c>
-      <c r="AI3">
-        <v>0.01441002126500761</v>
-      </c>
-      <c r="AJ3">
-        <v>0.002303693644186531</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>0</v>
-      </c>
-      <c r="BS3">
-        <v>0</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3">
-        <v>0</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
-      <c r="BY3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.1157678671924923</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.3179533879837821</v>
+      </c>
+      <c r="G4">
+        <v>0.014880040626426</v>
+      </c>
+      <c r="H4">
+        <v>0.07195377480166784</v>
+      </c>
+      <c r="I4">
+        <v>0.02204443378779818</v>
+      </c>
+      <c r="J4">
+        <v>0.005109532132059742</v>
+      </c>
+      <c r="K4">
+        <v>0.03275530620284067</v>
+      </c>
+      <c r="L4">
+        <v>0.0953375313029739</v>
+      </c>
+      <c r="M4">
+        <v>0.09337220809897609</v>
+      </c>
+      <c r="N4">
+        <v>0.03335271612352989</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.001438706327864647</v>
+      </c>
+      <c r="Q4">
+        <v>0.006221960285331556</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0.02408482341887622</v>
+      </c>
+      <c r="U4">
+        <v>0.003643311106236277</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.04748135566311075</v>
+      </c>
+      <c r="X4">
+        <v>0.006294985980338114</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0.019108737402577</v>
+      </c>
+      <c r="AB4">
+        <v>0.06133245865115657</v>
+      </c>
+      <c r="AC4">
+        <v>0.003552748587313573</v>
+      </c>
+      <c r="AD4">
+        <v>0.005644577235420277</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0.01425095852890097</v>
+      </c>
+      <c r="AH4">
+        <v>0.004418578560327661</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:76">
+      <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.1157678671924923</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.3179533879837821</v>
-      </c>
-      <c r="H4">
-        <v>0.014880040626426</v>
-      </c>
-      <c r="I4">
-        <v>0.07195377480166784</v>
-      </c>
-      <c r="J4">
-        <v>0.02204443378779818</v>
-      </c>
-      <c r="K4">
-        <v>0.005109532132059742</v>
-      </c>
-      <c r="L4">
-        <v>0.03275530620284067</v>
-      </c>
-      <c r="M4">
-        <v>0.0953375313029739</v>
-      </c>
-      <c r="N4">
-        <v>0.09337220809897609</v>
-      </c>
-      <c r="O4">
-        <v>0.03335271612352989</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0.001438706327864647</v>
-      </c>
-      <c r="R4">
-        <v>0.006221960285331556</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.02408482341887622</v>
-      </c>
-      <c r="V4">
-        <v>0.003643311106236277</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0.04748135566311075</v>
-      </c>
-      <c r="Y4">
-        <v>0.006294985980338114</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0.019108737402577</v>
-      </c>
-      <c r="AC4">
-        <v>0.06133245865115657</v>
-      </c>
-      <c r="AD4">
-        <v>0.003552748587313573</v>
-      </c>
-      <c r="AE4">
-        <v>0.005644577235420277</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0.01425095852890097</v>
-      </c>
-      <c r="AI4">
-        <v>0.004418578560327661</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4">
-        <v>0</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>0</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BS4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
-        <v>0</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4">
-        <v>0</v>
-      </c>
-      <c r="BW4">
-        <v>0</v>
-      </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
-      <c r="BY4">
-        <v>0</v>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0.2787730009420327</v>
+      </c>
+      <c r="AT5">
+        <v>0.08752085302347494</v>
+      </c>
+      <c r="AU5">
+        <v>0.09295003263972108</v>
+      </c>
+      <c r="AV5">
+        <v>0.00224555388507296</v>
+      </c>
+      <c r="AW5">
+        <v>0.0681004390858411</v>
+      </c>
+      <c r="AX5">
+        <v>6.451168334284681E-05</v>
+      </c>
+      <c r="AY5">
+        <v>0.03587269226245261</v>
+      </c>
+      <c r="AZ5">
+        <v>0.0312193239489042</v>
+      </c>
+      <c r="BA5">
+        <v>0.07709104772462336</v>
+      </c>
+      <c r="BB5">
+        <v>0.0647550339997018</v>
+      </c>
+      <c r="BC5">
+        <v>0.0003388142136403027</v>
+      </c>
+      <c r="BD5">
+        <v>0.005435744350588777</v>
+      </c>
+      <c r="BE5">
+        <v>0.01043050433169895</v>
+      </c>
+      <c r="BF5">
+        <v>0.02051860115630399</v>
+      </c>
+      <c r="BG5">
+        <v>0.001877439781915116</v>
+      </c>
+      <c r="BH5">
+        <v>0.002925634023668192</v>
+      </c>
+      <c r="BI5">
+        <v>0.03848080758261464</v>
+      </c>
+      <c r="BJ5">
+        <v>0.005632283818313567</v>
+      </c>
+      <c r="BK5">
+        <v>0.01647145921771167</v>
+      </c>
+      <c r="BL5">
+        <v>0.04324651363545166</v>
+      </c>
+      <c r="BM5">
+        <v>0.0004389187310898835</v>
+      </c>
+      <c r="BN5">
+        <v>0.002420006144473491</v>
+      </c>
+      <c r="BO5">
+        <v>0.0007638628148481497</v>
+      </c>
+      <c r="BP5">
+        <v>0.03326130596839911</v>
+      </c>
+      <c r="BQ5">
+        <v>0.03047799385637482</v>
+      </c>
+      <c r="BR5">
+        <v>0.00137243890063714</v>
+      </c>
+      <c r="BS5">
+        <v>0.01631107515975077</v>
+      </c>
+      <c r="BT5">
+        <v>0.0001549058847911476</v>
+      </c>
+      <c r="BU5">
+        <v>0.002261032403045873</v>
+      </c>
+      <c r="BV5">
+        <v>0.02217593869767069</v>
+      </c>
+      <c r="BW5">
+        <v>0.006129110205064101</v>
+      </c>
+      <c r="BX5">
+        <v>0.0002831199267802202</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:76">
+      <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0.2787730009420327</v>
-      </c>
-      <c r="AU5">
-        <v>0.08752085302347494</v>
-      </c>
-      <c r="AV5">
-        <v>0.09295003263972108</v>
-      </c>
-      <c r="AW5">
-        <v>0.00224555388507296</v>
-      </c>
-      <c r="AX5">
-        <v>0.0681004390858411</v>
-      </c>
-      <c r="AY5">
-        <v>6.451168334284681E-05</v>
-      </c>
-      <c r="AZ5">
-        <v>0.03587269226245261</v>
-      </c>
-      <c r="BA5">
-        <v>0.0312193239489042</v>
-      </c>
-      <c r="BB5">
-        <v>0.07709104772462336</v>
-      </c>
-      <c r="BC5">
-        <v>0.0647550339997018</v>
-      </c>
-      <c r="BD5">
-        <v>0.0003388142136403027</v>
-      </c>
-      <c r="BE5">
-        <v>0.005435744350588777</v>
-      </c>
-      <c r="BF5">
-        <v>0.01043050433169895</v>
-      </c>
-      <c r="BG5">
-        <v>0.02051860115630399</v>
-      </c>
-      <c r="BH5">
-        <v>0.001877439781915116</v>
-      </c>
-      <c r="BI5">
-        <v>0.002925634023668192</v>
-      </c>
-      <c r="BJ5">
-        <v>0.03848080758261464</v>
-      </c>
-      <c r="BK5">
-        <v>0.005632283818313567</v>
-      </c>
-      <c r="BL5">
-        <v>0.01647145921771167</v>
-      </c>
-      <c r="BM5">
-        <v>0.04324651363545166</v>
-      </c>
-      <c r="BN5">
-        <v>0.0004389187310898835</v>
-      </c>
-      <c r="BO5">
-        <v>0.002420006144473491</v>
-      </c>
-      <c r="BP5">
-        <v>0.0007638628148481497</v>
-      </c>
-      <c r="BQ5">
-        <v>0.03326130596839911</v>
-      </c>
-      <c r="BR5">
-        <v>0.03047799385637482</v>
-      </c>
-      <c r="BS5">
-        <v>0.00137243890063714</v>
-      </c>
-      <c r="BT5">
-        <v>0.01631107515975077</v>
-      </c>
-      <c r="BU5">
-        <v>0.0001549058847911476</v>
-      </c>
-      <c r="BV5">
-        <v>0.002261032403045873</v>
-      </c>
-      <c r="BW5">
-        <v>0.02217593869767069</v>
-      </c>
-      <c r="BX5">
-        <v>0.006129110205064101</v>
-      </c>
-      <c r="BY5">
-        <v>0.0002831199267802202</v>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.2223568659173052</v>
+      </c>
+      <c r="E6">
+        <v>0.2137393378008829</v>
+      </c>
+      <c r="F6">
+        <v>0.03648813988465503</v>
+      </c>
+      <c r="G6">
+        <v>0.04786797222752177</v>
+      </c>
+      <c r="H6">
+        <v>0.05476289477862085</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.1720539963035585</v>
+      </c>
+      <c r="L6">
+        <v>0.1095460816932691</v>
+      </c>
+      <c r="M6">
+        <v>0.009655029758012679</v>
+      </c>
+      <c r="N6">
+        <v>0.002565293393133976</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.007092832125212972</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0.00341112176465083</v>
+      </c>
+      <c r="U6">
+        <v>0.002245191511138904</v>
+      </c>
+      <c r="V6">
+        <v>0.01530006552707342</v>
+      </c>
+      <c r="W6">
+        <v>0.01296251709278671</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0.001381147722695628</v>
+      </c>
+      <c r="Z6">
+        <v>0.00322122929218263</v>
+      </c>
+      <c r="AA6">
+        <v>0.03752141959582792</v>
+      </c>
+      <c r="AB6">
+        <v>0.04574527114102294</v>
+      </c>
+      <c r="AC6">
+        <v>0.0020835924704479</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:76">
+      <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.2305718742705234</v>
-      </c>
-      <c r="F6">
-        <v>0.22153167501919</v>
-      </c>
-      <c r="G6">
-        <v>0.03558668881756639</v>
-      </c>
-      <c r="H6">
-        <v>0.04752467734936304</v>
-      </c>
-      <c r="I6">
-        <v>0.05475778095428939</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0.1778017575875836</v>
-      </c>
-      <c r="M6">
-        <v>0.112227964821479</v>
-      </c>
-      <c r="N6">
-        <v>0.007437472615353334</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0.00474960472459898</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.0008873144256264793</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0.01335938519211213</v>
-      </c>
-      <c r="X6">
-        <v>0.01090718505767638</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0.000688108137669094</v>
-      </c>
-      <c r="AB6">
-        <v>0.03667064866604802</v>
-      </c>
-      <c r="AC6">
-        <v>0.04529786236092082</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6">
-        <v>0</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
-      <c r="BR6">
-        <v>0</v>
-      </c>
-      <c r="BS6">
-        <v>0</v>
-      </c>
-      <c r="BT6">
-        <v>0</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6">
-        <v>0</v>
-      </c>
-      <c r="BX6">
-        <v>0</v>
-      </c>
-      <c r="BY6">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.1463705708176828</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.1577446734344729</v>
+      </c>
+      <c r="G7">
+        <v>0.01779273374820112</v>
+      </c>
+      <c r="H7">
+        <v>0.1024790041869528</v>
+      </c>
+      <c r="I7">
+        <v>0.006046617921746025</v>
+      </c>
+      <c r="J7">
+        <v>0.0281813242470919</v>
+      </c>
+      <c r="K7">
+        <v>0.01217205802375918</v>
+      </c>
+      <c r="L7">
+        <v>0.2472612460271632</v>
+      </c>
+      <c r="M7">
+        <v>0.04678991294097541</v>
+      </c>
+      <c r="N7">
+        <v>0.04404134813424647</v>
+      </c>
+      <c r="O7">
+        <v>0.009236755060150016</v>
+      </c>
+      <c r="P7">
+        <v>0.02991427751079747</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.002228022840688933</v>
+      </c>
+      <c r="T7">
+        <v>0.002321456864285709</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0.04032541704977472</v>
+      </c>
+      <c r="W7">
+        <v>0.03366022020147071</v>
+      </c>
+      <c r="X7">
+        <v>0.008009526872182182</v>
+      </c>
+      <c r="Y7">
+        <v>0.00154322436193788</v>
+      </c>
+      <c r="Z7">
+        <v>0.007400606801722833</v>
+      </c>
+      <c r="AA7">
+        <v>0.01234811658273883</v>
+      </c>
+      <c r="AB7">
+        <v>0.01924914114024028</v>
+      </c>
+      <c r="AC7">
+        <v>0.00804149459382565</v>
+      </c>
+      <c r="AD7">
+        <v>0.01180292037323212</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0.003959249135071339</v>
+      </c>
+      <c r="AH7">
+        <v>0.001080081129589371</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:76">
+      <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.1523492728326145</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0.1643709575267693</v>
-      </c>
-      <c r="H7">
-        <v>0.01645088436335825</v>
-      </c>
-      <c r="I7">
-        <v>0.105958749329844</v>
-      </c>
-      <c r="J7">
-        <v>0.004036005967745896</v>
-      </c>
-      <c r="K7">
-        <v>0.02743094701990589</v>
-      </c>
-      <c r="L7">
-        <v>0.010510196679779</v>
-      </c>
-      <c r="M7">
-        <v>0.2589841368576979</v>
-      </c>
-      <c r="N7">
-        <v>0.04709901169437557</v>
-      </c>
-      <c r="O7">
-        <v>0.04419395794365858</v>
-      </c>
-      <c r="P7">
-        <v>0.007407772875527607</v>
-      </c>
-      <c r="Q7">
-        <v>0.0292625656036192</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>9.875366956234203E-05</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0.04026646112498339</v>
-      </c>
-      <c r="X7">
-        <v>0.03322178273281691</v>
-      </c>
-      <c r="Y7">
-        <v>0.006110672715577417</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0.005467083912343048</v>
-      </c>
-      <c r="AB7">
-        <v>0.01069627909481157</v>
-      </c>
-      <c r="AC7">
-        <v>0.01799021199589478</v>
-      </c>
-      <c r="AD7">
-        <v>0.006144460512552361</v>
-      </c>
-      <c r="AE7">
-        <v>0.01012004225679826</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0.001829793289764502</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7">
-        <v>0</v>
-      </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
-      <c r="BQ7">
-        <v>0</v>
-      </c>
-      <c r="BR7">
-        <v>0</v>
-      </c>
-      <c r="BS7">
-        <v>0</v>
-      </c>
-      <c r="BT7">
-        <v>0</v>
-      </c>
-      <c r="BU7">
-        <v>0</v>
-      </c>
-      <c r="BV7">
-        <v>0</v>
-      </c>
-      <c r="BW7">
-        <v>0</v>
-      </c>
-      <c r="BX7">
-        <v>0</v>
-      </c>
-      <c r="BY7">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.1232970991584282</v>
+      </c>
+      <c r="E8">
+        <v>0.01009653811458324</v>
+      </c>
+      <c r="F8">
+        <v>0.2321519622751538</v>
+      </c>
+      <c r="G8">
+        <v>0.05435352777272415</v>
+      </c>
+      <c r="H8">
+        <v>0.1030534756117582</v>
+      </c>
+      <c r="I8">
+        <v>0.01875849961516859</v>
+      </c>
+      <c r="J8">
+        <v>0.00816453074455507</v>
+      </c>
+      <c r="K8">
+        <v>0.06729454487206667</v>
+      </c>
+      <c r="L8">
+        <v>0.06299983834639983</v>
+      </c>
+      <c r="M8">
+        <v>0.03625653952056476</v>
+      </c>
+      <c r="N8">
+        <v>0.1109329451524717</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.004706391909525086</v>
+      </c>
+      <c r="Q8">
+        <v>0.0006322088651186776</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0.006739744323130698</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0.007271340589740181</v>
+      </c>
+      <c r="W8">
+        <v>0.03498058265039541</v>
+      </c>
+      <c r="X8">
+        <v>0.01379619992834042</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0.0159088712129183</v>
+      </c>
+      <c r="AB8">
+        <v>0.06463968973351458</v>
+      </c>
+      <c r="AC8">
+        <v>0.007016756456489385</v>
+      </c>
+      <c r="AD8">
+        <v>0.01009653811458324</v>
+      </c>
+      <c r="AE8">
+        <v>0.006852175032369786</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:76">
+      <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.1232970991584282</v>
-      </c>
-      <c r="F8">
-        <v>0.01009653811458324</v>
-      </c>
-      <c r="G8">
-        <v>0.2321519622751538</v>
-      </c>
-      <c r="H8">
-        <v>0.05435352777272415</v>
-      </c>
-      <c r="I8">
-        <v>0.1030534756117582</v>
-      </c>
-      <c r="J8">
-        <v>0.01875849961516859</v>
-      </c>
-      <c r="K8">
-        <v>0.00816453074455507</v>
-      </c>
-      <c r="L8">
-        <v>0.06729454487206667</v>
-      </c>
-      <c r="M8">
-        <v>0.06299983834639983</v>
-      </c>
-      <c r="N8">
-        <v>0.03625653952056476</v>
-      </c>
-      <c r="O8">
-        <v>0.1109329451524717</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0.004706391909525086</v>
-      </c>
-      <c r="R8">
-        <v>0.0006322088651186776</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0.006739744323130698</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0.007271340589740181</v>
-      </c>
-      <c r="X8">
-        <v>0.03498058265039541</v>
-      </c>
-      <c r="Y8">
-        <v>0.01379619992834042</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0.0159088712129183</v>
-      </c>
-      <c r="AC8">
-        <v>0.06463968973351458</v>
-      </c>
-      <c r="AD8">
-        <v>0.007016756456489385</v>
-      </c>
-      <c r="AE8">
-        <v>0.01009653811458324</v>
-      </c>
-      <c r="AF8">
-        <v>0.006852175032369786</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>0</v>
-      </c>
-      <c r="BS8">
-        <v>0</v>
-      </c>
-      <c r="BT8">
-        <v>0</v>
-      </c>
-      <c r="BU8">
-        <v>0</v>
-      </c>
-      <c r="BV8">
-        <v>0</v>
-      </c>
-      <c r="BW8">
-        <v>0</v>
-      </c>
-      <c r="BX8">
-        <v>0</v>
-      </c>
-      <c r="BY8">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.2657680907466968</v>
+      </c>
+      <c r="E9">
+        <v>0.1183526695618885</v>
+      </c>
+      <c r="F9">
+        <v>0.06064599530761366</v>
+      </c>
+      <c r="G9">
+        <v>0.0431443731924616</v>
+      </c>
+      <c r="H9">
+        <v>0.05935194371969682</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.02435383312583566</v>
+      </c>
+      <c r="K9">
+        <v>0.06105846756683968</v>
+      </c>
+      <c r="L9">
+        <v>0.05672435993408807</v>
+      </c>
+      <c r="M9">
+        <v>0.07410602888295655</v>
+      </c>
+      <c r="N9">
+        <v>0.04342782075707222</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.001003583845602164</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.001787005170107003</v>
+      </c>
+      <c r="T9">
+        <v>0.004232966929687011</v>
+      </c>
+      <c r="U9">
+        <v>0.0007254438439150351</v>
+      </c>
+      <c r="V9">
+        <v>0.03411612660557645</v>
+      </c>
+      <c r="W9">
+        <v>0.03336764311351625</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0.006027694996584909</v>
+      </c>
+      <c r="AA9">
+        <v>0.04264141708434696</v>
+      </c>
+      <c r="AB9">
+        <v>0.03384917400396273</v>
+      </c>
+      <c r="AC9">
+        <v>0.003098405223145181</v>
+      </c>
+      <c r="AD9">
+        <v>0.02757603157350802</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0.004640924814898971</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:76">
+      <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.2657680907466968</v>
-      </c>
-      <c r="F9">
-        <v>0.1183526695618885</v>
-      </c>
-      <c r="G9">
-        <v>0.06064599530761366</v>
-      </c>
-      <c r="H9">
-        <v>0.0431443731924616</v>
-      </c>
-      <c r="I9">
-        <v>0.05935194371969682</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0.02435383312583566</v>
-      </c>
-      <c r="L9">
-        <v>0.06105846756683968</v>
-      </c>
-      <c r="M9">
-        <v>0.05672435993408807</v>
-      </c>
-      <c r="N9">
-        <v>0.07410602888295655</v>
-      </c>
-      <c r="O9">
-        <v>0.04342782075707222</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0.001003583845602164</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0.001787005170107003</v>
-      </c>
-      <c r="U9">
-        <v>0.004232966929687011</v>
-      </c>
-      <c r="V9">
-        <v>0.0007254438439150351</v>
-      </c>
-      <c r="W9">
-        <v>0.03411612660557645</v>
-      </c>
-      <c r="X9">
-        <v>0.03336764311351625</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0.006027694996584909</v>
-      </c>
-      <c r="AB9">
-        <v>0.04264141708434696</v>
-      </c>
-      <c r="AC9">
-        <v>0.03384917400396273</v>
-      </c>
-      <c r="AD9">
-        <v>0.003098405223145181</v>
-      </c>
-      <c r="AE9">
-        <v>0.02757603157350802</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0.004640924814898971</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>0</v>
-      </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
-      <c r="BR9">
-        <v>0</v>
-      </c>
-      <c r="BS9">
-        <v>0</v>
-      </c>
-      <c r="BT9">
-        <v>0</v>
-      </c>
-      <c r="BU9">
-        <v>0</v>
-      </c>
-      <c r="BV9">
-        <v>0</v>
-      </c>
-      <c r="BW9">
-        <v>0</v>
-      </c>
-      <c r="BX9">
-        <v>0</v>
-      </c>
-      <c r="BY9">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.2832258276636156</v>
+      </c>
+      <c r="E10">
+        <v>0.008428344408071683</v>
+      </c>
+      <c r="F10">
+        <v>0.1342810391638359</v>
+      </c>
+      <c r="G10">
+        <v>0.02361423486140255</v>
+      </c>
+      <c r="H10">
+        <v>0.06606083827199044</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.03640912466918744</v>
+      </c>
+      <c r="K10">
+        <v>0.04014003161857644</v>
+      </c>
+      <c r="L10">
+        <v>0.05842446900018012</v>
+      </c>
+      <c r="M10">
+        <v>0.06269747187656523</v>
+      </c>
+      <c r="N10">
+        <v>0.08414012074270476</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.004992345966665829</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0.007034758044037707</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0.01891938276732096</v>
+      </c>
+      <c r="W10">
+        <v>0.0560288362430572</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0.03075039924609661</v>
+      </c>
+      <c r="AB10">
+        <v>0.05729931624919501</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0.02755345920749651</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:76">
+      <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0.2832258276636156</v>
-      </c>
-      <c r="F10">
-        <v>0.008428344408071683</v>
-      </c>
-      <c r="G10">
-        <v>0.1342810391638359</v>
-      </c>
-      <c r="H10">
-        <v>0.02361423486140255</v>
-      </c>
-      <c r="I10">
-        <v>0.06606083827199044</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0.03640912466918744</v>
-      </c>
-      <c r="L10">
-        <v>0.04014003161857644</v>
-      </c>
-      <c r="M10">
-        <v>0.05842446900018012</v>
-      </c>
-      <c r="N10">
-        <v>0.06269747187656523</v>
-      </c>
-      <c r="O10">
-        <v>0.08414012074270476</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0.004992345966665829</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0.007034758044037707</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0.01891938276732096</v>
-      </c>
-      <c r="X10">
-        <v>0.0560288362430572</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0.03075039924609661</v>
-      </c>
-      <c r="AC10">
-        <v>0.05729931624919501</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0.02755345920749651</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
-        <v>0</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
-      <c r="BI10">
-        <v>0</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10">
-        <v>0</v>
-      </c>
-      <c r="BP10">
-        <v>0</v>
-      </c>
-      <c r="BQ10">
-        <v>0</v>
-      </c>
-      <c r="BR10">
-        <v>0</v>
-      </c>
-      <c r="BS10">
-        <v>0</v>
-      </c>
-      <c r="BT10">
-        <v>0</v>
-      </c>
-      <c r="BU10">
-        <v>0</v>
-      </c>
-      <c r="BV10">
-        <v>0</v>
-      </c>
-      <c r="BW10">
-        <v>0</v>
-      </c>
-      <c r="BX10">
-        <v>0</v>
-      </c>
-      <c r="BY10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:77">
-      <c r="A11" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="B11">
         <v>0</v>
       </c>
@@ -3032,40 +2999,40 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2463267421964772</v>
       </c>
       <c r="E11">
-        <v>0.2463267421964772</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.196319076177498</v>
       </c>
       <c r="G11">
-        <v>0.196319076177498</v>
+        <v>0.003397463347793321</v>
       </c>
       <c r="H11">
-        <v>0.003397463347793321</v>
+        <v>0.06330723463405552</v>
       </c>
       <c r="I11">
-        <v>0.06330723463405552</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01423176820438062</v>
       </c>
       <c r="K11">
-        <v>0.01423176820438062</v>
+        <v>0.09210164095785595</v>
       </c>
       <c r="L11">
-        <v>0.09210164095785595</v>
+        <v>0.06221707502911511</v>
       </c>
       <c r="M11">
-        <v>0.06221707502911511</v>
+        <v>0.03422986803324914</v>
       </c>
       <c r="N11">
-        <v>0.03422986803324914</v>
+        <v>0.1165619379242488</v>
       </c>
       <c r="O11">
-        <v>0.1165619379242488</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3074,46 +3041,46 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.004310677155019638</v>
       </c>
       <c r="S11">
-        <v>0.004310677155019638</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.009225558129940373</v>
       </c>
       <c r="U11">
-        <v>0.009225558129940373</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.01593264196731873</v>
       </c>
       <c r="W11">
-        <v>0.01593264196731873</v>
+        <v>0.05803680080162921</v>
       </c>
       <c r="X11">
-        <v>0.05803680080162921</v>
+        <v>0.007253765413109296</v>
       </c>
       <c r="Y11">
-        <v>0.007253765413109296</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.007310765532293911</v>
       </c>
       <c r="AB11">
-        <v>0.007310765532293911</v>
+        <v>0.05689521041068333</v>
       </c>
       <c r="AC11">
-        <v>0.05689521041068333</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.01234177408533195</v>
       </c>
       <c r="AE11">
-        <v>0.01234177408533195</v>
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -3248,9 +3215,6 @@
         <v>0</v>
       </c>
       <c r="BX11">
-        <v>0</v>
-      </c>
-      <c r="BY11">
         <v>0</v>
       </c>
     </row>
@@ -3261,15 +3225,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY11"/>
+  <dimension ref="A1:BX11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:76">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3496,247 +3460,241 @@
       <c r="BX1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:76">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0.208281648147465</v>
+      </c>
+      <c r="AT2">
+        <v>0.3635121035049266</v>
+      </c>
+      <c r="AU2">
+        <v>0.3862098272711051</v>
+      </c>
+      <c r="AV2">
+        <v>0.3893063172683707</v>
+      </c>
+      <c r="AW2">
+        <v>0.4603826621611786</v>
+      </c>
+      <c r="AX2">
+        <v>0.4742752178465747</v>
+      </c>
+      <c r="AY2">
+        <v>0.5185166898163041</v>
+      </c>
+      <c r="AZ2">
+        <v>0.5236433546523206</v>
+      </c>
+      <c r="BA2">
+        <v>0.6408090335823767</v>
+      </c>
+      <c r="BB2">
+        <v>0.6747832723985064</v>
+      </c>
+      <c r="BC2">
+        <v>0.6860243865759545</v>
+      </c>
+      <c r="BD2">
+        <v>0.6862469341772418</v>
+      </c>
+      <c r="BE2">
+        <v>0.7099454307592599</v>
+      </c>
+      <c r="BF2">
+        <v>0.7335358959996197</v>
+      </c>
+      <c r="BG2">
+        <v>0.7417238524584842</v>
+      </c>
+      <c r="BH2">
+        <v>0.7753704997655819</v>
+      </c>
+      <c r="BI2">
+        <v>0.8036412574867322</v>
+      </c>
+      <c r="BJ2">
+        <v>0.8041110651349499</v>
+      </c>
+      <c r="BK2">
+        <v>0.8524586897224365</v>
+      </c>
+      <c r="BL2">
+        <v>0.8852916021714183</v>
+      </c>
+      <c r="BM2">
+        <v>0.8863334573642657</v>
+      </c>
+      <c r="BN2">
+        <v>0.8867302094591621</v>
+      </c>
+      <c r="BO2">
+        <v>0.8912044037343473</v>
+      </c>
+      <c r="BP2">
+        <v>0.9353937393819182</v>
+      </c>
+      <c r="BQ2">
+        <v>0.942470403915709</v>
+      </c>
+      <c r="BR2">
+        <v>0.9454871767043123</v>
+      </c>
+      <c r="BS2">
+        <v>0.9606241975505918</v>
+      </c>
+      <c r="BT2">
+        <v>0.9606290811009883</v>
+      </c>
+      <c r="BU2">
+        <v>0.9748696378370484</v>
+      </c>
+      <c r="BV2">
+        <v>0.9967169436158951</v>
+      </c>
+      <c r="BW2">
+        <v>0.9993964153896598</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:76">
+      <c r="A3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0.003265274052715495</v>
-      </c>
-      <c r="AT2">
-        <v>0.2109922063182964</v>
-      </c>
-      <c r="AU2">
-        <v>0.3658092368747505</v>
-      </c>
-      <c r="AV2">
-        <v>0.3884465098620549</v>
-      </c>
-      <c r="AW2">
-        <v>0.391534752986901</v>
-      </c>
-      <c r="AX2">
-        <v>0.4624218004658993</v>
-      </c>
-      <c r="AY2">
-        <v>0.4762773561498685</v>
-      </c>
-      <c r="AZ2">
-        <v>0.520400999941466</v>
-      </c>
-      <c r="BA2">
-        <v>0.5255140109465717</v>
-      </c>
-      <c r="BB2">
-        <v>0.6423676428792455</v>
-      </c>
-      <c r="BC2">
-        <v>0.6762513982081653</v>
-      </c>
-      <c r="BD2">
-        <v>0.687462573960314</v>
-      </c>
-      <c r="BE2">
-        <v>0.6876845288512496</v>
-      </c>
-      <c r="BF2">
-        <v>0.711319909299188</v>
-      </c>
-      <c r="BG2">
-        <v>0.7348475461250127</v>
-      </c>
-      <c r="BH2">
-        <v>0.7430136956242708</v>
-      </c>
-      <c r="BI2">
-        <v>0.7765707319176312</v>
-      </c>
-      <c r="BJ2">
-        <v>0.8047661962154756</v>
-      </c>
-      <c r="BK2">
-        <v>0.8052347526264085</v>
-      </c>
-      <c r="BL2">
-        <v>0.8534536131319485</v>
-      </c>
-      <c r="BM2">
-        <v>0.8861990817847728</v>
-      </c>
-      <c r="BN2">
-        <v>0.8872381622078446</v>
-      </c>
-      <c r="BO2">
-        <v>0.8876338576340898</v>
-      </c>
-      <c r="BP2">
-        <v>0.89209613580123</v>
-      </c>
-      <c r="BQ2">
-        <v>0.9361677821251776</v>
-      </c>
-      <c r="BR2">
-        <v>0.943225599399776</v>
-      </c>
-      <c r="BS2">
-        <v>0.94623433762656</v>
-      </c>
-      <c r="BT2">
-        <v>0.9613310440911236</v>
-      </c>
-      <c r="BU2">
-        <v>0.9613359146351751</v>
-      </c>
-      <c r="BV2">
-        <v>0.9755385445396654</v>
-      </c>
-      <c r="BW2">
-        <v>0.9973276644552846</v>
-      </c>
-      <c r="BX2">
-        <v>1</v>
-      </c>
-      <c r="BY2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:77">
-      <c r="A3" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="B3">
         <v>0</v>
       </c>
@@ -3744,46 +3702,46 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.04052625656408599</v>
       </c>
       <c r="E3">
-        <v>0.04052625656408599</v>
+        <v>0.1241915523375813</v>
       </c>
       <c r="F3">
-        <v>0.1241915523375813</v>
+        <v>0.364663078668623</v>
       </c>
       <c r="G3">
-        <v>0.364663078668623</v>
+        <v>0.3679242144097074</v>
       </c>
       <c r="H3">
-        <v>0.3679242144097074</v>
+        <v>0.3921964349703063</v>
       </c>
       <c r="I3">
-        <v>0.3921964349703063</v>
+        <v>0.4525306394186755</v>
       </c>
       <c r="J3">
-        <v>0.4525306394186755</v>
+        <v>0.4782450913355379</v>
       </c>
       <c r="K3">
-        <v>0.4782450913355379</v>
+        <v>0.4997800714568008</v>
       </c>
       <c r="L3">
-        <v>0.4997800714568008</v>
+        <v>0.6318194952982488</v>
       </c>
       <c r="M3">
-        <v>0.6318194952982488</v>
+        <v>0.7717387612516016</v>
       </c>
       <c r="N3">
-        <v>0.7717387612516016</v>
+        <v>0.7872506441645373</v>
       </c>
       <c r="O3">
         <v>0.7872506441645373</v>
       </c>
       <c r="P3">
-        <v>0.7872506441645373</v>
+        <v>0.7937668232641293</v>
       </c>
       <c r="Q3">
-        <v>0.7937668232641293</v>
+        <v>0.8085867062719022</v>
       </c>
       <c r="R3">
         <v>0.8085867062719022</v>
@@ -3792,19 +3750,19 @@
         <v>0.8085867062719022</v>
       </c>
       <c r="T3">
-        <v>0.8085867062719022</v>
+        <v>0.8370248777091358</v>
       </c>
       <c r="U3">
-        <v>0.8370248777091358</v>
+        <v>0.8423363849234882</v>
       </c>
       <c r="V3">
-        <v>0.8423363849234882</v>
+        <v>0.8523530598419903</v>
       </c>
       <c r="W3">
-        <v>0.8523530598419903</v>
+        <v>0.91286279485097</v>
       </c>
       <c r="X3">
-        <v>0.91286279485097</v>
+        <v>0.9288449593979676</v>
       </c>
       <c r="Y3">
         <v>0.9288449593979676</v>
@@ -3813,31 +3771,31 @@
         <v>0.9288449593979676</v>
       </c>
       <c r="AA3">
-        <v>0.9288449593979676</v>
+        <v>0.9297930078124412</v>
       </c>
       <c r="AB3">
-        <v>0.9297930078124412</v>
+        <v>0.9568412988811965</v>
       </c>
       <c r="AC3">
-        <v>0.9568412988811965</v>
+        <v>0.9609712490628239</v>
       </c>
       <c r="AD3">
-        <v>0.9609712490628239</v>
+        <v>0.9636483059045463</v>
       </c>
       <c r="AE3">
-        <v>0.9636483059045463</v>
+        <v>0.9667490337484572</v>
       </c>
       <c r="AF3">
         <v>0.9667490337484572</v>
       </c>
       <c r="AG3">
-        <v>0.9667490337484572</v>
+        <v>0.9832862850908057</v>
       </c>
       <c r="AH3">
-        <v>0.9832862850908057</v>
+        <v>0.9976963063558133</v>
       </c>
       <c r="AI3">
-        <v>0.9976963063558133</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ3">
         <v>0.9999999999999998</v>
@@ -3962,13 +3920,10 @@
       <c r="BX3">
         <v>0.9999999999999998</v>
       </c>
-      <c r="BY3">
-        <v>0.9999999999999998</v>
-      </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:76">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3977,46 +3932,46 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1157678671924923</v>
       </c>
       <c r="E4">
         <v>0.1157678671924923</v>
       </c>
       <c r="F4">
-        <v>0.1157678671924923</v>
+        <v>0.4337212551762744</v>
       </c>
       <c r="G4">
-        <v>0.4337212551762744</v>
+        <v>0.4486012958027004</v>
       </c>
       <c r="H4">
-        <v>0.4486012958027004</v>
+        <v>0.5205550706043682</v>
       </c>
       <c r="I4">
-        <v>0.5205550706043682</v>
+        <v>0.5425995043921664</v>
       </c>
       <c r="J4">
-        <v>0.5425995043921664</v>
+        <v>0.5477090365242262</v>
       </c>
       <c r="K4">
-        <v>0.5477090365242262</v>
+        <v>0.5804643427270668</v>
       </c>
       <c r="L4">
-        <v>0.5804643427270668</v>
+        <v>0.6758018740300407</v>
       </c>
       <c r="M4">
-        <v>0.6758018740300407</v>
+        <v>0.7691740821290167</v>
       </c>
       <c r="N4">
-        <v>0.7691740821290167</v>
+        <v>0.8025267982525466</v>
       </c>
       <c r="O4">
         <v>0.8025267982525466</v>
       </c>
       <c r="P4">
-        <v>0.8025267982525466</v>
+        <v>0.8039655045804113</v>
       </c>
       <c r="Q4">
-        <v>0.8039655045804113</v>
+        <v>0.8101874648657428</v>
       </c>
       <c r="R4">
         <v>0.8101874648657428</v>
@@ -4025,19 +3980,19 @@
         <v>0.8101874648657428</v>
       </c>
       <c r="T4">
-        <v>0.8101874648657428</v>
+        <v>0.834272288284619</v>
       </c>
       <c r="U4">
-        <v>0.834272288284619</v>
+        <v>0.8379155993908552</v>
       </c>
       <c r="V4">
         <v>0.8379155993908552</v>
       </c>
       <c r="W4">
-        <v>0.8379155993908552</v>
+        <v>0.885396955053966</v>
       </c>
       <c r="X4">
-        <v>0.885396955053966</v>
+        <v>0.891691941034304</v>
       </c>
       <c r="Y4">
         <v>0.891691941034304</v>
@@ -4046,16 +4001,16 @@
         <v>0.891691941034304</v>
       </c>
       <c r="AA4">
-        <v>0.891691941034304</v>
+        <v>0.9108006784368811</v>
       </c>
       <c r="AB4">
-        <v>0.9108006784368811</v>
+        <v>0.9721331370880376</v>
       </c>
       <c r="AC4">
-        <v>0.9721331370880376</v>
+        <v>0.9756858856753512</v>
       </c>
       <c r="AD4">
-        <v>0.9756858856753512</v>
+        <v>0.9813304629107714</v>
       </c>
       <c r="AE4">
         <v>0.9813304629107714</v>
@@ -4064,10 +4019,10 @@
         <v>0.9813304629107714</v>
       </c>
       <c r="AG4">
-        <v>0.9813304629107714</v>
+        <v>0.9955814214396724</v>
       </c>
       <c r="AH4">
-        <v>0.9955814214396724</v>
+        <v>1</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -4195,713 +4150,701 @@
       <c r="BX4">
         <v>1</v>
       </c>
-      <c r="BY4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:76">
       <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0.2787730009420327</v>
+      </c>
+      <c r="AT5">
+        <v>0.3662938539655077</v>
+      </c>
+      <c r="AU5">
+        <v>0.4592438866052287</v>
+      </c>
+      <c r="AV5">
+        <v>0.4614894404903017</v>
+      </c>
+      <c r="AW5">
+        <v>0.5295898795761428</v>
+      </c>
+      <c r="AX5">
+        <v>0.5296543912594857</v>
+      </c>
+      <c r="AY5">
+        <v>0.5655270835219383</v>
+      </c>
+      <c r="AZ5">
+        <v>0.5967464074708424</v>
+      </c>
+      <c r="BA5">
+        <v>0.6738374551954658</v>
+      </c>
+      <c r="BB5">
+        <v>0.7385924891951676</v>
+      </c>
+      <c r="BC5">
+        <v>0.738931303408808</v>
+      </c>
+      <c r="BD5">
+        <v>0.7443670477593968</v>
+      </c>
+      <c r="BE5">
+        <v>0.7547975520910957</v>
+      </c>
+      <c r="BF5">
+        <v>0.7753161532473997</v>
+      </c>
+      <c r="BG5">
+        <v>0.7771935930293148</v>
+      </c>
+      <c r="BH5">
+        <v>0.780119227052983</v>
+      </c>
+      <c r="BI5">
+        <v>0.8186000346355976</v>
+      </c>
+      <c r="BJ5">
+        <v>0.8242323184539112</v>
+      </c>
+      <c r="BK5">
+        <v>0.8407037776716229</v>
+      </c>
+      <c r="BL5">
+        <v>0.8839502913070745</v>
+      </c>
+      <c r="BM5">
+        <v>0.8843892100381644</v>
+      </c>
+      <c r="BN5">
+        <v>0.8868092161826379</v>
+      </c>
+      <c r="BO5">
+        <v>0.8875730789974861</v>
+      </c>
+      <c r="BP5">
+        <v>0.9208343849658852</v>
+      </c>
+      <c r="BQ5">
+        <v>0.9513123788222601</v>
+      </c>
+      <c r="BR5">
+        <v>0.9526848177228971</v>
+      </c>
+      <c r="BS5">
+        <v>0.9689958928826479</v>
+      </c>
+      <c r="BT5">
+        <v>0.969150798767439</v>
+      </c>
+      <c r="BU5">
+        <v>0.9714118311704849</v>
+      </c>
+      <c r="BV5">
+        <v>0.9935877698681556</v>
+      </c>
+      <c r="BW5">
+        <v>0.9997168800732197</v>
+      </c>
+      <c r="BX5">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:76">
+      <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0.2787730009420327</v>
-      </c>
-      <c r="AU5">
-        <v>0.3662938539655077</v>
-      </c>
-      <c r="AV5">
-        <v>0.4592438866052287</v>
-      </c>
-      <c r="AW5">
-        <v>0.4614894404903017</v>
-      </c>
-      <c r="AX5">
-        <v>0.5295898795761428</v>
-      </c>
-      <c r="AY5">
-        <v>0.5296543912594857</v>
-      </c>
-      <c r="AZ5">
-        <v>0.5655270835219383</v>
-      </c>
-      <c r="BA5">
-        <v>0.5967464074708424</v>
-      </c>
-      <c r="BB5">
-        <v>0.6738374551954658</v>
-      </c>
-      <c r="BC5">
-        <v>0.7385924891951676</v>
-      </c>
-      <c r="BD5">
-        <v>0.738931303408808</v>
-      </c>
-      <c r="BE5">
-        <v>0.7443670477593968</v>
-      </c>
-      <c r="BF5">
-        <v>0.7547975520910957</v>
-      </c>
-      <c r="BG5">
-        <v>0.7753161532473997</v>
-      </c>
-      <c r="BH5">
-        <v>0.7771935930293148</v>
-      </c>
-      <c r="BI5">
-        <v>0.780119227052983</v>
-      </c>
-      <c r="BJ5">
-        <v>0.8186000346355976</v>
-      </c>
-      <c r="BK5">
-        <v>0.8242323184539112</v>
-      </c>
-      <c r="BL5">
-        <v>0.8407037776716229</v>
-      </c>
-      <c r="BM5">
-        <v>0.8839502913070745</v>
-      </c>
-      <c r="BN5">
-        <v>0.8843892100381644</v>
-      </c>
-      <c r="BO5">
-        <v>0.8868092161826379</v>
-      </c>
-      <c r="BP5">
-        <v>0.8875730789974861</v>
-      </c>
-      <c r="BQ5">
-        <v>0.9208343849658852</v>
-      </c>
-      <c r="BR5">
-        <v>0.9513123788222601</v>
-      </c>
-      <c r="BS5">
-        <v>0.9526848177228971</v>
-      </c>
-      <c r="BT5">
-        <v>0.9689958928826479</v>
-      </c>
-      <c r="BU5">
-        <v>0.969150798767439</v>
-      </c>
-      <c r="BV5">
-        <v>0.9714118311704849</v>
-      </c>
-      <c r="BW5">
-        <v>0.9935877698681556</v>
-      </c>
-      <c r="BX5">
-        <v>0.9997168800732197</v>
-      </c>
-      <c r="BY5">
-        <v>0.9999999999999999</v>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.2223568659173052</v>
+      </c>
+      <c r="E6">
+        <v>0.4360962037181881</v>
+      </c>
+      <c r="F6">
+        <v>0.4725843436028432</v>
+      </c>
+      <c r="G6">
+        <v>0.520452315830365</v>
+      </c>
+      <c r="H6">
+        <v>0.5752152106089858</v>
+      </c>
+      <c r="I6">
+        <v>0.5752152106089858</v>
+      </c>
+      <c r="J6">
+        <v>0.5752152106089858</v>
+      </c>
+      <c r="K6">
+        <v>0.7472692069125444</v>
+      </c>
+      <c r="L6">
+        <v>0.8568152886058135</v>
+      </c>
+      <c r="M6">
+        <v>0.8664703183638262</v>
+      </c>
+      <c r="N6">
+        <v>0.8690356117569601</v>
+      </c>
+      <c r="O6">
+        <v>0.8690356117569601</v>
+      </c>
+      <c r="P6">
+        <v>0.876128443882173</v>
+      </c>
+      <c r="Q6">
+        <v>0.876128443882173</v>
+      </c>
+      <c r="R6">
+        <v>0.876128443882173</v>
+      </c>
+      <c r="S6">
+        <v>0.876128443882173</v>
+      </c>
+      <c r="T6">
+        <v>0.8795395656468239</v>
+      </c>
+      <c r="U6">
+        <v>0.8817847571579628</v>
+      </c>
+      <c r="V6">
+        <v>0.8970848226850362</v>
+      </c>
+      <c r="W6">
+        <v>0.9100473397778229</v>
+      </c>
+      <c r="X6">
+        <v>0.9100473397778229</v>
+      </c>
+      <c r="Y6">
+        <v>0.9114284875005185</v>
+      </c>
+      <c r="Z6">
+        <v>0.9146497167927011</v>
+      </c>
+      <c r="AA6">
+        <v>0.952171136388529</v>
+      </c>
+      <c r="AB6">
+        <v>0.9979164075295519</v>
+      </c>
+      <c r="AC6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AD6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AE6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AF6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AG6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AH6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AI6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AJ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AK6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AL6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AM6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AN6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AO6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AP6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AQ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AR6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AS6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AT6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AU6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AV6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AW6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AX6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AY6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AZ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BA6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BB6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BC6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BD6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BE6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BF6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BG6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BH6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BI6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BJ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BK6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BL6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BM6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BN6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BO6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BP6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BR6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BS6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BT6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BU6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BV6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BW6">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BX6">
+        <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:76">
+      <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.2305718742705234</v>
-      </c>
-      <c r="F6">
-        <v>0.4521035492897134</v>
-      </c>
-      <c r="G6">
-        <v>0.4876902381072797</v>
-      </c>
-      <c r="H6">
-        <v>0.5352149154566428</v>
-      </c>
-      <c r="I6">
-        <v>0.5899726964109322</v>
-      </c>
-      <c r="J6">
-        <v>0.5899726964109322</v>
-      </c>
-      <c r="K6">
-        <v>0.5899726964109322</v>
-      </c>
-      <c r="L6">
-        <v>0.7677744539985158</v>
-      </c>
-      <c r="M6">
-        <v>0.8800024188199949</v>
-      </c>
-      <c r="N6">
-        <v>0.8874398914353482</v>
-      </c>
-      <c r="O6">
-        <v>0.8874398914353482</v>
-      </c>
-      <c r="P6">
-        <v>0.8874398914353482</v>
-      </c>
-      <c r="Q6">
-        <v>0.8921894961599471</v>
-      </c>
-      <c r="R6">
-        <v>0.8921894961599471</v>
-      </c>
-      <c r="S6">
-        <v>0.8921894961599471</v>
-      </c>
-      <c r="T6">
-        <v>0.8921894961599471</v>
-      </c>
-      <c r="U6">
-        <v>0.8930768105855736</v>
-      </c>
-      <c r="V6">
-        <v>0.8930768105855736</v>
-      </c>
-      <c r="W6">
-        <v>0.9064361957776857</v>
-      </c>
-      <c r="X6">
-        <v>0.9173433808353622</v>
-      </c>
-      <c r="Y6">
-        <v>0.9173433808353622</v>
-      </c>
-      <c r="Z6">
-        <v>0.9173433808353622</v>
-      </c>
-      <c r="AA6">
-        <v>0.9180314889730312</v>
-      </c>
-      <c r="AB6">
-        <v>0.9547021376390792</v>
-      </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-      <c r="AL6">
-        <v>1</v>
-      </c>
-      <c r="AM6">
-        <v>1</v>
-      </c>
-      <c r="AN6">
-        <v>1</v>
-      </c>
-      <c r="AO6">
-        <v>1</v>
-      </c>
-      <c r="AP6">
-        <v>1</v>
-      </c>
-      <c r="AQ6">
-        <v>1</v>
-      </c>
-      <c r="AR6">
-        <v>1</v>
-      </c>
-      <c r="AS6">
-        <v>1</v>
-      </c>
-      <c r="AT6">
-        <v>1</v>
-      </c>
-      <c r="AU6">
-        <v>1</v>
-      </c>
-      <c r="AV6">
-        <v>1</v>
-      </c>
-      <c r="AW6">
-        <v>1</v>
-      </c>
-      <c r="AX6">
-        <v>1</v>
-      </c>
-      <c r="AY6">
-        <v>1</v>
-      </c>
-      <c r="AZ6">
-        <v>1</v>
-      </c>
-      <c r="BA6">
-        <v>1</v>
-      </c>
-      <c r="BB6">
-        <v>1</v>
-      </c>
-      <c r="BC6">
-        <v>1</v>
-      </c>
-      <c r="BD6">
-        <v>1</v>
-      </c>
-      <c r="BE6">
-        <v>1</v>
-      </c>
-      <c r="BF6">
-        <v>1</v>
-      </c>
-      <c r="BG6">
-        <v>1</v>
-      </c>
-      <c r="BH6">
-        <v>1</v>
-      </c>
-      <c r="BI6">
-        <v>1</v>
-      </c>
-      <c r="BJ6">
-        <v>1</v>
-      </c>
-      <c r="BK6">
-        <v>1</v>
-      </c>
-      <c r="BL6">
-        <v>1</v>
-      </c>
-      <c r="BM6">
-        <v>1</v>
-      </c>
-      <c r="BN6">
-        <v>1</v>
-      </c>
-      <c r="BO6">
-        <v>1</v>
-      </c>
-      <c r="BP6">
-        <v>1</v>
-      </c>
-      <c r="BQ6">
-        <v>1</v>
-      </c>
-      <c r="BR6">
-        <v>1</v>
-      </c>
-      <c r="BS6">
-        <v>1</v>
-      </c>
-      <c r="BT6">
-        <v>1</v>
-      </c>
-      <c r="BU6">
-        <v>1</v>
-      </c>
-      <c r="BV6">
-        <v>1</v>
-      </c>
-      <c r="BW6">
-        <v>1</v>
-      </c>
-      <c r="BX6">
-        <v>1</v>
-      </c>
-      <c r="BY6">
-        <v>1</v>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.1463705708176828</v>
+      </c>
+      <c r="E7">
+        <v>0.1463705708176828</v>
+      </c>
+      <c r="F7">
+        <v>0.3041152442521557</v>
+      </c>
+      <c r="G7">
+        <v>0.3219079780003569</v>
+      </c>
+      <c r="H7">
+        <v>0.4243869821873097</v>
+      </c>
+      <c r="I7">
+        <v>0.4304336001090557</v>
+      </c>
+      <c r="J7">
+        <v>0.4586149243561476</v>
+      </c>
+      <c r="K7">
+        <v>0.4707869823799068</v>
+      </c>
+      <c r="L7">
+        <v>0.7180482284070699</v>
+      </c>
+      <c r="M7">
+        <v>0.7648381413480454</v>
+      </c>
+      <c r="N7">
+        <v>0.8088794894822918</v>
+      </c>
+      <c r="O7">
+        <v>0.8181162445424418</v>
+      </c>
+      <c r="P7">
+        <v>0.8480305220532393</v>
+      </c>
+      <c r="Q7">
+        <v>0.8480305220532393</v>
+      </c>
+      <c r="R7">
+        <v>0.8480305220532393</v>
+      </c>
+      <c r="S7">
+        <v>0.8502585448939282</v>
+      </c>
+      <c r="T7">
+        <v>0.8525800017582139</v>
+      </c>
+      <c r="U7">
+        <v>0.8525800017582139</v>
+      </c>
+      <c r="V7">
+        <v>0.8929054188079887</v>
+      </c>
+      <c r="W7">
+        <v>0.9265656390094594</v>
+      </c>
+      <c r="X7">
+        <v>0.9345751658816416</v>
+      </c>
+      <c r="Y7">
+        <v>0.9361183902435795</v>
+      </c>
+      <c r="Z7">
+        <v>0.9435189970453023</v>
+      </c>
+      <c r="AA7">
+        <v>0.9558671136280411</v>
+      </c>
+      <c r="AB7">
+        <v>0.9751162547682813</v>
+      </c>
+      <c r="AC7">
+        <v>0.983157749362107</v>
+      </c>
+      <c r="AD7">
+        <v>0.9949606697353391</v>
+      </c>
+      <c r="AE7">
+        <v>0.9949606697353391</v>
+      </c>
+      <c r="AF7">
+        <v>0.9949606697353391</v>
+      </c>
+      <c r="AG7">
+        <v>0.9989199188704104</v>
+      </c>
+      <c r="AH7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AI7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AJ7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AK7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AL7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AM7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AN7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AO7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AP7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AQ7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AR7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AS7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AT7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AU7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AV7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AW7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AX7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AY7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AZ7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BA7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BB7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BC7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BD7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BE7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BF7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BG7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BH7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BI7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BJ7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BK7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BL7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BM7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BN7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BO7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BP7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BQ7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BR7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BS7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BT7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BU7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BV7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BW7">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="BX7">
+        <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:76">
+      <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0.1523492728326145</v>
-      </c>
-      <c r="F7">
-        <v>0.1523492728326145</v>
-      </c>
-      <c r="G7">
-        <v>0.3167202303593838</v>
-      </c>
-      <c r="H7">
-        <v>0.333171114722742</v>
-      </c>
-      <c r="I7">
-        <v>0.439129864052586</v>
-      </c>
-      <c r="J7">
-        <v>0.4431658700203319</v>
-      </c>
-      <c r="K7">
-        <v>0.4705968170402378</v>
-      </c>
-      <c r="L7">
-        <v>0.4811070137200167</v>
-      </c>
-      <c r="M7">
-        <v>0.7400911505777147</v>
-      </c>
-      <c r="N7">
-        <v>0.7871901622720903</v>
-      </c>
-      <c r="O7">
-        <v>0.8313841202157488</v>
-      </c>
-      <c r="P7">
-        <v>0.8387918930912764</v>
-      </c>
-      <c r="Q7">
-        <v>0.8680544586948956</v>
-      </c>
-      <c r="R7">
-        <v>0.8680544586948956</v>
-      </c>
-      <c r="S7">
-        <v>0.8680544586948956</v>
-      </c>
-      <c r="T7">
-        <v>0.8680544586948956</v>
-      </c>
-      <c r="U7">
-        <v>0.868153212364458</v>
-      </c>
-      <c r="V7">
-        <v>0.868153212364458</v>
-      </c>
-      <c r="W7">
-        <v>0.9084196734894414</v>
-      </c>
-      <c r="X7">
-        <v>0.9416414562222584</v>
-      </c>
-      <c r="Y7">
-        <v>0.9477521289378358</v>
-      </c>
-      <c r="Z7">
-        <v>0.9477521289378358</v>
-      </c>
-      <c r="AA7">
-        <v>0.9532192128501789</v>
-      </c>
-      <c r="AB7">
-        <v>0.9639154919449904</v>
-      </c>
-      <c r="AC7">
-        <v>0.9819057039408852</v>
-      </c>
-      <c r="AD7">
-        <v>0.9880501644534375</v>
-      </c>
-      <c r="AE7">
-        <v>0.9981702067102358</v>
-      </c>
-      <c r="AF7">
-        <v>0.9981702067102358</v>
-      </c>
-      <c r="AG7">
-        <v>0.9981702067102358</v>
-      </c>
-      <c r="AH7">
-        <v>1</v>
-      </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
-      <c r="AM7">
-        <v>1</v>
-      </c>
-      <c r="AN7">
-        <v>1</v>
-      </c>
-      <c r="AO7">
-        <v>1</v>
-      </c>
-      <c r="AP7">
-        <v>1</v>
-      </c>
-      <c r="AQ7">
-        <v>1</v>
-      </c>
-      <c r="AR7">
-        <v>1</v>
-      </c>
-      <c r="AS7">
-        <v>1</v>
-      </c>
-      <c r="AT7">
-        <v>1</v>
-      </c>
-      <c r="AU7">
-        <v>1</v>
-      </c>
-      <c r="AV7">
-        <v>1</v>
-      </c>
-      <c r="AW7">
-        <v>1</v>
-      </c>
-      <c r="AX7">
-        <v>1</v>
-      </c>
-      <c r="AY7">
-        <v>1</v>
-      </c>
-      <c r="AZ7">
-        <v>1</v>
-      </c>
-      <c r="BA7">
-        <v>1</v>
-      </c>
-      <c r="BB7">
-        <v>1</v>
-      </c>
-      <c r="BC7">
-        <v>1</v>
-      </c>
-      <c r="BD7">
-        <v>1</v>
-      </c>
-      <c r="BE7">
-        <v>1</v>
-      </c>
-      <c r="BF7">
-        <v>1</v>
-      </c>
-      <c r="BG7">
-        <v>1</v>
-      </c>
-      <c r="BH7">
-        <v>1</v>
-      </c>
-      <c r="BI7">
-        <v>1</v>
-      </c>
-      <c r="BJ7">
-        <v>1</v>
-      </c>
-      <c r="BK7">
-        <v>1</v>
-      </c>
-      <c r="BL7">
-        <v>1</v>
-      </c>
-      <c r="BM7">
-        <v>1</v>
-      </c>
-      <c r="BN7">
-        <v>1</v>
-      </c>
-      <c r="BO7">
-        <v>1</v>
-      </c>
-      <c r="BP7">
-        <v>1</v>
-      </c>
-      <c r="BQ7">
-        <v>1</v>
-      </c>
-      <c r="BR7">
-        <v>1</v>
-      </c>
-      <c r="BS7">
-        <v>1</v>
-      </c>
-      <c r="BT7">
-        <v>1</v>
-      </c>
-      <c r="BU7">
-        <v>1</v>
-      </c>
-      <c r="BV7">
-        <v>1</v>
-      </c>
-      <c r="BW7">
-        <v>1</v>
-      </c>
-      <c r="BX7">
-        <v>1</v>
-      </c>
-      <c r="BY7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:77">
-      <c r="A8" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="B8">
         <v>0</v>
       </c>
@@ -4909,46 +4852,46 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.1232970991584282</v>
       </c>
       <c r="E8">
-        <v>0.1232970991584282</v>
+        <v>0.1333936372730114</v>
       </c>
       <c r="F8">
-        <v>0.1333936372730114</v>
+        <v>0.3655455995481652</v>
       </c>
       <c r="G8">
-        <v>0.3655455995481652</v>
+        <v>0.4198991273208894</v>
       </c>
       <c r="H8">
-        <v>0.4198991273208894</v>
+        <v>0.5229526029326476</v>
       </c>
       <c r="I8">
-        <v>0.5229526029326476</v>
+        <v>0.5417111025478162</v>
       </c>
       <c r="J8">
-        <v>0.5417111025478162</v>
+        <v>0.5498756332923712</v>
       </c>
       <c r="K8">
-        <v>0.5498756332923712</v>
+        <v>0.6171701781644379</v>
       </c>
       <c r="L8">
-        <v>0.6171701781644379</v>
+        <v>0.6801700165108377</v>
       </c>
       <c r="M8">
-        <v>0.6801700165108377</v>
+        <v>0.7164265560314025</v>
       </c>
       <c r="N8">
-        <v>0.7164265560314025</v>
+        <v>0.8273595011838741</v>
       </c>
       <c r="O8">
         <v>0.8273595011838741</v>
       </c>
       <c r="P8">
-        <v>0.8273595011838741</v>
+        <v>0.8320658930933992</v>
       </c>
       <c r="Q8">
-        <v>0.8320658930933992</v>
+        <v>0.8326981019585179</v>
       </c>
       <c r="R8">
         <v>0.8326981019585179</v>
@@ -4957,19 +4900,19 @@
         <v>0.8326981019585179</v>
       </c>
       <c r="T8">
-        <v>0.8326981019585179</v>
+        <v>0.8394378462816486</v>
       </c>
       <c r="U8">
         <v>0.8394378462816486</v>
       </c>
       <c r="V8">
-        <v>0.8394378462816486</v>
+        <v>0.8467091868713889</v>
       </c>
       <c r="W8">
-        <v>0.8467091868713889</v>
+        <v>0.8816897695217842</v>
       </c>
       <c r="X8">
-        <v>0.8816897695217842</v>
+        <v>0.8954859694501247</v>
       </c>
       <c r="Y8">
         <v>0.8954859694501247</v>
@@ -4978,19 +4921,19 @@
         <v>0.8954859694501247</v>
       </c>
       <c r="AA8">
-        <v>0.8954859694501247</v>
+        <v>0.911394840663043</v>
       </c>
       <c r="AB8">
-        <v>0.911394840663043</v>
+        <v>0.9760345303965576</v>
       </c>
       <c r="AC8">
-        <v>0.9760345303965576</v>
+        <v>0.983051286853047</v>
       </c>
       <c r="AD8">
-        <v>0.983051286853047</v>
+        <v>0.9931478249676302</v>
       </c>
       <c r="AE8">
-        <v>0.9931478249676302</v>
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -5127,13 +5070,10 @@
       <c r="BX8">
         <v>1</v>
       </c>
-      <c r="BY8">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:76">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5142,37 +5082,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2657680907466968</v>
       </c>
       <c r="E9">
-        <v>0.2657680907466968</v>
+        <v>0.3841207603085853</v>
       </c>
       <c r="F9">
-        <v>0.3841207603085853</v>
+        <v>0.4447667556161989</v>
       </c>
       <c r="G9">
-        <v>0.4447667556161989</v>
+        <v>0.4879111288086606</v>
       </c>
       <c r="H9">
-        <v>0.4879111288086606</v>
+        <v>0.5472630725283574</v>
       </c>
       <c r="I9">
         <v>0.5472630725283574</v>
       </c>
       <c r="J9">
-        <v>0.5472630725283574</v>
+        <v>0.571616905654193</v>
       </c>
       <c r="K9">
-        <v>0.571616905654193</v>
+        <v>0.6326753732210326</v>
       </c>
       <c r="L9">
-        <v>0.6326753732210326</v>
+        <v>0.6893997331551207</v>
       </c>
       <c r="M9">
-        <v>0.6893997331551207</v>
+        <v>0.7635057620380773</v>
       </c>
       <c r="N9">
-        <v>0.7635057620380773</v>
+        <v>0.8069335827951495</v>
       </c>
       <c r="O9">
         <v>0.8069335827951495</v>
@@ -5181,25 +5121,25 @@
         <v>0.8069335827951495</v>
       </c>
       <c r="Q9">
-        <v>0.8069335827951495</v>
+        <v>0.8079371666407517</v>
       </c>
       <c r="R9">
         <v>0.8079371666407517</v>
       </c>
       <c r="S9">
-        <v>0.8079371666407517</v>
+        <v>0.8097241718108587</v>
       </c>
       <c r="T9">
-        <v>0.8097241718108587</v>
+        <v>0.8139571387405456</v>
       </c>
       <c r="U9">
-        <v>0.8139571387405456</v>
+        <v>0.8146825825844607</v>
       </c>
       <c r="V9">
-        <v>0.8146825825844607</v>
+        <v>0.8487987091900372</v>
       </c>
       <c r="W9">
-        <v>0.8487987091900372</v>
+        <v>0.8821663523035534</v>
       </c>
       <c r="X9">
         <v>0.8821663523035534</v>
@@ -5208,19 +5148,19 @@
         <v>0.8821663523035534</v>
       </c>
       <c r="Z9">
-        <v>0.8821663523035534</v>
+        <v>0.8881940473001384</v>
       </c>
       <c r="AA9">
-        <v>0.8881940473001384</v>
+        <v>0.9308354643844854</v>
       </c>
       <c r="AB9">
-        <v>0.9308354643844854</v>
+        <v>0.9646846383884481</v>
       </c>
       <c r="AC9">
-        <v>0.9646846383884481</v>
+        <v>0.9677830436115933</v>
       </c>
       <c r="AD9">
-        <v>0.9677830436115933</v>
+        <v>0.9953590751851012</v>
       </c>
       <c r="AE9">
         <v>0.9953590751851012</v>
@@ -5235,7 +5175,7 @@
         <v>0.9953590751851012</v>
       </c>
       <c r="AI9">
-        <v>0.9953590751851012</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
         <v>1</v>
@@ -5360,13 +5300,10 @@
       <c r="BX9">
         <v>1</v>
       </c>
-      <c r="BY9">
-        <v>1</v>
-      </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:76">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5375,37 +5312,37 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.2832258276636156</v>
       </c>
       <c r="E10">
-        <v>0.2832258276636156</v>
+        <v>0.2916541720716873</v>
       </c>
       <c r="F10">
-        <v>0.2916541720716873</v>
+        <v>0.4259352112355231</v>
       </c>
       <c r="G10">
-        <v>0.4259352112355231</v>
+        <v>0.4495494460969257</v>
       </c>
       <c r="H10">
-        <v>0.4495494460969257</v>
+        <v>0.5156102843689161</v>
       </c>
       <c r="I10">
         <v>0.5156102843689161</v>
       </c>
       <c r="J10">
-        <v>0.5156102843689161</v>
+        <v>0.5520194090381035</v>
       </c>
       <c r="K10">
-        <v>0.5520194090381035</v>
+        <v>0.59215944065668</v>
       </c>
       <c r="L10">
-        <v>0.59215944065668</v>
+        <v>0.6505839096568602</v>
       </c>
       <c r="M10">
-        <v>0.6505839096568602</v>
+        <v>0.7132813815334255</v>
       </c>
       <c r="N10">
-        <v>0.7132813815334255</v>
+        <v>0.7974215022761302</v>
       </c>
       <c r="O10">
         <v>0.7974215022761302</v>
@@ -5414,7 +5351,7 @@
         <v>0.7974215022761302</v>
       </c>
       <c r="Q10">
-        <v>0.7974215022761302</v>
+        <v>0.802413848242796</v>
       </c>
       <c r="R10">
         <v>0.802413848242796</v>
@@ -5423,16 +5360,16 @@
         <v>0.802413848242796</v>
       </c>
       <c r="T10">
-        <v>0.802413848242796</v>
+        <v>0.8094486062868338</v>
       </c>
       <c r="U10">
         <v>0.8094486062868338</v>
       </c>
       <c r="V10">
-        <v>0.8094486062868338</v>
+        <v>0.8283679890541548</v>
       </c>
       <c r="W10">
-        <v>0.8283679890541548</v>
+        <v>0.884396825297212</v>
       </c>
       <c r="X10">
         <v>0.884396825297212</v>
@@ -5444,16 +5381,16 @@
         <v>0.884396825297212</v>
       </c>
       <c r="AA10">
-        <v>0.884396825297212</v>
+        <v>0.9151472245433085</v>
       </c>
       <c r="AB10">
-        <v>0.9151472245433085</v>
+        <v>0.9724465407925036</v>
       </c>
       <c r="AC10">
         <v>0.9724465407925036</v>
       </c>
       <c r="AD10">
-        <v>0.9724465407925036</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <v>1</v>
@@ -5593,13 +5530,10 @@
       <c r="BX10">
         <v>1</v>
       </c>
-      <c r="BY10">
-        <v>1</v>
-      </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:76">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -5608,37 +5542,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2463267421964772</v>
       </c>
       <c r="E11">
         <v>0.2463267421964772</v>
       </c>
       <c r="F11">
-        <v>0.2463267421964772</v>
+        <v>0.4426458183739752</v>
       </c>
       <c r="G11">
-        <v>0.4426458183739752</v>
+        <v>0.4460432817217685</v>
       </c>
       <c r="H11">
-        <v>0.4460432817217685</v>
+        <v>0.5093505163558241</v>
       </c>
       <c r="I11">
         <v>0.5093505163558241</v>
       </c>
       <c r="J11">
-        <v>0.5093505163558241</v>
+        <v>0.5235822845602047</v>
       </c>
       <c r="K11">
-        <v>0.5235822845602047</v>
+        <v>0.6156839255180606</v>
       </c>
       <c r="L11">
-        <v>0.6156839255180606</v>
+        <v>0.6779010005471757</v>
       </c>
       <c r="M11">
-        <v>0.6779010005471757</v>
+        <v>0.7121308685804248</v>
       </c>
       <c r="N11">
-        <v>0.7121308685804248</v>
+        <v>0.8286928065046736</v>
       </c>
       <c r="O11">
         <v>0.8286928065046736</v>
@@ -5650,25 +5584,25 @@
         <v>0.8286928065046736</v>
       </c>
       <c r="R11">
-        <v>0.8286928065046736</v>
+        <v>0.8330034836596932</v>
       </c>
       <c r="S11">
         <v>0.8330034836596932</v>
       </c>
       <c r="T11">
-        <v>0.8330034836596932</v>
+        <v>0.8422290417896336</v>
       </c>
       <c r="U11">
         <v>0.8422290417896336</v>
       </c>
       <c r="V11">
-        <v>0.8422290417896336</v>
+        <v>0.8581616837569523</v>
       </c>
       <c r="W11">
-        <v>0.8581616837569523</v>
+        <v>0.9161984845585815</v>
       </c>
       <c r="X11">
-        <v>0.9161984845585815</v>
+        <v>0.9234522499716908</v>
       </c>
       <c r="Y11">
         <v>0.9234522499716908</v>
@@ -5677,16 +5611,16 @@
         <v>0.9234522499716908</v>
       </c>
       <c r="AA11">
-        <v>0.9234522499716908</v>
+        <v>0.9307630155039848</v>
       </c>
       <c r="AB11">
-        <v>0.9307630155039848</v>
+        <v>0.9876582259146681</v>
       </c>
       <c r="AC11">
         <v>0.9876582259146681</v>
       </c>
       <c r="AD11">
-        <v>0.9876582259146681</v>
+        <v>1</v>
       </c>
       <c r="AE11">
         <v>1</v>
@@ -5824,9 +5758,6 @@
         <v>1</v>
       </c>
       <c r="BX11">
-        <v>1</v>
-      </c>
-      <c r="BY11">
         <v>1</v>
       </c>
     </row>
@@ -5845,63 +5776,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.520400999941466</v>
+        <v>0.5185166898163041</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -5913,30 +5844,30 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" t="s">
         <v>99</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>100</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>101</v>
-      </c>
-      <c r="M2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5954,30 +5885,30 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" t="s">
         <v>99</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>100</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>101</v>
-      </c>
-      <c r="M3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5995,30 +5926,30 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" t="s">
         <v>99</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>100</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>101</v>
-      </c>
-      <c r="M4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6036,36 +5967,36 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s">
         <v>99</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>100</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>101</v>
-      </c>
-      <c r="M5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5352149154566428</v>
+        <v>0.520452315830365</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -6077,36 +6008,36 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" t="s">
         <v>99</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>100</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>101</v>
-      </c>
-      <c r="M6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7400911505777147</v>
+        <v>0.7180482284070699</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -6118,30 +6049,30 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
         <v>99</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>100</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>101</v>
-      </c>
-      <c r="M7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6159,30 +6090,30 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
         <v>99</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>100</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>101</v>
-      </c>
-      <c r="M8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6200,30 +6131,30 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
         <v>99</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>100</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>101</v>
-      </c>
-      <c r="M9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6241,30 +6172,30 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
         <v>99</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>100</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>101</v>
-      </c>
-      <c r="M10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -6282,16 +6213,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="s">
         <v>99</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>100</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>101</v>
-      </c>
-      <c r="M11" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6309,63 +6240,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.711319909299188</v>
+        <v>0.7099454307592599</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -6377,30 +6308,30 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" t="s">
         <v>99</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>100</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>101</v>
-      </c>
-      <c r="M2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6418,30 +6349,30 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" t="s">
         <v>99</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>100</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>101</v>
-      </c>
-      <c r="M3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6459,30 +6390,30 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" t="s">
         <v>99</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>100</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>101</v>
-      </c>
-      <c r="M4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6500,36 +6431,36 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s">
         <v>99</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>100</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>101</v>
-      </c>
-      <c r="M5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7677744539985158</v>
+        <v>0.7472692069125444</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -6541,36 +6472,36 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" t="s">
         <v>99</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>100</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>101</v>
-      </c>
-      <c r="M6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7400911505777147</v>
+        <v>0.7180482284070699</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -6582,30 +6513,30 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
         <v>99</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>100</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>101</v>
-      </c>
-      <c r="M7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -6623,30 +6554,30 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
         <v>99</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>100</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>101</v>
-      </c>
-      <c r="M8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -6664,30 +6595,30 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
         <v>99</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>100</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>101</v>
-      </c>
-      <c r="M9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -6705,30 +6636,30 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
         <v>99</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>100</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>101</v>
-      </c>
-      <c r="M10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -6746,16 +6677,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="s">
         <v>99</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>100</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>101</v>
-      </c>
-      <c r="M11" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6773,63 +6704,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8047661962154756</v>
+        <v>0.8036412574867322</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -6841,30 +6772,30 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" t="s">
         <v>99</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>100</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>101</v>
-      </c>
-      <c r="M2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -6882,30 +6813,30 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" t="s">
         <v>99</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>100</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>101</v>
-      </c>
-      <c r="M3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6923,30 +6854,30 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" t="s">
         <v>99</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>100</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>101</v>
-      </c>
-      <c r="M4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6964,36 +6895,36 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s">
         <v>99</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>100</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>101</v>
-      </c>
-      <c r="M5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8800024188199949</v>
+        <v>0.8568152886058135</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -7005,36 +6936,36 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" t="s">
         <v>99</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>100</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>101</v>
-      </c>
-      <c r="M6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8313841202157488</v>
+        <v>0.8088794894822918</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -7046,30 +6977,30 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
         <v>99</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>100</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>101</v>
-      </c>
-      <c r="M7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7087,30 +7018,30 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
         <v>99</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>100</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>101</v>
-      </c>
-      <c r="M8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7128,30 +7059,30 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
         <v>99</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>100</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>101</v>
-      </c>
-      <c r="M9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7169,30 +7100,30 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
         <v>99</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>100</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>101</v>
-      </c>
-      <c r="M10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -7210,16 +7141,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="s">
         <v>99</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>100</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>101</v>
-      </c>
-      <c r="M11" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -7237,63 +7168,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9361677821251776</v>
+        <v>0.9353937393819182</v>
       </c>
       <c r="G2">
         <v>25</v>
@@ -7305,30 +7236,30 @@
         <v>800</v>
       </c>
       <c r="J2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" t="s">
         <v>99</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>100</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>101</v>
-      </c>
-      <c r="M2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7346,30 +7277,30 @@
         <v>800</v>
       </c>
       <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" t="s">
         <v>99</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>100</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>101</v>
-      </c>
-      <c r="M3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7387,30 +7318,30 @@
         <v>800</v>
       </c>
       <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" t="s">
         <v>99</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>100</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>101</v>
-      </c>
-      <c r="M4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7428,27 +7359,27 @@
         <v>800</v>
       </c>
       <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s">
         <v>99</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>100</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>101</v>
-      </c>
-      <c r="M5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>22</v>
@@ -7457,10 +7388,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9064361957776857</v>
+        <v>0.9100473397778229</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -7469,27 +7400,27 @@
         <v>800</v>
       </c>
       <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" t="s">
         <v>99</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>100</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>101</v>
-      </c>
-      <c r="M6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>22</v>
@@ -7498,10 +7429,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9084196734894414</v>
+        <v>0.9265656390094594</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>11</v>
@@ -7510,30 +7441,30 @@
         <v>800</v>
       </c>
       <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
         <v>99</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>100</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>101</v>
-      </c>
-      <c r="M7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -7551,30 +7482,30 @@
         <v>800</v>
       </c>
       <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
         <v>99</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>100</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>101</v>
-      </c>
-      <c r="M8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7592,30 +7523,30 @@
         <v>800</v>
       </c>
       <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
         <v>99</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>100</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>101</v>
-      </c>
-      <c r="M9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7633,30 +7564,30 @@
         <v>800</v>
       </c>
       <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
         <v>99</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>100</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>101</v>
-      </c>
-      <c r="M10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -7674,16 +7605,16 @@
         <v>800</v>
       </c>
       <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="s">
         <v>99</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>100</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>101</v>
-      </c>
-      <c r="M11" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/11_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/11_225-80R17.xlsx
@@ -279,40 +279,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>225-80R17.5</t>
@@ -322,9 +325,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -1052,100 +1052,100 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.208281648147465</v>
+        <v>0.3645943188240445</v>
       </c>
       <c r="AT2">
-        <v>0.1552304553574616</v>
+        <v>0.2561021453498821</v>
       </c>
       <c r="AU2">
-        <v>0.02269772376617857</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.003096489997265502</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0710763448928079</v>
+        <v>0.08400304878036186</v>
       </c>
       <c r="AX2">
-        <v>0.01389255568539609</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.04424147196972943</v>
+        <v>0.02912447706092768</v>
       </c>
       <c r="AZ2">
-        <v>0.005126664836016516</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.1171656789300561</v>
+        <v>0.1782578951034398</v>
       </c>
       <c r="BB2">
-        <v>0.03397423881612971</v>
+        <v>0.008127504479947168</v>
       </c>
       <c r="BC2">
-        <v>0.01124111417744811</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0002225476012872567</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.02369849658201807</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.02359046524035983</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.008187956458864517</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0336466473070978</v>
+        <v>0.007457564503908597</v>
       </c>
       <c r="BI2">
-        <v>0.02827075772115033</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0004698076482176625</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.04834762458748661</v>
+        <v>0.03752175144230676</v>
       </c>
       <c r="BL2">
-        <v>0.03283291244898183</v>
+        <v>0.005793438614446477</v>
       </c>
       <c r="BM2">
-        <v>0.001041855192847344</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0003967520948963776</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.004474194275185149</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.04418933564757083</v>
+        <v>0.02901785584073522</v>
       </c>
       <c r="BQ2">
-        <v>0.007076664533790862</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.003016772788603263</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.01513702084627951</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>4.883550396467838E-06</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0142405567360601</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.02184730577884672</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.002679471773764719</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.000603584610340198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:76">
@@ -1159,46 +1159,46 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04052625656408599</v>
+        <v>0.01943779290042094</v>
       </c>
       <c r="E3">
-        <v>0.08366529577349531</v>
+        <v>0.09810129671326596</v>
       </c>
       <c r="F3">
-        <v>0.2404715263310417</v>
+        <v>0.3840355164223354</v>
       </c>
       <c r="G3">
-        <v>0.003261135741084349</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02427222056059897</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0603342044483692</v>
+        <v>0.05555734058798482</v>
       </c>
       <c r="J3">
-        <v>0.02571445191686244</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.02153498012126288</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.132039423841448</v>
+        <v>0.1863109202341916</v>
       </c>
       <c r="M3">
-        <v>0.1399192659533528</v>
+        <v>0.2006797147501168</v>
       </c>
       <c r="N3">
-        <v>0.01551188291293567</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.006516179099591981</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.01481988300777296</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1207,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.02843817143723357</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.005311507214352367</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.01001667491850214</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.06050973500897974</v>
+        <v>0.05587741839168441</v>
       </c>
       <c r="X3">
-        <v>0.0159821645469976</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1228,31 +1228,31 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0009480484144736437</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.02704829106875523</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.004129950181627483</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002677056841722378</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.003100727843910938</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.01653725134234855</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.01441002126500761</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.002303693644186531</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -1389,46 +1389,46 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1157678671924923</v>
+        <v>0.1425842951269239</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3179533879837821</v>
+        <v>0.4743884999966296</v>
       </c>
       <c r="G4">
-        <v>0.014880040626426</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07195377480166784</v>
+        <v>0.0706815197405886</v>
       </c>
       <c r="I4">
-        <v>0.02204443378779818</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.005109532132059742</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.03275530620284067</v>
+        <v>0.006353388553737144</v>
       </c>
       <c r="L4">
-        <v>0.0953375313029739</v>
+        <v>0.1090563187984889</v>
       </c>
       <c r="M4">
-        <v>0.09337220809897609</v>
+        <v>0.1058310507354627</v>
       </c>
       <c r="N4">
-        <v>0.03335271612352989</v>
+        <v>0.007333790725662096</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.001438706327864647</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.006221960285331556</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1437,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.02408482341887622</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.003643311106236277</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.04748135566311075</v>
+        <v>0.03052012963842993</v>
       </c>
       <c r="X4">
-        <v>0.006294985980338114</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1458,16 +1458,16 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.019108737402577</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.06133245865115657</v>
+        <v>0.0532510066840771</v>
       </c>
       <c r="AC4">
-        <v>0.003552748587313573</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.005644577235420277</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.01425095852890097</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.004418578560327661</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1742,100 +1742,100 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.2787730009420327</v>
+        <v>0.4768058580721947</v>
       </c>
       <c r="AT5">
-        <v>0.08752085302347494</v>
+        <v>0.1102462066986652</v>
       </c>
       <c r="AU5">
-        <v>0.09295003263972108</v>
+        <v>0.1206519365638425</v>
       </c>
       <c r="AV5">
-        <v>0.00224555388507296</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0681004390858411</v>
+        <v>0.07302445394982746</v>
       </c>
       <c r="AX5">
-        <v>6.451168334284681E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.03587269226245261</v>
+        <v>0.01125577961752018</v>
       </c>
       <c r="AZ5">
-        <v>0.0312193239489042</v>
+        <v>0.00233699316052675</v>
       </c>
       <c r="BA5">
-        <v>0.07709104772462336</v>
+        <v>0.09025612639970371</v>
       </c>
       <c r="BB5">
-        <v>0.0647550339997018</v>
+        <v>0.0666125493755549</v>
       </c>
       <c r="BC5">
-        <v>0.0003388142136403027</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.005435744350588777</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.01043050433169895</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.02051860115630399</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.001877439781915116</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.002925634023668192</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.03848080758261464</v>
+        <v>0.01625457232602176</v>
       </c>
       <c r="BJ5">
-        <v>0.005632283818313567</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.01647145921771167</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.04324651363545166</v>
+        <v>0.02538866869193845</v>
       </c>
       <c r="BM5">
-        <v>0.0004389187310898835</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.002420006144473491</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0007638628148481497</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.03326130596839911</v>
+        <v>0.006250717661523276</v>
       </c>
       <c r="BQ5">
-        <v>0.03047799385637482</v>
+        <v>0.0009161374826810283</v>
       </c>
       <c r="BR5">
-        <v>0.00137243890063714</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.01631107515975077</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0001549058847911476</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.002261032403045873</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.02217593869767069</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.006129110205064101</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0002831199267802202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:76">
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2223568659173052</v>
+        <v>0.2772325204495594</v>
       </c>
       <c r="E6">
-        <v>0.2137393378008829</v>
+        <v>0.265090741873089</v>
       </c>
       <c r="F6">
-        <v>0.03648813988465503</v>
+        <v>0.01535035594830435</v>
       </c>
       <c r="G6">
-        <v>0.04786797222752177</v>
+        <v>0.031384119073618</v>
       </c>
       <c r="H6">
-        <v>0.05476289477862085</v>
+        <v>0.0410988100831919</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1870,22 +1870,22 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1720539963035585</v>
+        <v>0.2063576365664133</v>
       </c>
       <c r="L6">
-        <v>0.1095460816932691</v>
+        <v>0.118286295432205</v>
       </c>
       <c r="M6">
-        <v>0.009655029758012679</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.002565293393133976</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.007092832125212972</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1897,34 +1897,34 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.00341112176465083</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.002245191511138904</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.01530006552707342</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.01296251709278671</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.001381147722695628</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.00322122929218263</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.03752141959582792</v>
+        <v>0.01680620886704472</v>
       </c>
       <c r="AB6">
-        <v>0.04574527114102294</v>
+        <v>0.02839331170657429</v>
       </c>
       <c r="AC6">
-        <v>0.0020835924704479</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -2079,43 +2079,43 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1463705708176828</v>
+        <v>0.200580496904991</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1577446734344729</v>
+        <v>0.2201191331233798</v>
       </c>
       <c r="G7">
-        <v>0.01779273374820112</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1024790041869528</v>
+        <v>0.1251827813799815</v>
       </c>
       <c r="I7">
-        <v>0.006046617921746025</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0281813242470919</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.01217205802375918</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2472612460271632</v>
+        <v>0.3738922971551251</v>
       </c>
       <c r="M7">
-        <v>0.04678991294097541</v>
+        <v>0.02951906778014023</v>
       </c>
       <c r="N7">
-        <v>0.04404134813424647</v>
+        <v>0.02479753416200073</v>
       </c>
       <c r="O7">
-        <v>0.009236755060150016</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.02991427751079747</v>
+        <v>0.0005298004301457455</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2124,40 +2124,40 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.002228022840688933</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.002321456864285709</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.04032541704977472</v>
+        <v>0.01841424150866029</v>
       </c>
       <c r="W7">
-        <v>0.03366022020147071</v>
+        <v>0.006964647555575697</v>
       </c>
       <c r="X7">
-        <v>0.008009526872182182</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.00154322436193788</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.007400606801722833</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.01234811658273883</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.01924914114024028</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.00804149459382565</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.01180292037323212</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.003959249135071339</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.001080081129589371</v>
+        <v>0</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -2309,46 +2309,46 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1232970991584282</v>
+        <v>0.1573488266917779</v>
       </c>
       <c r="E8">
-        <v>0.01009653811458324</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2321519622751538</v>
+        <v>0.339345980288744</v>
       </c>
       <c r="G8">
-        <v>0.05435352777272415</v>
+        <v>0.04208035460199556</v>
       </c>
       <c r="H8">
-        <v>0.1030534756117582</v>
+        <v>0.1235030088891154</v>
       </c>
       <c r="I8">
-        <v>0.01875849961516859</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.00816453074455507</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.06729454487206667</v>
+        <v>0.06371676302046447</v>
       </c>
       <c r="L8">
-        <v>0.06299983834639983</v>
+        <v>0.05653633634198397</v>
       </c>
       <c r="M8">
-        <v>0.03625653952056476</v>
+        <v>0.01182354974947373</v>
       </c>
       <c r="N8">
-        <v>0.1109329451524717</v>
+        <v>0.1366768900296036</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.004706391909525086</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.0006322088651186776</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2357,19 +2357,19 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.006739744323130698</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.007271340589740181</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.03498058265039541</v>
+        <v>0.009690245716613904</v>
       </c>
       <c r="X8">
-        <v>0.01379619992834042</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -2378,19 +2378,19 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.0159088712129183</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.06463968973351458</v>
+        <v>0.05927804467022738</v>
       </c>
       <c r="AC8">
-        <v>0.007016756456489385</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.01009653811458324</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.006852175032369786</v>
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -2539,37 +2539,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2657680907466968</v>
+        <v>0.4304014916437191</v>
       </c>
       <c r="E9">
-        <v>0.1183526695618885</v>
+        <v>0.1624858619637821</v>
       </c>
       <c r="F9">
-        <v>0.06064599530761366</v>
+        <v>0.05760863917861042</v>
       </c>
       <c r="G9">
-        <v>0.0431443731924616</v>
+        <v>0.02580085359067706</v>
       </c>
       <c r="H9">
-        <v>0.05935194371969682</v>
+        <v>0.05525680486420433</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02435383312583566</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.06105846756683968</v>
+        <v>0.05835827421792907</v>
       </c>
       <c r="L9">
-        <v>0.05672435993408807</v>
+        <v>0.0504813834137197</v>
       </c>
       <c r="M9">
-        <v>0.07410602888295655</v>
+        <v>0.08207116380369836</v>
       </c>
       <c r="N9">
-        <v>0.04342782075707222</v>
+        <v>0.02631599666148711</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2578,25 +2578,25 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.001003583845602164</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.001787005170107003</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.004232966929687011</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.0007254438439150351</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.03411612660557645</v>
+        <v>0.009392744114812088</v>
       </c>
       <c r="W9">
-        <v>0.03336764311351625</v>
+        <v>0.008032435780252234</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.006027694996584909</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.04264141708434696</v>
+        <v>0.02488677145921556</v>
       </c>
       <c r="AB9">
-        <v>0.03384917400396273</v>
+        <v>0.008907579307892906</v>
       </c>
       <c r="AC9">
-        <v>0.003098405223145181</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.02757603157350802</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.004640924814898971</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -2769,37 +2769,37 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2832258276636156</v>
+        <v>0.412690471739419</v>
       </c>
       <c r="E10">
-        <v>0.008428344408071683</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1342810391638359</v>
+        <v>0.1735579245331572</v>
       </c>
       <c r="G10">
-        <v>0.02361423486140255</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.06606083827199044</v>
+        <v>0.06402961827614444</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03640912466918744</v>
+        <v>0.01642345578943665</v>
       </c>
       <c r="K10">
-        <v>0.04014003161857644</v>
+        <v>0.02241346921107613</v>
       </c>
       <c r="L10">
-        <v>0.05842446900018012</v>
+        <v>0.05176934080172762</v>
       </c>
       <c r="M10">
-        <v>0.06269747187656523</v>
+        <v>0.05862969538238597</v>
       </c>
       <c r="N10">
-        <v>0.08414012074270476</v>
+        <v>0.09305611133058132</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2808,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.004992345966665829</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2817,16 +2817,16 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.007034758044037707</v>
+        <v>0</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.01891938276732096</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.0560288362430572</v>
+        <v>0.04792312523989607</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.03075039924609661</v>
+        <v>0.007338307943753278</v>
       </c>
       <c r="AB10">
-        <v>0.05729931624919501</v>
+        <v>0.04996289529900631</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.02755345920749651</v>
+        <v>0.002205584453416066</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -2999,37 +2999,37 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2463267421964772</v>
+        <v>0.312389879166559</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.196319076177498</v>
+        <v>0.2422170010670041</v>
       </c>
       <c r="G11">
-        <v>0.003397463347793321</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.06330723463405552</v>
+        <v>0.05556914313892389</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01423176820438062</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.09210164095785595</v>
+        <v>0.09597467544555539</v>
       </c>
       <c r="L11">
-        <v>0.06221707502911511</v>
+        <v>0.05403938494070067</v>
       </c>
       <c r="M11">
-        <v>0.03422986803324914</v>
+        <v>0.01476654896946082</v>
       </c>
       <c r="N11">
-        <v>0.1165619379242488</v>
+        <v>0.1302984016648547</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -3041,25 +3041,25 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0.004310677155019638</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>0.009225558129940373</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.01593264196731873</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.05803680080162921</v>
+        <v>0.0481734468327964</v>
       </c>
       <c r="X11">
-        <v>0.007253765413109296</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -3068,16 +3068,16 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.007310765532293911</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.05689521041068333</v>
+        <v>0.04657151877414505</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.01234177408533195</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -3595,97 +3595,97 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.208281648147465</v>
+        <v>0.3645943188240445</v>
       </c>
       <c r="AT2">
-        <v>0.3635121035049266</v>
+        <v>0.6206964641739265</v>
       </c>
       <c r="AU2">
-        <v>0.3862098272711051</v>
+        <v>0.6206964641739265</v>
       </c>
       <c r="AV2">
-        <v>0.3893063172683707</v>
+        <v>0.6206964641739265</v>
       </c>
       <c r="AW2">
-        <v>0.4603826621611786</v>
+        <v>0.7046995129542883</v>
       </c>
       <c r="AX2">
-        <v>0.4742752178465747</v>
+        <v>0.7046995129542883</v>
       </c>
       <c r="AY2">
-        <v>0.5185166898163041</v>
+        <v>0.733823990015216</v>
       </c>
       <c r="AZ2">
-        <v>0.5236433546523206</v>
+        <v>0.733823990015216</v>
       </c>
       <c r="BA2">
-        <v>0.6408090335823767</v>
+        <v>0.9120818851186558</v>
       </c>
       <c r="BB2">
-        <v>0.6747832723985064</v>
+        <v>0.920209389598603</v>
       </c>
       <c r="BC2">
-        <v>0.6860243865759545</v>
+        <v>0.920209389598603</v>
       </c>
       <c r="BD2">
-        <v>0.6862469341772418</v>
+        <v>0.920209389598603</v>
       </c>
       <c r="BE2">
-        <v>0.7099454307592599</v>
+        <v>0.920209389598603</v>
       </c>
       <c r="BF2">
-        <v>0.7335358959996197</v>
+        <v>0.920209389598603</v>
       </c>
       <c r="BG2">
-        <v>0.7417238524584842</v>
+        <v>0.920209389598603</v>
       </c>
       <c r="BH2">
-        <v>0.7753704997655819</v>
+        <v>0.9276669541025115</v>
       </c>
       <c r="BI2">
-        <v>0.8036412574867322</v>
+        <v>0.9276669541025115</v>
       </c>
       <c r="BJ2">
-        <v>0.8041110651349499</v>
+        <v>0.9276669541025115</v>
       </c>
       <c r="BK2">
-        <v>0.8524586897224365</v>
+        <v>0.9651887055448183</v>
       </c>
       <c r="BL2">
-        <v>0.8852916021714183</v>
+        <v>0.9709821441592648</v>
       </c>
       <c r="BM2">
-        <v>0.8863334573642657</v>
+        <v>0.9709821441592648</v>
       </c>
       <c r="BN2">
-        <v>0.8867302094591621</v>
+        <v>0.9709821441592648</v>
       </c>
       <c r="BO2">
-        <v>0.8912044037343473</v>
+        <v>0.9709821441592648</v>
       </c>
       <c r="BP2">
-        <v>0.9353937393819182</v>
+        <v>1</v>
       </c>
       <c r="BQ2">
-        <v>0.942470403915709</v>
+        <v>1</v>
       </c>
       <c r="BR2">
-        <v>0.9454871767043123</v>
+        <v>1</v>
       </c>
       <c r="BS2">
-        <v>0.9606241975505918</v>
+        <v>1</v>
       </c>
       <c r="BT2">
-        <v>0.9606290811009883</v>
+        <v>1</v>
       </c>
       <c r="BU2">
-        <v>0.9748696378370484</v>
+        <v>1</v>
       </c>
       <c r="BV2">
-        <v>0.9967169436158951</v>
+        <v>1</v>
       </c>
       <c r="BW2">
-        <v>0.9993964153896598</v>
+        <v>1</v>
       </c>
       <c r="BX2">
         <v>1</v>
@@ -3702,223 +3702,223 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04052625656408599</v>
+        <v>0.01943779290042094</v>
       </c>
       <c r="E3">
-        <v>0.1241915523375813</v>
+        <v>0.1175390896136869</v>
       </c>
       <c r="F3">
-        <v>0.364663078668623</v>
+        <v>0.5015746060360223</v>
       </c>
       <c r="G3">
-        <v>0.3679242144097074</v>
+        <v>0.5015746060360223</v>
       </c>
       <c r="H3">
-        <v>0.3921964349703063</v>
+        <v>0.5015746060360223</v>
       </c>
       <c r="I3">
-        <v>0.4525306394186755</v>
+        <v>0.5571319466240071</v>
       </c>
       <c r="J3">
-        <v>0.4782450913355379</v>
+        <v>0.5571319466240071</v>
       </c>
       <c r="K3">
-        <v>0.4997800714568008</v>
+        <v>0.5571319466240071</v>
       </c>
       <c r="L3">
-        <v>0.6318194952982488</v>
+        <v>0.7434428668581987</v>
       </c>
       <c r="M3">
-        <v>0.7717387612516016</v>
+        <v>0.9441225816083155</v>
       </c>
       <c r="N3">
-        <v>0.7872506441645373</v>
+        <v>0.9441225816083155</v>
       </c>
       <c r="O3">
-        <v>0.7872506441645373</v>
+        <v>0.9441225816083155</v>
       </c>
       <c r="P3">
-        <v>0.7937668232641293</v>
+        <v>0.9441225816083155</v>
       </c>
       <c r="Q3">
-        <v>0.8085867062719022</v>
+        <v>0.9441225816083155</v>
       </c>
       <c r="R3">
-        <v>0.8085867062719022</v>
+        <v>0.9441225816083155</v>
       </c>
       <c r="S3">
-        <v>0.8085867062719022</v>
+        <v>0.9441225816083155</v>
       </c>
       <c r="T3">
-        <v>0.8370248777091358</v>
+        <v>0.9441225816083155</v>
       </c>
       <c r="U3">
-        <v>0.8423363849234882</v>
+        <v>0.9441225816083155</v>
       </c>
       <c r="V3">
-        <v>0.8523530598419903</v>
+        <v>0.9441225816083155</v>
       </c>
       <c r="W3">
-        <v>0.91286279485097</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X3">
-        <v>0.9288449593979676</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y3">
-        <v>0.9288449593979676</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z3">
-        <v>0.9288449593979676</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.9297930078124412</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.9568412988811965</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC3">
-        <v>0.9609712490628239</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD3">
-        <v>0.9636483059045463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE3">
-        <v>0.9667490337484572</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.9667490337484572</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>0.9832862850908057</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.9976963063558133</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:76">
@@ -3932,223 +3932,223 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1157678671924923</v>
+        <v>0.1425842951269239</v>
       </c>
       <c r="E4">
-        <v>0.1157678671924923</v>
+        <v>0.1425842951269239</v>
       </c>
       <c r="F4">
-        <v>0.4337212551762744</v>
+        <v>0.6169727951235534</v>
       </c>
       <c r="G4">
-        <v>0.4486012958027004</v>
+        <v>0.6169727951235534</v>
       </c>
       <c r="H4">
-        <v>0.5205550706043682</v>
+        <v>0.687654314864142</v>
       </c>
       <c r="I4">
-        <v>0.5425995043921664</v>
+        <v>0.687654314864142</v>
       </c>
       <c r="J4">
-        <v>0.5477090365242262</v>
+        <v>0.687654314864142</v>
       </c>
       <c r="K4">
-        <v>0.5804643427270668</v>
+        <v>0.6940077034178791</v>
       </c>
       <c r="L4">
-        <v>0.6758018740300407</v>
+        <v>0.803064022216368</v>
       </c>
       <c r="M4">
-        <v>0.7691740821290167</v>
+        <v>0.9088950729518306</v>
       </c>
       <c r="N4">
-        <v>0.8025267982525466</v>
+        <v>0.9162288636774927</v>
       </c>
       <c r="O4">
-        <v>0.8025267982525466</v>
+        <v>0.9162288636774927</v>
       </c>
       <c r="P4">
-        <v>0.8039655045804113</v>
+        <v>0.9162288636774927</v>
       </c>
       <c r="Q4">
-        <v>0.8101874648657428</v>
+        <v>0.9162288636774927</v>
       </c>
       <c r="R4">
-        <v>0.8101874648657428</v>
+        <v>0.9162288636774927</v>
       </c>
       <c r="S4">
-        <v>0.8101874648657428</v>
+        <v>0.9162288636774927</v>
       </c>
       <c r="T4">
-        <v>0.834272288284619</v>
+        <v>0.9162288636774927</v>
       </c>
       <c r="U4">
-        <v>0.8379155993908552</v>
+        <v>0.9162288636774927</v>
       </c>
       <c r="V4">
-        <v>0.8379155993908552</v>
+        <v>0.9162288636774927</v>
       </c>
       <c r="W4">
-        <v>0.885396955053966</v>
+        <v>0.9467489933159227</v>
       </c>
       <c r="X4">
-        <v>0.891691941034304</v>
+        <v>0.9467489933159227</v>
       </c>
       <c r="Y4">
-        <v>0.891691941034304</v>
+        <v>0.9467489933159227</v>
       </c>
       <c r="Z4">
-        <v>0.891691941034304</v>
+        <v>0.9467489933159227</v>
       </c>
       <c r="AA4">
-        <v>0.9108006784368811</v>
+        <v>0.9467489933159227</v>
       </c>
       <c r="AB4">
-        <v>0.9721331370880376</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC4">
-        <v>0.9756858856753512</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD4">
-        <v>0.9813304629107714</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE4">
-        <v>0.9813304629107714</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF4">
-        <v>0.9813304629107714</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG4">
-        <v>0.9955814214396724</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AU4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AV4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AW4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AX4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AY4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AZ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BA4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BB4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BC4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BD4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BE4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BF4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BG4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BH4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BI4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BK4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BL4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BM4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BN4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BO4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BP4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BQ4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BR4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BS4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BT4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BU4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BV4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BW4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="BX4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:76">
@@ -4285,100 +4285,100 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.2787730009420327</v>
+        <v>0.4768058580721947</v>
       </c>
       <c r="AT5">
-        <v>0.3662938539655077</v>
+        <v>0.5870520647708599</v>
       </c>
       <c r="AU5">
-        <v>0.4592438866052287</v>
+        <v>0.7077040013347025</v>
       </c>
       <c r="AV5">
-        <v>0.4614894404903017</v>
+        <v>0.7077040013347025</v>
       </c>
       <c r="AW5">
-        <v>0.5295898795761428</v>
+        <v>0.7807284552845299</v>
       </c>
       <c r="AX5">
-        <v>0.5296543912594857</v>
+        <v>0.7807284552845299</v>
       </c>
       <c r="AY5">
-        <v>0.5655270835219383</v>
+        <v>0.7919842349020502</v>
       </c>
       <c r="AZ5">
-        <v>0.5967464074708424</v>
+        <v>0.7943212280625769</v>
       </c>
       <c r="BA5">
-        <v>0.6738374551954658</v>
+        <v>0.8845773544622806</v>
       </c>
       <c r="BB5">
-        <v>0.7385924891951676</v>
+        <v>0.9511899038378355</v>
       </c>
       <c r="BC5">
-        <v>0.738931303408808</v>
+        <v>0.9511899038378355</v>
       </c>
       <c r="BD5">
-        <v>0.7443670477593968</v>
+        <v>0.9511899038378355</v>
       </c>
       <c r="BE5">
-        <v>0.7547975520910957</v>
+        <v>0.9511899038378355</v>
       </c>
       <c r="BF5">
-        <v>0.7753161532473997</v>
+        <v>0.9511899038378355</v>
       </c>
       <c r="BG5">
-        <v>0.7771935930293148</v>
+        <v>0.9511899038378355</v>
       </c>
       <c r="BH5">
-        <v>0.780119227052983</v>
+        <v>0.9511899038378355</v>
       </c>
       <c r="BI5">
-        <v>0.8186000346355976</v>
+        <v>0.9674444761638573</v>
       </c>
       <c r="BJ5">
-        <v>0.8242323184539112</v>
+        <v>0.9674444761638573</v>
       </c>
       <c r="BK5">
-        <v>0.8407037776716229</v>
+        <v>0.9674444761638573</v>
       </c>
       <c r="BL5">
-        <v>0.8839502913070745</v>
+        <v>0.9928331448557958</v>
       </c>
       <c r="BM5">
-        <v>0.8843892100381644</v>
+        <v>0.9928331448557958</v>
       </c>
       <c r="BN5">
-        <v>0.8868092161826379</v>
+        <v>0.9928331448557958</v>
       </c>
       <c r="BO5">
-        <v>0.8875730789974861</v>
+        <v>0.9928331448557958</v>
       </c>
       <c r="BP5">
-        <v>0.9208343849658852</v>
+        <v>0.9990838625173191</v>
       </c>
       <c r="BQ5">
-        <v>0.9513123788222601</v>
+        <v>1</v>
       </c>
       <c r="BR5">
-        <v>0.9526848177228971</v>
+        <v>1</v>
       </c>
       <c r="BS5">
-        <v>0.9689958928826479</v>
+        <v>1</v>
       </c>
       <c r="BT5">
-        <v>0.969150798767439</v>
+        <v>1</v>
       </c>
       <c r="BU5">
-        <v>0.9714118311704849</v>
+        <v>1</v>
       </c>
       <c r="BV5">
-        <v>0.9935877698681556</v>
+        <v>1</v>
       </c>
       <c r="BW5">
-        <v>0.9997168800732197</v>
+        <v>1</v>
       </c>
       <c r="BX5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:76">
@@ -4392,223 +4392,223 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2223568659173052</v>
+        <v>0.2772325204495594</v>
       </c>
       <c r="E6">
-        <v>0.4360962037181881</v>
+        <v>0.5423232623226484</v>
       </c>
       <c r="F6">
-        <v>0.4725843436028432</v>
+        <v>0.5576736182709527</v>
       </c>
       <c r="G6">
-        <v>0.520452315830365</v>
+        <v>0.5890577373445708</v>
       </c>
       <c r="H6">
-        <v>0.5752152106089858</v>
+        <v>0.6301565474277627</v>
       </c>
       <c r="I6">
-        <v>0.5752152106089858</v>
+        <v>0.6301565474277627</v>
       </c>
       <c r="J6">
-        <v>0.5752152106089858</v>
+        <v>0.6301565474277627</v>
       </c>
       <c r="K6">
-        <v>0.7472692069125444</v>
+        <v>0.836514183994176</v>
       </c>
       <c r="L6">
-        <v>0.8568152886058135</v>
+        <v>0.954800479426381</v>
       </c>
       <c r="M6">
-        <v>0.8664703183638262</v>
+        <v>0.954800479426381</v>
       </c>
       <c r="N6">
-        <v>0.8690356117569601</v>
+        <v>0.954800479426381</v>
       </c>
       <c r="O6">
-        <v>0.8690356117569601</v>
+        <v>0.954800479426381</v>
       </c>
       <c r="P6">
-        <v>0.876128443882173</v>
+        <v>0.954800479426381</v>
       </c>
       <c r="Q6">
-        <v>0.876128443882173</v>
+        <v>0.954800479426381</v>
       </c>
       <c r="R6">
-        <v>0.876128443882173</v>
+        <v>0.954800479426381</v>
       </c>
       <c r="S6">
-        <v>0.876128443882173</v>
+        <v>0.954800479426381</v>
       </c>
       <c r="T6">
-        <v>0.8795395656468239</v>
+        <v>0.954800479426381</v>
       </c>
       <c r="U6">
-        <v>0.8817847571579628</v>
+        <v>0.954800479426381</v>
       </c>
       <c r="V6">
-        <v>0.8970848226850362</v>
+        <v>0.954800479426381</v>
       </c>
       <c r="W6">
-        <v>0.9100473397778229</v>
+        <v>0.954800479426381</v>
       </c>
       <c r="X6">
-        <v>0.9100473397778229</v>
+        <v>0.954800479426381</v>
       </c>
       <c r="Y6">
-        <v>0.9114284875005185</v>
+        <v>0.954800479426381</v>
       </c>
       <c r="Z6">
-        <v>0.9146497167927011</v>
+        <v>0.954800479426381</v>
       </c>
       <c r="AA6">
-        <v>0.952171136388529</v>
+        <v>0.9716066882934258</v>
       </c>
       <c r="AB6">
-        <v>0.9979164075295519</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:76">
@@ -4622,223 +4622,223 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1463705708176828</v>
+        <v>0.200580496904991</v>
       </c>
       <c r="E7">
-        <v>0.1463705708176828</v>
+        <v>0.200580496904991</v>
       </c>
       <c r="F7">
-        <v>0.3041152442521557</v>
+        <v>0.4206996300283707</v>
       </c>
       <c r="G7">
-        <v>0.3219079780003569</v>
+        <v>0.4206996300283707</v>
       </c>
       <c r="H7">
-        <v>0.4243869821873097</v>
+        <v>0.5458824114083523</v>
       </c>
       <c r="I7">
-        <v>0.4304336001090557</v>
+        <v>0.5458824114083523</v>
       </c>
       <c r="J7">
-        <v>0.4586149243561476</v>
+        <v>0.5458824114083523</v>
       </c>
       <c r="K7">
-        <v>0.4707869823799068</v>
+        <v>0.5458824114083523</v>
       </c>
       <c r="L7">
-        <v>0.7180482284070699</v>
+        <v>0.9197747085634773</v>
       </c>
       <c r="M7">
-        <v>0.7648381413480454</v>
+        <v>0.9492937763436176</v>
       </c>
       <c r="N7">
-        <v>0.8088794894822918</v>
+        <v>0.9740913105056183</v>
       </c>
       <c r="O7">
-        <v>0.8181162445424418</v>
+        <v>0.9740913105056183</v>
       </c>
       <c r="P7">
-        <v>0.8480305220532393</v>
+        <v>0.974621110935764</v>
       </c>
       <c r="Q7">
-        <v>0.8480305220532393</v>
+        <v>0.974621110935764</v>
       </c>
       <c r="R7">
-        <v>0.8480305220532393</v>
+        <v>0.974621110935764</v>
       </c>
       <c r="S7">
-        <v>0.8502585448939282</v>
+        <v>0.974621110935764</v>
       </c>
       <c r="T7">
-        <v>0.8525800017582139</v>
+        <v>0.974621110935764</v>
       </c>
       <c r="U7">
-        <v>0.8525800017582139</v>
+        <v>0.974621110935764</v>
       </c>
       <c r="V7">
-        <v>0.8929054188079887</v>
+        <v>0.9930353524444243</v>
       </c>
       <c r="W7">
-        <v>0.9265656390094594</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.9345751658816416</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.9361183902435795</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.9435189970453023</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.9558671136280411</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.9751162547682813</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.983157749362107</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9949606697353391</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9949606697353391</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9949606697353391</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9989199188704104</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AU7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AV7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AW7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AX7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AY7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AZ7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BA7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BB7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BC7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BD7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BE7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BF7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BG7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BH7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BI7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BJ7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BK7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BL7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BM7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BN7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BO7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BP7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BQ7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BR7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BS7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BT7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BU7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BV7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BW7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BX7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:76">
@@ -4852,85 +4852,85 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1232970991584282</v>
+        <v>0.1573488266917779</v>
       </c>
       <c r="E8">
-        <v>0.1333936372730114</v>
+        <v>0.1573488266917779</v>
       </c>
       <c r="F8">
-        <v>0.3655455995481652</v>
+        <v>0.4966948069805219</v>
       </c>
       <c r="G8">
-        <v>0.4198991273208894</v>
+        <v>0.5387751615825175</v>
       </c>
       <c r="H8">
-        <v>0.5229526029326476</v>
+        <v>0.662278170471633</v>
       </c>
       <c r="I8">
-        <v>0.5417111025478162</v>
+        <v>0.662278170471633</v>
       </c>
       <c r="J8">
-        <v>0.5498756332923712</v>
+        <v>0.662278170471633</v>
       </c>
       <c r="K8">
-        <v>0.6171701781644379</v>
+        <v>0.7259949334920974</v>
       </c>
       <c r="L8">
-        <v>0.6801700165108377</v>
+        <v>0.7825312698340814</v>
       </c>
       <c r="M8">
-        <v>0.7164265560314025</v>
+        <v>0.7943548195835551</v>
       </c>
       <c r="N8">
-        <v>0.8273595011838741</v>
+        <v>0.9310317096131587</v>
       </c>
       <c r="O8">
-        <v>0.8273595011838741</v>
+        <v>0.9310317096131587</v>
       </c>
       <c r="P8">
-        <v>0.8320658930933992</v>
+        <v>0.9310317096131587</v>
       </c>
       <c r="Q8">
-        <v>0.8326981019585179</v>
+        <v>0.9310317096131587</v>
       </c>
       <c r="R8">
-        <v>0.8326981019585179</v>
+        <v>0.9310317096131587</v>
       </c>
       <c r="S8">
-        <v>0.8326981019585179</v>
+        <v>0.9310317096131587</v>
       </c>
       <c r="T8">
-        <v>0.8394378462816486</v>
+        <v>0.9310317096131587</v>
       </c>
       <c r="U8">
-        <v>0.8394378462816486</v>
+        <v>0.9310317096131587</v>
       </c>
       <c r="V8">
-        <v>0.8467091868713889</v>
+        <v>0.9310317096131587</v>
       </c>
       <c r="W8">
-        <v>0.8816897695217842</v>
+        <v>0.9407219553297727</v>
       </c>
       <c r="X8">
-        <v>0.8954859694501247</v>
+        <v>0.9407219553297727</v>
       </c>
       <c r="Y8">
-        <v>0.8954859694501247</v>
+        <v>0.9407219553297727</v>
       </c>
       <c r="Z8">
-        <v>0.8954859694501247</v>
+        <v>0.9407219553297727</v>
       </c>
       <c r="AA8">
-        <v>0.911394840663043</v>
+        <v>0.9407219553297727</v>
       </c>
       <c r="AB8">
-        <v>0.9760345303965576</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.983051286853047</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9931478249676302</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -5082,97 +5082,97 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2657680907466968</v>
+        <v>0.4304014916437191</v>
       </c>
       <c r="E9">
-        <v>0.3841207603085853</v>
+        <v>0.5928873536075012</v>
       </c>
       <c r="F9">
-        <v>0.4447667556161989</v>
+        <v>0.6504959927861116</v>
       </c>
       <c r="G9">
-        <v>0.4879111288086606</v>
+        <v>0.6762968463767887</v>
       </c>
       <c r="H9">
-        <v>0.5472630725283574</v>
+        <v>0.731553651240993</v>
       </c>
       <c r="I9">
-        <v>0.5472630725283574</v>
+        <v>0.731553651240993</v>
       </c>
       <c r="J9">
-        <v>0.571616905654193</v>
+        <v>0.731553651240993</v>
       </c>
       <c r="K9">
-        <v>0.6326753732210326</v>
+        <v>0.7899119254589221</v>
       </c>
       <c r="L9">
-        <v>0.6893997331551207</v>
+        <v>0.8403933088726417</v>
       </c>
       <c r="M9">
-        <v>0.7635057620380773</v>
+        <v>0.9224644726763401</v>
       </c>
       <c r="N9">
-        <v>0.8069335827951495</v>
+        <v>0.9487804693378272</v>
       </c>
       <c r="O9">
-        <v>0.8069335827951495</v>
+        <v>0.9487804693378272</v>
       </c>
       <c r="P9">
-        <v>0.8069335827951495</v>
+        <v>0.9487804693378272</v>
       </c>
       <c r="Q9">
-        <v>0.8079371666407517</v>
+        <v>0.9487804693378272</v>
       </c>
       <c r="R9">
-        <v>0.8079371666407517</v>
+        <v>0.9487804693378272</v>
       </c>
       <c r="S9">
-        <v>0.8097241718108587</v>
+        <v>0.9487804693378272</v>
       </c>
       <c r="T9">
-        <v>0.8139571387405456</v>
+        <v>0.9487804693378272</v>
       </c>
       <c r="U9">
-        <v>0.8146825825844607</v>
+        <v>0.9487804693378272</v>
       </c>
       <c r="V9">
-        <v>0.8487987091900372</v>
+        <v>0.9581732134526393</v>
       </c>
       <c r="W9">
-        <v>0.8821663523035534</v>
+        <v>0.9662056492328915</v>
       </c>
       <c r="X9">
-        <v>0.8821663523035534</v>
+        <v>0.9662056492328915</v>
       </c>
       <c r="Y9">
-        <v>0.8821663523035534</v>
+        <v>0.9662056492328915</v>
       </c>
       <c r="Z9">
-        <v>0.8881940473001384</v>
+        <v>0.9662056492328915</v>
       </c>
       <c r="AA9">
-        <v>0.9308354643844854</v>
+        <v>0.9910924206921071</v>
       </c>
       <c r="AB9">
-        <v>0.9646846383884481</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.9677830436115933</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.9953590751851012</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.9953590751851012</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9953590751851012</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9953590751851012</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9953590751851012</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <v>1</v>
@@ -5312,223 +5312,223 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2832258276636156</v>
+        <v>0.412690471739419</v>
       </c>
       <c r="E10">
-        <v>0.2916541720716873</v>
+        <v>0.412690471739419</v>
       </c>
       <c r="F10">
-        <v>0.4259352112355231</v>
+        <v>0.5862483962725762</v>
       </c>
       <c r="G10">
-        <v>0.4495494460969257</v>
+        <v>0.5862483962725762</v>
       </c>
       <c r="H10">
-        <v>0.5156102843689161</v>
+        <v>0.6502780145487206</v>
       </c>
       <c r="I10">
-        <v>0.5156102843689161</v>
+        <v>0.6502780145487206</v>
       </c>
       <c r="J10">
-        <v>0.5520194090381035</v>
+        <v>0.6667014703381572</v>
       </c>
       <c r="K10">
-        <v>0.59215944065668</v>
+        <v>0.6891149395492333</v>
       </c>
       <c r="L10">
-        <v>0.6505839096568602</v>
+        <v>0.7408842803509609</v>
       </c>
       <c r="M10">
-        <v>0.7132813815334255</v>
+        <v>0.7995139757333468</v>
       </c>
       <c r="N10">
-        <v>0.7974215022761302</v>
+        <v>0.8925700870639282</v>
       </c>
       <c r="O10">
-        <v>0.7974215022761302</v>
+        <v>0.8925700870639282</v>
       </c>
       <c r="P10">
-        <v>0.7974215022761302</v>
+        <v>0.8925700870639282</v>
       </c>
       <c r="Q10">
-        <v>0.802413848242796</v>
+        <v>0.8925700870639282</v>
       </c>
       <c r="R10">
-        <v>0.802413848242796</v>
+        <v>0.8925700870639282</v>
       </c>
       <c r="S10">
-        <v>0.802413848242796</v>
+        <v>0.8925700870639282</v>
       </c>
       <c r="T10">
-        <v>0.8094486062868338</v>
+        <v>0.8925700870639282</v>
       </c>
       <c r="U10">
-        <v>0.8094486062868338</v>
+        <v>0.8925700870639282</v>
       </c>
       <c r="V10">
-        <v>0.8283679890541548</v>
+        <v>0.8925700870639282</v>
       </c>
       <c r="W10">
-        <v>0.884396825297212</v>
+        <v>0.9404932123038242</v>
       </c>
       <c r="X10">
-        <v>0.884396825297212</v>
+        <v>0.9404932123038242</v>
       </c>
       <c r="Y10">
-        <v>0.884396825297212</v>
+        <v>0.9404932123038242</v>
       </c>
       <c r="Z10">
-        <v>0.884396825297212</v>
+        <v>0.9404932123038242</v>
       </c>
       <c r="AA10">
-        <v>0.9151472245433085</v>
+        <v>0.9478315202475774</v>
       </c>
       <c r="AB10">
-        <v>0.9724465407925036</v>
+        <v>0.9977944155465838</v>
       </c>
       <c r="AC10">
-        <v>0.9724465407925036</v>
+        <v>0.9977944155465838</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:76">
@@ -5542,223 +5542,223 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2463267421964772</v>
+        <v>0.312389879166559</v>
       </c>
       <c r="E11">
-        <v>0.2463267421964772</v>
+        <v>0.312389879166559</v>
       </c>
       <c r="F11">
-        <v>0.4426458183739752</v>
+        <v>0.5546068802335631</v>
       </c>
       <c r="G11">
-        <v>0.4460432817217685</v>
+        <v>0.5546068802335631</v>
       </c>
       <c r="H11">
-        <v>0.5093505163558241</v>
+        <v>0.610176023372487</v>
       </c>
       <c r="I11">
-        <v>0.5093505163558241</v>
+        <v>0.610176023372487</v>
       </c>
       <c r="J11">
-        <v>0.5235822845602047</v>
+        <v>0.610176023372487</v>
       </c>
       <c r="K11">
-        <v>0.6156839255180606</v>
+        <v>0.7061506988180424</v>
       </c>
       <c r="L11">
-        <v>0.6779010005471757</v>
+        <v>0.7601900837587431</v>
       </c>
       <c r="M11">
-        <v>0.7121308685804248</v>
+        <v>0.7749566327282039</v>
       </c>
       <c r="N11">
-        <v>0.8286928065046736</v>
+        <v>0.9052550343930585</v>
       </c>
       <c r="O11">
-        <v>0.8286928065046736</v>
+        <v>0.9052550343930585</v>
       </c>
       <c r="P11">
-        <v>0.8286928065046736</v>
+        <v>0.9052550343930585</v>
       </c>
       <c r="Q11">
-        <v>0.8286928065046736</v>
+        <v>0.9052550343930585</v>
       </c>
       <c r="R11">
-        <v>0.8330034836596932</v>
+        <v>0.9052550343930585</v>
       </c>
       <c r="S11">
-        <v>0.8330034836596932</v>
+        <v>0.9052550343930585</v>
       </c>
       <c r="T11">
-        <v>0.8422290417896336</v>
+        <v>0.9052550343930585</v>
       </c>
       <c r="U11">
-        <v>0.8422290417896336</v>
+        <v>0.9052550343930585</v>
       </c>
       <c r="V11">
-        <v>0.8581616837569523</v>
+        <v>0.9052550343930585</v>
       </c>
       <c r="W11">
-        <v>0.9161984845585815</v>
+        <v>0.9534284812258549</v>
       </c>
       <c r="X11">
-        <v>0.9234522499716908</v>
+        <v>0.9534284812258549</v>
       </c>
       <c r="Y11">
-        <v>0.9234522499716908</v>
+        <v>0.9534284812258549</v>
       </c>
       <c r="Z11">
-        <v>0.9234522499716908</v>
+        <v>0.9534284812258549</v>
       </c>
       <c r="AA11">
-        <v>0.9307630155039848</v>
+        <v>0.9534284812258549</v>
       </c>
       <c r="AB11">
-        <v>0.9876582259146681</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC11">
-        <v>0.9876582259146681</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5820,34 +5820,34 @@
         <v>76</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>42</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.6206964641739265</v>
       </c>
       <c r="F2">
-        <v>0.5185166898163041</v>
+        <v>45</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2">
         <v>11</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" t="s">
-        <v>99</v>
       </c>
       <c r="L2" t="s">
         <v>100</v>
@@ -5861,34 +5861,34 @@
         <v>77</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.5015746060360223</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>800</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3">
         <v>11</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.6318194952982488</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" t="s">
-        <v>99</v>
       </c>
       <c r="L3" t="s">
         <v>100</v>
@@ -5902,34 +5902,34 @@
         <v>78</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.6169727951235534</v>
       </c>
       <c r="F4">
-        <v>0.5205550706043682</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4">
         <v>11</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" t="s">
-        <v>99</v>
       </c>
       <c r="L4" t="s">
         <v>100</v>
@@ -5943,34 +5943,34 @@
         <v>79</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>42</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.5870520647708599</v>
       </c>
       <c r="F5">
-        <v>0.5295898795761428</v>
+        <v>45</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5">
         <v>11</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" t="s">
-        <v>99</v>
       </c>
       <c r="L5" t="s">
         <v>100</v>
@@ -5984,34 +5984,34 @@
         <v>80</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5423232623226484</v>
       </c>
       <c r="F6">
-        <v>0.520452315830365</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6">
         <v>11</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" t="s">
-        <v>99</v>
       </c>
       <c r="L6" t="s">
         <v>100</v>
@@ -6025,34 +6025,34 @@
         <v>81</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.5458824114083523</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7">
         <v>11</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7180482284070699</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" t="s">
-        <v>99</v>
       </c>
       <c r="L7" t="s">
         <v>100</v>
@@ -6066,34 +6066,34 @@
         <v>82</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5387751615825175</v>
       </c>
       <c r="F8">
-        <v>0.5229526029326476</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8">
         <v>11</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
       </c>
       <c r="L8" t="s">
         <v>100</v>
@@ -6107,34 +6107,34 @@
         <v>83</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5928873536075012</v>
       </c>
       <c r="F9">
-        <v>0.5472630725283574</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9">
         <v>11</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>99</v>
       </c>
       <c r="L9" t="s">
         <v>100</v>
@@ -6148,34 +6148,34 @@
         <v>84</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5862483962725762</v>
       </c>
       <c r="F10">
-        <v>0.5156102843689161</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10">
         <v>11</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -6189,34 +6189,34 @@
         <v>85</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5546068802335631</v>
       </c>
       <c r="F11">
-        <v>0.5093505163558241</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>800</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11">
         <v>11</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" t="s">
-        <v>99</v>
       </c>
       <c r="L11" t="s">
         <v>100</v>
@@ -6284,34 +6284,34 @@
         <v>76</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>42</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7046995129542883</v>
       </c>
       <c r="F2">
-        <v>0.7099454307592599</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2">
         <v>11</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" t="s">
-        <v>99</v>
       </c>
       <c r="L2" t="s">
         <v>100</v>
@@ -6325,34 +6325,34 @@
         <v>77</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7434428668581987</v>
       </c>
       <c r="F3">
-        <v>0.7717387612516016</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3">
         <v>11</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" t="s">
-        <v>99</v>
       </c>
       <c r="L3" t="s">
         <v>100</v>
@@ -6366,34 +6366,34 @@
         <v>78</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.803064022216368</v>
       </c>
       <c r="F4">
-        <v>0.7691740821290167</v>
+        <v>11</v>
       </c>
       <c r="G4">
+        <v>800</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4">
         <v>11</v>
-      </c>
-      <c r="H4">
-        <v>11</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" t="s">
-        <v>99</v>
       </c>
       <c r="L4" t="s">
         <v>100</v>
@@ -6407,34 +6407,34 @@
         <v>79</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>42</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7077040013347025</v>
       </c>
       <c r="F5">
-        <v>0.7385924891951676</v>
+        <v>46</v>
       </c>
       <c r="G5">
+        <v>800</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5">
         <v>11</v>
-      </c>
-      <c r="H5">
-        <v>11</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" t="s">
-        <v>99</v>
       </c>
       <c r="L5" t="s">
         <v>100</v>
@@ -6448,34 +6448,34 @@
         <v>80</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.7</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.836514183994176</v>
+      </c>
+      <c r="F6">
         <v>10</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7472692069125444</v>
-      </c>
       <c r="G6">
+        <v>800</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="H6">
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6">
         <v>11</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" t="s">
-        <v>99</v>
       </c>
       <c r="L6" t="s">
         <v>100</v>
@@ -6489,34 +6489,34 @@
         <v>81</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.9197747085634773</v>
+      </c>
+      <c r="F7">
         <v>11</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7180482284070699</v>
-      </c>
       <c r="G7">
+        <v>800</v>
+      </c>
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7">
         <v>11</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" t="s">
-        <v>99</v>
       </c>
       <c r="L7" t="s">
         <v>100</v>
@@ -6530,34 +6530,34 @@
         <v>82</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7259949334920974</v>
       </c>
       <c r="F8">
-        <v>0.7164265560314025</v>
+        <v>10</v>
       </c>
       <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8">
         <v>11</v>
-      </c>
-      <c r="H8">
-        <v>11</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
       </c>
       <c r="L8" t="s">
         <v>100</v>
@@ -6571,34 +6571,34 @@
         <v>83</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.731553651240993</v>
       </c>
       <c r="F9">
-        <v>0.7635057620380773</v>
+        <v>7</v>
       </c>
       <c r="G9">
+        <v>800</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9">
         <v>11</v>
-      </c>
-      <c r="H9">
-        <v>11</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>99</v>
       </c>
       <c r="L9" t="s">
         <v>100</v>
@@ -6612,34 +6612,34 @@
         <v>84</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7408842803509609</v>
       </c>
       <c r="F10">
-        <v>0.7132813815334255</v>
+        <v>11</v>
       </c>
       <c r="G10">
+        <v>800</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10">
         <v>11</v>
-      </c>
-      <c r="H10">
-        <v>11</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -6653,34 +6653,34 @@
         <v>85</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7061506988180424</v>
       </c>
       <c r="F11">
-        <v>0.7121308685804248</v>
+        <v>10</v>
       </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11">
         <v>11</v>
-      </c>
-      <c r="H11">
-        <v>11</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" t="s">
-        <v>99</v>
       </c>
       <c r="L11" t="s">
         <v>100</v>
@@ -6748,34 +6748,34 @@
         <v>76</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>42</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>0.8</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9120818851186558</v>
       </c>
       <c r="F2">
-        <v>0.8036412574867322</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2">
         <v>11</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" t="s">
-        <v>99</v>
       </c>
       <c r="L2" t="s">
         <v>100</v>
@@ -6789,34 +6789,34 @@
         <v>77</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>0.8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9441225816083155</v>
       </c>
       <c r="F3">
-        <v>0.8085867062719022</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3">
         <v>11</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" t="s">
-        <v>99</v>
       </c>
       <c r="L3" t="s">
         <v>100</v>
@@ -6830,34 +6830,34 @@
         <v>78</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.803064022216368</v>
       </c>
       <c r="F4">
-        <v>0.8025267982525466</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4">
         <v>11</v>
-      </c>
-      <c r="I4">
-        <v>800</v>
-      </c>
-      <c r="J4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" t="s">
-        <v>99</v>
       </c>
       <c r="L4" t="s">
         <v>100</v>
@@ -6871,34 +6871,34 @@
         <v>79</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>42</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8845773544622806</v>
       </c>
       <c r="F5">
-        <v>0.8186000346355976</v>
+        <v>52</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>800</v>
       </c>
       <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5">
         <v>11</v>
-      </c>
-      <c r="I5">
-        <v>800</v>
-      </c>
-      <c r="J5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" t="s">
-        <v>99</v>
       </c>
       <c r="L5" t="s">
         <v>100</v>
@@ -6912,34 +6912,34 @@
         <v>80</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.8</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
+        <v>0.836514183994176</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>800</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6">
         <v>11</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8568152886058135</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" t="s">
-        <v>99</v>
       </c>
       <c r="L6" t="s">
         <v>100</v>
@@ -6953,34 +6953,34 @@
         <v>81</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9197747085634773</v>
       </c>
       <c r="F7">
-        <v>0.8088794894822918</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7">
         <v>11</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" t="s">
-        <v>99</v>
       </c>
       <c r="L7" t="s">
         <v>100</v>
@@ -6994,34 +6994,34 @@
         <v>82</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0.9310317096131587</v>
+      </c>
+      <c r="F8">
         <v>13</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8273595011838741</v>
-      </c>
       <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
         <v>12</v>
       </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8">
         <v>11</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
       </c>
       <c r="L8" t="s">
         <v>100</v>
@@ -7035,34 +7035,34 @@
         <v>83</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8403933088726417</v>
       </c>
       <c r="F9">
-        <v>0.8069335827951495</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9">
         <v>11</v>
-      </c>
-      <c r="I9">
-        <v>800</v>
-      </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>99</v>
       </c>
       <c r="L9" t="s">
         <v>100</v>
@@ -7076,34 +7076,34 @@
         <v>84</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8925700870639282</v>
       </c>
       <c r="F10">
-        <v>0.802413848242796</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10">
         <v>11</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -7117,34 +7117,34 @@
         <v>85</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.9052550343930585</v>
+      </c>
+      <c r="F11">
         <v>13</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8286928065046736</v>
-      </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>12</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11">
         <v>11</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" t="s">
-        <v>99</v>
       </c>
       <c r="L11" t="s">
         <v>100</v>
@@ -7212,34 +7212,34 @@
         <v>76</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>42</v>
       </c>
       <c r="D2">
-        <v>67</v>
+        <v>0.9</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9120818851186558</v>
       </c>
       <c r="F2">
-        <v>0.9353937393819182</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2">
         <v>11</v>
-      </c>
-      <c r="I2">
-        <v>800</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" t="s">
-        <v>99</v>
       </c>
       <c r="L2" t="s">
         <v>100</v>
@@ -7253,34 +7253,34 @@
         <v>77</v>
       </c>
       <c r="B3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>0.9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9441225816083155</v>
       </c>
       <c r="F3">
-        <v>0.91286279485097</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>800</v>
       </c>
       <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3">
         <v>11</v>
-      </c>
-      <c r="I3">
-        <v>800</v>
-      </c>
-      <c r="J3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" t="s">
-        <v>99</v>
       </c>
       <c r="L3" t="s">
         <v>100</v>
@@ -7294,34 +7294,34 @@
         <v>78</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9088950729518306</v>
       </c>
       <c r="F4">
-        <v>0.9108006784368811</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H4">
         <v>11</v>
       </c>
-      <c r="I4">
-        <v>800</v>
+      <c r="I4" t="s">
+        <v>98</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K4" t="s">
         <v>99</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
       </c>
       <c r="L4" t="s">
         <v>100</v>
@@ -7335,34 +7335,34 @@
         <v>79</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>42</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9511899038378355</v>
       </c>
       <c r="F5">
-        <v>0.9208343849658852</v>
+        <v>53</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H5">
         <v>11</v>
       </c>
-      <c r="I5">
-        <v>800</v>
+      <c r="I5" t="s">
+        <v>98</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" t="s">
         <v>99</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
       </c>
       <c r="L5" t="s">
         <v>100</v>
@@ -7376,34 +7376,34 @@
         <v>80</v>
       </c>
       <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.9</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.954800479426381</v>
       </c>
       <c r="F6">
-        <v>0.9100473397778229</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6">
         <v>11</v>
-      </c>
-      <c r="I6">
-        <v>800</v>
-      </c>
-      <c r="J6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" t="s">
-        <v>99</v>
       </c>
       <c r="L6" t="s">
         <v>100</v>
@@ -7417,34 +7417,34 @@
         <v>81</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9197747085634773</v>
       </c>
       <c r="F7">
-        <v>0.9265656390094594</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7">
         <v>11</v>
-      </c>
-      <c r="I7">
-        <v>800</v>
-      </c>
-      <c r="J7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K7" t="s">
-        <v>99</v>
       </c>
       <c r="L7" t="s">
         <v>100</v>
@@ -7458,34 +7458,34 @@
         <v>82</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>26</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9310317096131587</v>
       </c>
       <c r="F8">
-        <v>0.911394840663043</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8">
         <v>11</v>
-      </c>
-      <c r="I8">
-        <v>800</v>
-      </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
       </c>
       <c r="L8" t="s">
         <v>100</v>
@@ -7499,34 +7499,34 @@
         <v>83</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9224644726763401</v>
       </c>
       <c r="F9">
-        <v>0.9308354643844854</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H9">
         <v>11</v>
       </c>
-      <c r="I9">
-        <v>800</v>
+      <c r="I9" t="s">
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
         <v>99</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
       </c>
       <c r="L9" t="s">
         <v>100</v>
@@ -7540,34 +7540,34 @@
         <v>84</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9404932123038242</v>
       </c>
       <c r="F10">
-        <v>0.9151472245433085</v>
+        <v>22</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>800</v>
       </c>
       <c r="H10">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10">
         <v>11</v>
-      </c>
-      <c r="I10">
-        <v>800</v>
-      </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
       </c>
       <c r="L10" t="s">
         <v>100</v>
@@ -7581,34 +7581,34 @@
         <v>85</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9052550343930585</v>
       </c>
       <c r="F11">
-        <v>0.9161984845585815</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11">
         <v>11</v>
-      </c>
-      <c r="I11">
-        <v>800</v>
-      </c>
-      <c r="J11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" t="s">
-        <v>99</v>
       </c>
       <c r="L11" t="s">
         <v>100</v>
